--- a/BackTest/2019-10-29 BackTest INS.xlsx
+++ b/BackTest/2019-10-29 BackTest INS.xlsx
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -5631,14 +5631,20 @@
         <v>250.55</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>249</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5666,14 +5672,20 @@
         <v>250.3</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>251</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5701,14 +5713,20 @@
         <v>250.2</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>249</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5736,18 +5754,18 @@
         <v>250.1</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>249</v>
-      </c>
-      <c r="K153" t="n">
-        <v>249</v>
-      </c>
-      <c r="L153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5775,20 +5793,16 @@
         <v>250</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>250</v>
-      </c>
-      <c r="K154" t="n">
-        <v>249</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M154" t="n">
@@ -5824,14 +5838,12 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>249</v>
-      </c>
-      <c r="K155" t="n">
-        <v>249</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M155" t="n">
@@ -5867,11 +5879,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>252</v>
-      </c>
-      <c r="K156" t="n">
-        <v>249</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,11 +5920,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>249</v>
-      </c>
-      <c r="K157" t="n">
-        <v>249</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5955,9 +5963,7 @@
       <c r="J158" t="n">
         <v>248</v>
       </c>
-      <c r="K158" t="n">
-        <v>249</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5996,11 +6002,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>251</v>
-      </c>
-      <c r="K159" t="n">
-        <v>249</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6039,11 +6043,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>248</v>
-      </c>
-      <c r="K160" t="n">
-        <v>249</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6076,17 +6078,13 @@
         <v>249.35</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>248</v>
-      </c>
-      <c r="K161" t="n">
-        <v>249</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6119,17 +6117,13 @@
         <v>249.25</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>248</v>
-      </c>
-      <c r="K162" t="n">
-        <v>249</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6162,17 +6156,13 @@
         <v>249.25</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>249</v>
-      </c>
-      <c r="K163" t="n">
-        <v>249</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,17 +6195,13 @@
         <v>249.2</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>249</v>
-      </c>
-      <c r="K164" t="n">
-        <v>249</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6248,17 +6234,13 @@
         <v>249.25</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>250</v>
-      </c>
-      <c r="K165" t="n">
-        <v>249</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6291,17 +6273,13 @@
         <v>249.2</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>249</v>
-      </c>
-      <c r="K166" t="n">
-        <v>249</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6334,17 +6312,13 @@
         <v>249.3</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>251</v>
-      </c>
-      <c r="K167" t="n">
-        <v>249</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6377,17 +6351,13 @@
         <v>249.45</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>252</v>
-      </c>
-      <c r="K168" t="n">
-        <v>249</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6420,17 +6390,13 @@
         <v>249.6</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>252</v>
-      </c>
-      <c r="K169" t="n">
-        <v>249</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6463,17 +6429,13 @@
         <v>249.55</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>248</v>
-      </c>
-      <c r="K170" t="n">
-        <v>249</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6506,17 +6468,13 @@
         <v>249.7</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>253</v>
-      </c>
-      <c r="K171" t="n">
-        <v>249</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6549,17 +6507,13 @@
         <v>249.85</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>252</v>
-      </c>
-      <c r="K172" t="n">
-        <v>249</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,17 +6546,13 @@
         <v>250</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>252</v>
-      </c>
-      <c r="K173" t="n">
-        <v>249</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6641,9 +6591,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>249</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6682,9 +6630,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>249</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6723,9 +6669,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>249</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6764,9 +6708,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>249</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6805,9 +6747,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>249</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6846,9 +6786,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>249</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6887,9 +6825,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>249</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6928,9 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>249</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6969,9 +6903,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>249</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7010,9 +6942,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>249</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7051,9 +6981,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>249</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7092,9 +7020,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>249</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7133,9 +7059,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>249</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7174,9 +7098,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>249</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7215,9 +7137,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>249</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7256,9 +7176,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>249</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7297,9 +7215,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>249</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7338,9 +7254,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>249</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7379,9 +7293,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>249</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7417,19 +7329,17 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>249</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>1.047208835341366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -7458,11 +7368,15 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7493,11 +7407,15 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7532,7 +7450,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7563,11 +7485,15 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7598,11 +7524,15 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7633,11 +7563,15 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7672,7 +7606,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7707,7 +7645,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7742,7 +7684,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7777,7 +7723,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7812,7 +7762,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +7801,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7882,7 +7840,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7917,7 +7879,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7952,7 +7918,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7987,7 +7957,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8022,7 +7996,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8057,7 +8035,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8092,7 +8074,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8127,7 +8113,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8162,7 +8152,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8197,7 +8191,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8232,7 +8230,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8267,7 +8269,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8302,7 +8308,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8337,7 +8347,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8372,7 +8386,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8407,7 +8425,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8442,7 +8464,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8477,7 +8503,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8512,7 +8542,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8547,7 +8581,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8582,7 +8620,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8617,7 +8659,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8652,7 +8698,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8687,7 +8737,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8722,7 +8776,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8757,7 +8815,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8792,7 +8854,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8827,7 +8893,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8862,7 +8932,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8897,7 +8971,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8932,7 +9010,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8967,7 +9049,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9088,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9037,7 +9127,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9072,7 +9166,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9107,7 +9205,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9142,7 +9244,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9177,7 +9283,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9212,7 +9322,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest INS.xlsx
+++ b/BackTest/2019-10-29 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M244"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
         <v>1596000</v>
       </c>
       <c r="G2" t="n">
-        <v>260</v>
+        <v>259.7166666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>260</v>
       </c>
       <c r="F3" t="n">
-        <v>1602000</v>
+        <v>1596000</v>
       </c>
       <c r="G3" t="n">
-        <v>260</v>
+        <v>259.65</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>260</v>
       </c>
       <c r="F4" t="n">
-        <v>1608000</v>
+        <v>1602000</v>
       </c>
       <c r="G4" t="n">
-        <v>260</v>
+        <v>259.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>260</v>
       </c>
       <c r="F5" t="n">
-        <v>1602149.4647</v>
+        <v>1608000</v>
       </c>
       <c r="G5" t="n">
-        <v>260</v>
+        <v>259.6833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>260</v>
       </c>
       <c r="F6" t="n">
-        <v>1572000</v>
+        <v>1602149.4647</v>
       </c>
       <c r="G6" t="n">
-        <v>260</v>
+        <v>259.65</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>260</v>
       </c>
       <c r="F7" t="n">
-        <v>1590000</v>
+        <v>1572000</v>
       </c>
       <c r="G7" t="n">
-        <v>260</v>
+        <v>259.65</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>260</v>
       </c>
       <c r="F8" t="n">
-        <v>1572000</v>
+        <v>1590000</v>
       </c>
       <c r="G8" t="n">
-        <v>260</v>
+        <v>259.6333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>260</v>
       </c>
       <c r="F9" t="n">
-        <v>1590000</v>
+        <v>1572000</v>
       </c>
       <c r="G9" t="n">
-        <v>260</v>
+        <v>259.6166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>260</v>
       </c>
       <c r="F10" t="n">
-        <v>1602000</v>
+        <v>1590000</v>
       </c>
       <c r="G10" t="n">
-        <v>260</v>
+        <v>259.5833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>260</v>
       </c>
       <c r="F11" t="n">
-        <v>996000</v>
+        <v>1602000</v>
       </c>
       <c r="G11" t="n">
-        <v>260</v>
+        <v>259.5666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D12" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E12" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F12" t="n">
-        <v>544.3786</v>
+        <v>996000</v>
       </c>
       <c r="G12" t="n">
-        <v>260.05</v>
+        <v>259.5666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>261</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D13" t="n">
         <v>261</v>
       </c>
       <c r="E13" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F13" t="n">
-        <v>17655.9948</v>
+        <v>544.3786</v>
       </c>
       <c r="G13" t="n">
-        <v>260.1</v>
+        <v>259.5833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C14" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D14" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F14" t="n">
-        <v>10540.3041</v>
+        <v>17655.9948</v>
       </c>
       <c r="G14" t="n">
-        <v>260.05</v>
+        <v>259.5666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D15" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E15" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>10540.3041</v>
       </c>
       <c r="G15" t="n">
-        <v>260.05</v>
+        <v>259.55</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C16" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E16" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F16" t="n">
-        <v>1470.8840541984</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>260</v>
+        <v>259.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D17" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E17" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1470.8840541984</v>
       </c>
       <c r="G17" t="n">
-        <v>260</v>
+        <v>259.4833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>260</v>
       </c>
       <c r="F18" t="n">
-        <v>1050</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>260</v>
+        <v>259.4333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D19" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E19" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1050</v>
       </c>
       <c r="G19" t="n">
-        <v>260.05</v>
+        <v>259.3666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>261</v>
       </c>
       <c r="C20" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D20" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E20" t="n">
         <v>261</v>
       </c>
       <c r="F20" t="n">
-        <v>6065.789</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>260.1</v>
+        <v>259.4166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" t="n">
         <v>262</v>
@@ -1107,13 +1107,13 @@
         <v>262</v>
       </c>
       <c r="E21" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F21" t="n">
-        <v>3846.1538</v>
+        <v>6065.789</v>
       </c>
       <c r="G21" t="n">
-        <v>260.2</v>
+        <v>259.5666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C22" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D22" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E22" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F22" t="n">
-        <v>3699.6461</v>
+        <v>3846.1538</v>
       </c>
       <c r="G22" t="n">
-        <v>260.25</v>
+        <v>259.65</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,28 +1168,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C23" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D23" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E23" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F23" t="n">
-        <v>3113.3056</v>
+        <v>3699.6461</v>
       </c>
       <c r="G23" t="n">
-        <v>260.35</v>
+        <v>259.7666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1203,28 +1203,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D24" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E24" t="n">
         <v>262</v>
       </c>
       <c r="F24" t="n">
-        <v>3503.6602</v>
+        <v>3113.3056</v>
       </c>
       <c r="G24" t="n">
-        <v>260.5</v>
+        <v>259.8166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1247,19 +1247,19 @@
         <v>263</v>
       </c>
       <c r="E25" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F25" t="n">
-        <v>1285</v>
+        <v>3503.6602</v>
       </c>
       <c r="G25" t="n">
-        <v>260.65</v>
+        <v>259.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1273,28 +1273,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C26" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D26" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E26" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F26" t="n">
-        <v>2809.7583</v>
+        <v>1285</v>
       </c>
       <c r="G26" t="n">
-        <v>260.75</v>
+        <v>260.0333333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1311,19 +1311,19 @@
         <v>262</v>
       </c>
       <c r="C27" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E27" t="n">
         <v>262</v>
       </c>
       <c r="F27" t="n">
-        <v>2331.1439</v>
+        <v>2809.7583</v>
       </c>
       <c r="G27" t="n">
-        <v>260.85</v>
+        <v>260.1166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C28" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D28" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E28" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2331.1439</v>
       </c>
       <c r="G28" t="n">
-        <v>261.05</v>
+        <v>260.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D29" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E29" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F29" t="n">
-        <v>2408.1363</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>261.2</v>
+        <v>260.3666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>263</v>
       </c>
       <c r="F30" t="n">
-        <v>168.97</v>
+        <v>2408.1363</v>
       </c>
       <c r="G30" t="n">
-        <v>261.35</v>
+        <v>260.4666666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>263</v>
       </c>
       <c r="C31" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D31" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E31" t="n">
         <v>263</v>
       </c>
       <c r="F31" t="n">
-        <v>1918</v>
+        <v>168.97</v>
       </c>
       <c r="G31" t="n">
-        <v>261.5</v>
+        <v>260.5666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>263</v>
       </c>
       <c r="C32" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D32" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E32" t="n">
         <v>263</v>
       </c>
       <c r="F32" t="n">
-        <v>731</v>
+        <v>1918</v>
       </c>
       <c r="G32" t="n">
-        <v>261.6</v>
+        <v>260.6833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C33" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D33" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E33" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F33" t="n">
-        <v>1098.2266</v>
+        <v>731</v>
       </c>
       <c r="G33" t="n">
-        <v>261.65</v>
+        <v>260.7833333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>262</v>
       </c>
       <c r="F34" t="n">
-        <v>265.843</v>
+        <v>1098.2266</v>
       </c>
       <c r="G34" t="n">
-        <v>261.8</v>
+        <v>260.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C35" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D35" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E35" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>265.843</v>
       </c>
       <c r="G35" t="n">
-        <v>262</v>
+        <v>260.8166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C36" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D36" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E36" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>262.2</v>
+        <v>260.85</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C37" t="n">
         <v>263</v>
@@ -1667,13 +1667,13 @@
         <v>263</v>
       </c>
       <c r="E37" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F37" t="n">
-        <v>20.95</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>262.2</v>
+        <v>260.8666666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C38" t="n">
         <v>263</v>
@@ -1702,13 +1702,13 @@
         <v>263</v>
       </c>
       <c r="E38" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F38" t="n">
-        <v>749</v>
+        <v>20.95</v>
       </c>
       <c r="G38" t="n">
-        <v>262.35</v>
+        <v>260.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>263</v>
       </c>
       <c r="F39" t="n">
-        <v>3097.7031</v>
+        <v>749</v>
       </c>
       <c r="G39" t="n">
-        <v>262.45</v>
+        <v>261</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>263</v>
       </c>
       <c r="F40" t="n">
-        <v>6005</v>
+        <v>3097.7031</v>
       </c>
       <c r="G40" t="n">
-        <v>262.55</v>
+        <v>261.05</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>263</v>
       </c>
       <c r="F41" t="n">
-        <v>493.6966</v>
+        <v>6005</v>
       </c>
       <c r="G41" t="n">
-        <v>262.6</v>
+        <v>261.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>263</v>
       </c>
       <c r="F42" t="n">
-        <v>800.5381</v>
+        <v>493.6966</v>
       </c>
       <c r="G42" t="n">
-        <v>262.7</v>
+        <v>261.1666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>263</v>
       </c>
       <c r="F43" t="n">
-        <v>141.1843</v>
+        <v>800.5381</v>
       </c>
       <c r="G43" t="n">
-        <v>262.75</v>
+        <v>261.2166666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>263</v>
       </c>
       <c r="F44" t="n">
-        <v>324.2185</v>
+        <v>141.1843</v>
       </c>
       <c r="G44" t="n">
-        <v>262.75</v>
+        <v>261.2666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>263</v>
       </c>
       <c r="F45" t="n">
-        <v>72</v>
+        <v>324.2185</v>
       </c>
       <c r="G45" t="n">
-        <v>262.75</v>
+        <v>261.3166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>263</v>
       </c>
       <c r="C46" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D46" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E46" t="n">
         <v>263</v>
       </c>
       <c r="F46" t="n">
-        <v>840</v>
+        <v>72</v>
       </c>
       <c r="G46" t="n">
-        <v>262.8</v>
+        <v>261.3666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>263</v>
       </c>
       <c r="C47" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D47" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E47" t="n">
         <v>263</v>
       </c>
       <c r="F47" t="n">
-        <v>893.4104</v>
+        <v>840</v>
       </c>
       <c r="G47" t="n">
-        <v>262.85</v>
+        <v>261.4333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C48" t="n">
         <v>263</v>
@@ -2052,13 +2052,13 @@
         <v>263</v>
       </c>
       <c r="E48" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F48" t="n">
-        <v>2646</v>
+        <v>893.4104</v>
       </c>
       <c r="G48" t="n">
-        <v>262.75</v>
+        <v>261.4833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C49" t="n">
         <v>263</v>
@@ -2087,13 +2087,13 @@
         <v>263</v>
       </c>
       <c r="E49" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F49" t="n">
-        <v>125</v>
+        <v>2646</v>
       </c>
       <c r="G49" t="n">
-        <v>262.75</v>
+        <v>261.5333333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C50" t="n">
         <v>263</v>
@@ -2122,13 +2122,13 @@
         <v>263</v>
       </c>
       <c r="E50" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F50" t="n">
-        <v>2175.3217</v>
+        <v>125</v>
       </c>
       <c r="G50" t="n">
-        <v>262.7</v>
+        <v>261.5833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C51" t="n">
         <v>263</v>
@@ -2157,13 +2157,13 @@
         <v>263</v>
       </c>
       <c r="E51" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>2175.3217</v>
       </c>
       <c r="G51" t="n">
-        <v>262.7</v>
+        <v>261.6333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>263</v>
       </c>
       <c r="F52" t="n">
-        <v>498.5028</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>262.7</v>
+        <v>261.6833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C53" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D53" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E53" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>498.5028</v>
       </c>
       <c r="G53" t="n">
-        <v>262.8</v>
+        <v>261.7333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C54" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D54" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E54" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F54" t="n">
-        <v>8084.5926</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>262.85</v>
+        <v>261.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>263</v>
       </c>
       <c r="C55" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D55" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E55" t="n">
         <v>263</v>
       </c>
       <c r="F55" t="n">
-        <v>300</v>
+        <v>8084.5926</v>
       </c>
       <c r="G55" t="n">
-        <v>262.8</v>
+        <v>261.8833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>263</v>
       </c>
       <c r="F56" t="n">
-        <v>42.436</v>
+        <v>300</v>
       </c>
       <c r="G56" t="n">
-        <v>262.8</v>
+        <v>261.9333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D57" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E57" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>42.436</v>
       </c>
       <c r="G57" t="n">
-        <v>263</v>
+        <v>261.9833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C58" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D58" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E58" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F58" t="n">
-        <v>1030.535</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>262.95</v>
+        <v>262.05</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C59" t="n">
         <v>262</v>
@@ -2437,13 +2437,13 @@
         <v>262</v>
       </c>
       <c r="E59" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F59" t="n">
-        <v>4860.751</v>
+        <v>1030.535</v>
       </c>
       <c r="G59" t="n">
-        <v>262.8</v>
+        <v>262.0833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C60" t="n">
         <v>262</v>
@@ -2472,13 +2472,13 @@
         <v>262</v>
       </c>
       <c r="E60" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60" t="n">
-        <v>277</v>
+        <v>4860.751</v>
       </c>
       <c r="G60" t="n">
-        <v>262.7</v>
+        <v>262.1166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C61" t="n">
         <v>262</v>
@@ -2507,13 +2507,13 @@
         <v>262</v>
       </c>
       <c r="E61" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F61" t="n">
-        <v>449.4363</v>
+        <v>277</v>
       </c>
       <c r="G61" t="n">
-        <v>262.65</v>
+        <v>262.15</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>262</v>
       </c>
       <c r="F62" t="n">
-        <v>1447.8494</v>
+        <v>449.4363</v>
       </c>
       <c r="G62" t="n">
-        <v>262.6</v>
+        <v>262.1833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C63" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D63" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E63" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F63" t="n">
-        <v>3253.6474</v>
+        <v>1447.8494</v>
       </c>
       <c r="G63" t="n">
-        <v>262.5</v>
+        <v>262.2166666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C64" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D64" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E64" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F64" t="n">
-        <v>3283.0306</v>
+        <v>3253.6474</v>
       </c>
       <c r="G64" t="n">
-        <v>262.35</v>
+        <v>262.2333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C65" t="n">
         <v>262</v>
@@ -2647,13 +2647,13 @@
         <v>262</v>
       </c>
       <c r="E65" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F65" t="n">
-        <v>1297.7099</v>
+        <v>3283.0306</v>
       </c>
       <c r="G65" t="n">
-        <v>262.3</v>
+        <v>262.2666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C66" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D66" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E66" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F66" t="n">
-        <v>1151.68</v>
+        <v>1297.7099</v>
       </c>
       <c r="G66" t="n">
-        <v>262.2</v>
+        <v>262.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>261</v>
       </c>
       <c r="F67" t="n">
-        <v>6317.0049</v>
+        <v>1151.68</v>
       </c>
       <c r="G67" t="n">
-        <v>262.1</v>
+        <v>262.3166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>261</v>
       </c>
       <c r="F68" t="n">
-        <v>224</v>
+        <v>6317.0049</v>
       </c>
       <c r="G68" t="n">
-        <v>262.05</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>261</v>
       </c>
       <c r="F69" t="n">
-        <v>267.85</v>
+        <v>224</v>
       </c>
       <c r="G69" t="n">
-        <v>261.95</v>
+        <v>262.35</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C70" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D70" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E70" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F70" t="n">
-        <v>123</v>
+        <v>267.85</v>
       </c>
       <c r="G70" t="n">
-        <v>261.85</v>
+        <v>262.3666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C71" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D71" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E71" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F71" t="n">
-        <v>2195.7226</v>
+        <v>123</v>
       </c>
       <c r="G71" t="n">
-        <v>261.6</v>
+        <v>262.3666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C72" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D72" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E72" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>2195.7226</v>
       </c>
       <c r="G72" t="n">
-        <v>261.4</v>
+        <v>262.3166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C73" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D73" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E73" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F73" t="n">
-        <v>1845.1341</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>261.05</v>
+        <v>262.2833333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>257</v>
+      </c>
+      <c r="C74" t="n">
         <v>256</v>
       </c>
-      <c r="C74" t="n">
-        <v>259</v>
-      </c>
       <c r="D74" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E74" t="n">
         <v>256</v>
       </c>
       <c r="F74" t="n">
-        <v>4679.3009</v>
+        <v>1845.1341</v>
       </c>
       <c r="G74" t="n">
-        <v>260.7</v>
+        <v>262.2166666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C75" t="n">
         <v>259</v>
@@ -2997,13 +2997,13 @@
         <v>259</v>
       </c>
       <c r="E75" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F75" t="n">
-        <v>1373.7914</v>
+        <v>4679.3009</v>
       </c>
       <c r="G75" t="n">
-        <v>260.5</v>
+        <v>262.1666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>259</v>
       </c>
       <c r="C76" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D76" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E76" t="n">
         <v>259</v>
       </c>
       <c r="F76" t="n">
-        <v>1207.7508</v>
+        <v>1373.7914</v>
       </c>
       <c r="G76" t="n">
-        <v>260.3</v>
+        <v>262.15</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C77" t="n">
         <v>260</v>
@@ -3067,13 +3067,13 @@
         <v>260</v>
       </c>
       <c r="E77" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F77" t="n">
-        <v>290.0625</v>
+        <v>1207.7508</v>
       </c>
       <c r="G77" t="n">
-        <v>260.1</v>
+        <v>262.1166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>260</v>
       </c>
       <c r="F78" t="n">
-        <v>5708.1908</v>
+        <v>290.0625</v>
       </c>
       <c r="G78" t="n">
-        <v>260</v>
+        <v>262.1166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>260</v>
       </c>
       <c r="C79" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D79" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E79" t="n">
         <v>260</v>
       </c>
       <c r="F79" t="n">
-        <v>2031.394</v>
+        <v>5708.1908</v>
       </c>
       <c r="G79" t="n">
-        <v>260</v>
+        <v>262.1166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3166,19 @@
         <v>260</v>
       </c>
       <c r="C80" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D80" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E80" t="n">
         <v>260</v>
       </c>
       <c r="F80" t="n">
-        <v>1926.9743</v>
+        <v>2031.394</v>
       </c>
       <c r="G80" t="n">
-        <v>259.95</v>
+        <v>262.1166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C81" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D81" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E81" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>1926.9743</v>
       </c>
       <c r="G81" t="n">
-        <v>259.9</v>
+        <v>262.0833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C82" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D82" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E82" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F82" t="n">
-        <v>199.0899</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>259.8</v>
+        <v>262.0666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>260</v>
       </c>
       <c r="F83" t="n">
-        <v>365</v>
+        <v>199.0899</v>
       </c>
       <c r="G83" t="n">
-        <v>259.75</v>
+        <v>262</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>260</v>
       </c>
       <c r="F84" t="n">
-        <v>199.0899</v>
+        <v>365</v>
       </c>
       <c r="G84" t="n">
-        <v>259.75</v>
+        <v>261.9666666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>260</v>
       </c>
       <c r="C85" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D85" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E85" t="n">
         <v>260</v>
       </c>
       <c r="F85" t="n">
-        <v>8472.999900000001</v>
+        <v>199.0899</v>
       </c>
       <c r="G85" t="n">
-        <v>259.65</v>
+        <v>261.9166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C86" t="n">
         <v>261</v>
@@ -3382,13 +3382,13 @@
         <v>261</v>
       </c>
       <c r="E86" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F86" t="n">
-        <v>292</v>
+        <v>8472.999900000001</v>
       </c>
       <c r="G86" t="n">
-        <v>259.65</v>
+        <v>261.8833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>261</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="G87" t="n">
-        <v>259.65</v>
+        <v>261.8666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>261</v>
       </c>
       <c r="F88" t="n">
-        <v>2684.7796</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>259.65</v>
+        <v>261.8333333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>261</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2684.7796</v>
       </c>
       <c r="G89" t="n">
-        <v>259.65</v>
+        <v>261.7833333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>261</v>
       </c>
       <c r="F90" t="n">
-        <v>1697.7781</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>259.7</v>
+        <v>261.75</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C91" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E91" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>1697.7781</v>
       </c>
       <c r="G91" t="n">
-        <v>259.9</v>
+        <v>261.7166666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>262</v>
       </c>
       <c r="F92" t="n">
-        <v>987</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>260.05</v>
+        <v>261.6833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>262</v>
       </c>
       <c r="F93" t="n">
-        <v>300</v>
+        <v>987</v>
       </c>
       <c r="G93" t="n">
-        <v>260.3</v>
+        <v>261.6666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C94" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D94" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E94" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F94" t="n">
         <v>300</v>
       </c>
       <c r="G94" t="n">
-        <v>260.4</v>
+        <v>261.6666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C95" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D95" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E95" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G95" t="n">
-        <v>260.5</v>
+        <v>261.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C96" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D96" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E96" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F96" t="n">
-        <v>652.1832000000001</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>260.4</v>
+        <v>261.55</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C97" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D97" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E97" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F97" t="n">
-        <v>4</v>
+        <v>652.1832000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>260.4</v>
+        <v>261.45</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C98" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D98" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E98" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G98" t="n">
-        <v>260.25</v>
+        <v>261.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C99" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D99" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E99" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>260.25</v>
+        <v>261.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C100" t="n">
         <v>260</v>
@@ -3872,13 +3872,13 @@
         <v>260</v>
       </c>
       <c r="E100" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F100" t="n">
-        <v>11284.3522</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>260.1</v>
+        <v>261.25</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C101" t="n">
         <v>260</v>
@@ -3907,13 +3907,13 @@
         <v>260</v>
       </c>
       <c r="E101" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F101" t="n">
-        <v>4.9769</v>
+        <v>11284.3522</v>
       </c>
       <c r="G101" t="n">
-        <v>260.05</v>
+        <v>261.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C102" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D102" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E102" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F102" t="n">
-        <v>3036.4687</v>
+        <v>4.9769</v>
       </c>
       <c r="G102" t="n">
-        <v>259.8</v>
+        <v>261.15</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C103" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D103" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E103" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F103" t="n">
-        <v>421.9734</v>
+        <v>3036.4687</v>
       </c>
       <c r="G103" t="n">
-        <v>259.65</v>
+        <v>261</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C104" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D104" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E104" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F104" t="n">
-        <v>12.662</v>
+        <v>421.9734</v>
       </c>
       <c r="G104" t="n">
-        <v>259.4</v>
+        <v>260.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4041,19 @@
         <v>255</v>
       </c>
       <c r="C105" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D105" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E105" t="n">
         <v>255</v>
       </c>
       <c r="F105" t="n">
-        <v>455.7645</v>
+        <v>12.662</v>
       </c>
       <c r="G105" t="n">
-        <v>259.15</v>
+        <v>260.85</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C106" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D106" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E106" t="n">
         <v>255</v>
       </c>
       <c r="F106" t="n">
-        <v>2029.6263</v>
+        <v>455.7645</v>
       </c>
       <c r="G106" t="n">
-        <v>258.9</v>
+        <v>260.7166666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>256</v>
       </c>
       <c r="E107" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F107" t="n">
-        <v>41.6997</v>
+        <v>2029.6263</v>
       </c>
       <c r="G107" t="n">
-        <v>258.65</v>
+        <v>260.5833333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C108" t="n">
         <v>256</v>
@@ -4152,13 +4152,13 @@
         <v>256</v>
       </c>
       <c r="E108" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F108" t="n">
-        <v>1283.6968</v>
+        <v>41.6997</v>
       </c>
       <c r="G108" t="n">
-        <v>258.35</v>
+        <v>260.4666666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,10 +4178,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>255</v>
+      </c>
+      <c r="C109" t="n">
         <v>256</v>
-      </c>
-      <c r="C109" t="n">
-        <v>255</v>
       </c>
       <c r="D109" t="n">
         <v>256</v>
@@ -4190,10 +4190,10 @@
         <v>255</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>1283.6968</v>
       </c>
       <c r="G109" t="n">
-        <v>258.1</v>
+        <v>260.35</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4216,19 @@
         <v>256</v>
       </c>
       <c r="C110" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D110" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E110" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F110" t="n">
-        <v>1332.8003</v>
+        <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>257.85</v>
+        <v>260.2166666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4251,19 @@
         <v>256</v>
       </c>
       <c r="C111" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D111" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E111" t="n">
         <v>256</v>
       </c>
       <c r="F111" t="n">
-        <v>3863.3442</v>
+        <v>1332.8003</v>
       </c>
       <c r="G111" t="n">
-        <v>257.55</v>
+        <v>260.1166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C112" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D112" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E112" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F112" t="n">
-        <v>1519.5</v>
+        <v>3863.3442</v>
       </c>
       <c r="G112" t="n">
-        <v>257.2</v>
+        <v>260</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C113" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D113" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E113" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>1519.5</v>
       </c>
       <c r="G113" t="n">
-        <v>256.95</v>
+        <v>259.8666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C114" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D114" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E114" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F114" t="n">
-        <v>78.125</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>256.85</v>
+        <v>259.75</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C115" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D115" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E115" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F115" t="n">
-        <v>13106.9266</v>
+        <v>78.125</v>
       </c>
       <c r="G115" t="n">
-        <v>256.55</v>
+        <v>259.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>255</v>
+      </c>
+      <c r="C116" t="n">
         <v>252</v>
       </c>
-      <c r="C116" t="n">
-        <v>251</v>
-      </c>
       <c r="D116" t="n">
+        <v>255</v>
+      </c>
+      <c r="E116" t="n">
         <v>252</v>
       </c>
-      <c r="E116" t="n">
-        <v>251</v>
-      </c>
       <c r="F116" t="n">
-        <v>1157.2795</v>
+        <v>13106.9266</v>
       </c>
       <c r="G116" t="n">
-        <v>256.3</v>
+        <v>259.4166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C117" t="n">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D117" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E117" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>1157.2795</v>
       </c>
       <c r="G117" t="n">
-        <v>256.05</v>
+        <v>259.2166666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C118" t="n">
         <v>256</v>
@@ -4502,13 +4502,13 @@
         <v>256</v>
       </c>
       <c r="E118" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F118" t="n">
-        <v>820.5833</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>255.9</v>
+        <v>259.0833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C119" t="n">
         <v>256</v>
@@ -4537,13 +4537,13 @@
         <v>256</v>
       </c>
       <c r="E119" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F119" t="n">
-        <v>9646.7405</v>
+        <v>820.5833</v>
       </c>
       <c r="G119" t="n">
-        <v>255.45</v>
+        <v>258.9833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C120" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D120" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E120" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F120" t="n">
-        <v>603.174</v>
+        <v>9646.7405</v>
       </c>
       <c r="G120" t="n">
-        <v>255.35</v>
+        <v>258.8833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C121" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D121" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E121" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>603.174</v>
       </c>
       <c r="G121" t="n">
-        <v>255.15</v>
+        <v>258.7666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C122" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D122" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E122" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F122" t="n">
-        <v>2249.0912</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>255</v>
+        <v>258.6666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C123" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D123" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E123" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>2249.0912</v>
       </c>
       <c r="G123" t="n">
-        <v>254.9</v>
+        <v>258.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>254.9</v>
+        <v>258.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C125" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D125" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E125" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F125" t="n">
-        <v>4434.7138</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>254.85</v>
+        <v>258.2833333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C126" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D126" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E126" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>4434.7138</v>
       </c>
       <c r="G126" t="n">
-        <v>254.8</v>
+        <v>258.15</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C127" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D127" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E127" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F127" t="n">
-        <v>331.4983</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>254.7</v>
+        <v>258.05</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C128" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D128" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E128" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>331.4983</v>
       </c>
       <c r="G128" t="n">
-        <v>254.7</v>
+        <v>257.9333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>255</v>
       </c>
       <c r="F129" t="n">
-        <v>2952.9999</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>254.65</v>
+        <v>257.8333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C130" t="n">
         <v>255</v>
@@ -4922,13 +4922,13 @@
         <v>255</v>
       </c>
       <c r="E130" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F130" t="n">
-        <v>588</v>
+        <v>2952.9999</v>
       </c>
       <c r="G130" t="n">
-        <v>254.55</v>
+        <v>257.7333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>254</v>
+      </c>
+      <c r="C131" t="n">
         <v>255</v>
-      </c>
-      <c r="C131" t="n">
-        <v>251</v>
       </c>
       <c r="D131" t="n">
         <v>255</v>
       </c>
       <c r="E131" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F131" t="n">
-        <v>33063.7969</v>
+        <v>588</v>
       </c>
       <c r="G131" t="n">
-        <v>254.5</v>
+        <v>257.65</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C132" t="n">
         <v>251</v>
       </c>
       <c r="D132" t="n">
+        <v>255</v>
+      </c>
+      <c r="E132" t="n">
         <v>251</v>
       </c>
-      <c r="E132" t="n">
-        <v>250</v>
-      </c>
       <c r="F132" t="n">
-        <v>3594.2084</v>
+        <v>33063.7969</v>
       </c>
       <c r="G132" t="n">
-        <v>254.3</v>
+        <v>257.55</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5021,19 +5021,19 @@
         <v>251</v>
       </c>
       <c r="C133" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D133" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E133" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F133" t="n">
-        <v>43.5006</v>
+        <v>3594.2084</v>
       </c>
       <c r="G133" t="n">
-        <v>254</v>
+        <v>257.4166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C134" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D134" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E134" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F134" t="n">
-        <v>8.7539</v>
+        <v>43.5006</v>
       </c>
       <c r="G134" t="n">
-        <v>253.8</v>
+        <v>257.3666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C135" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D135" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E135" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>8.7539</v>
       </c>
       <c r="G135" t="n">
-        <v>253.7</v>
+        <v>257.25</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C136" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D136" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E136" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F136" t="n">
-        <v>14858.1768</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>253.65</v>
+        <v>257.15</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>251</v>
       </c>
       <c r="F137" t="n">
-        <v>2203.3644</v>
+        <v>14858.1768</v>
       </c>
       <c r="G137" t="n">
-        <v>253.45</v>
+        <v>257</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>251</v>
       </c>
       <c r="F138" t="n">
-        <v>310</v>
+        <v>2203.3644</v>
       </c>
       <c r="G138" t="n">
-        <v>253.3</v>
+        <v>256.85</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C139" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D139" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E139" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F139" t="n">
-        <v>1467.2068</v>
+        <v>310</v>
       </c>
       <c r="G139" t="n">
-        <v>253.25</v>
+        <v>256.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C140" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D140" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E140" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>1467.2068</v>
       </c>
       <c r="G140" t="n">
-        <v>253.1</v>
+        <v>256.5166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C141" t="n">
         <v>252</v>
@@ -5307,13 +5307,13 @@
         <v>252</v>
       </c>
       <c r="E141" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F141" t="n">
-        <v>3998</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>252.8</v>
+        <v>256.3833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5336,19 +5336,19 @@
         <v>250</v>
       </c>
       <c r="C142" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D142" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E142" t="n">
         <v>250</v>
       </c>
       <c r="F142" t="n">
-        <v>5672.2112</v>
+        <v>3998</v>
       </c>
       <c r="G142" t="n">
-        <v>252.7</v>
+        <v>256.2333333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C143" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D143" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E143" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F143" t="n">
-        <v>4.366</v>
+        <v>5672.2112</v>
       </c>
       <c r="G143" t="n">
-        <v>252.4</v>
+        <v>256.0666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C144" t="n">
         <v>249</v>
       </c>
       <c r="D144" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E144" t="n">
         <v>249</v>
       </c>
       <c r="F144" t="n">
-        <v>1256.2272</v>
+        <v>4.366</v>
       </c>
       <c r="G144" t="n">
-        <v>252.15</v>
+        <v>255.8833333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,32 +5438,38 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C145" t="n">
         <v>249</v>
       </c>
       <c r="D145" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E145" t="n">
         <v>249</v>
       </c>
       <c r="F145" t="n">
-        <v>2089.3704</v>
+        <v>1256.2272</v>
       </c>
       <c r="G145" t="n">
-        <v>251.9</v>
+        <v>255.7</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>249</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5473,22 +5479,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C146" t="n">
         <v>249</v>
       </c>
       <c r="D146" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E146" t="n">
         <v>249</v>
       </c>
       <c r="F146" t="n">
-        <v>25579.1355</v>
+        <v>2089.3704</v>
       </c>
       <c r="G146" t="n">
-        <v>251.65</v>
+        <v>255.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,7 +5504,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5508,22 +5518,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C147" t="n">
         <v>249</v>
       </c>
       <c r="D147" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E147" t="n">
         <v>249</v>
       </c>
       <c r="F147" t="n">
-        <v>5367.9995</v>
+        <v>25579.1355</v>
       </c>
       <c r="G147" t="n">
-        <v>251.4</v>
+        <v>255.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,7 +5543,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5555,10 +5569,10 @@
         <v>249</v>
       </c>
       <c r="F148" t="n">
-        <v>677</v>
+        <v>5367.9995</v>
       </c>
       <c r="G148" t="n">
-        <v>251.1</v>
+        <v>255.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,7 +5582,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5590,10 +5608,10 @@
         <v>249</v>
       </c>
       <c r="F149" t="n">
-        <v>323.3915</v>
+        <v>677</v>
       </c>
       <c r="G149" t="n">
-        <v>250.8</v>
+        <v>254.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5603,7 +5621,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5616,33 +5638,31 @@
         <v>249</v>
       </c>
       <c r="C150" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D150" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E150" t="n">
         <v>249</v>
       </c>
       <c r="F150" t="n">
-        <v>2369.01</v>
+        <v>323.3915</v>
       </c>
       <c r="G150" t="n">
-        <v>250.55</v>
+        <v>254.7</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>249</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M150" t="n">
@@ -5654,32 +5674,30 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C151" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D151" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E151" t="n">
         <v>249</v>
       </c>
       <c r="F151" t="n">
-        <v>701.4842</v>
+        <v>2369.01</v>
       </c>
       <c r="G151" t="n">
-        <v>250.3</v>
+        <v>254.5333333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>251</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5695,32 +5713,30 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C152" t="n">
         <v>249</v>
       </c>
       <c r="D152" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E152" t="n">
         <v>249</v>
       </c>
       <c r="F152" t="n">
-        <v>2492</v>
+        <v>701.4842</v>
       </c>
       <c r="G152" t="n">
-        <v>250.2</v>
+        <v>254.3166666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>249</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5748,10 +5764,10 @@
         <v>249</v>
       </c>
       <c r="F153" t="n">
-        <v>589.3241</v>
+        <v>2492</v>
       </c>
       <c r="G153" t="n">
-        <v>250.1</v>
+        <v>254.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5775,22 +5791,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C154" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D154" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E154" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F154" t="n">
-        <v>2000</v>
+        <v>589.3241</v>
       </c>
       <c r="G154" t="n">
-        <v>250</v>
+        <v>253.8833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5814,32 +5830,30 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C155" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D155" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E155" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F155" t="n">
-        <v>14903.1471</v>
+        <v>2000</v>
       </c>
       <c r="G155" t="n">
-        <v>249.8</v>
+        <v>253.75</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>250</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -5855,32 +5869,30 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C156" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D156" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E156" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>14903.1471</v>
       </c>
       <c r="G156" t="n">
-        <v>249.85</v>
+        <v>253.5333333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>248</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -5896,31 +5908,31 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C157" t="n">
+        <v>252</v>
+      </c>
+      <c r="D157" t="n">
+        <v>252</v>
+      </c>
+      <c r="E157" t="n">
+        <v>252</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>253.45</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
         <v>248</v>
-      </c>
-      <c r="D157" t="n">
-        <v>249</v>
-      </c>
-      <c r="E157" t="n">
-        <v>248</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3032</v>
-      </c>
-      <c r="G157" t="n">
-        <v>249.75</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>252</v>
       </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
@@ -5937,22 +5949,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C158" t="n">
         <v>248</v>
       </c>
       <c r="D158" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E158" t="n">
         <v>248</v>
       </c>
       <c r="F158" t="n">
-        <v>22571.3319</v>
+        <v>3032</v>
       </c>
       <c r="G158" t="n">
-        <v>249.6</v>
+        <v>253.25</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
@@ -5961,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
@@ -5978,32 +5990,30 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C159" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D159" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E159" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>22571.3319</v>
       </c>
       <c r="G159" t="n">
-        <v>249.65</v>
+        <v>253.1</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>248</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6019,32 +6029,30 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C160" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D160" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E160" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F160" t="n">
-        <v>478.17</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>249.45</v>
+        <v>252.95</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>251</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6072,10 +6080,10 @@
         <v>248</v>
       </c>
       <c r="F161" t="n">
-        <v>312</v>
+        <v>478.17</v>
       </c>
       <c r="G161" t="n">
-        <v>249.35</v>
+        <v>252.75</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6102,19 +6110,19 @@
         <v>248</v>
       </c>
       <c r="C162" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D162" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E162" t="n">
         <v>248</v>
       </c>
       <c r="F162" t="n">
-        <v>8472.999900000001</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
-        <v>249.25</v>
+        <v>252.55</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6138,22 +6146,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>248</v>
+      </c>
+      <c r="C163" t="n">
         <v>249</v>
       </c>
-      <c r="C163" t="n">
-        <v>252</v>
-      </c>
       <c r="D163" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E163" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F163" t="n">
-        <v>314</v>
+        <v>8472.999900000001</v>
       </c>
       <c r="G163" t="n">
-        <v>249.25</v>
+        <v>252.4666666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6180,19 +6188,19 @@
         <v>249</v>
       </c>
       <c r="C164" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D164" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E164" t="n">
         <v>249</v>
       </c>
       <c r="F164" t="n">
-        <v>1476</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
-        <v>249.2</v>
+        <v>252.3833333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6216,22 +6224,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C165" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D165" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E165" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>1476</v>
       </c>
       <c r="G165" t="n">
-        <v>249.25</v>
+        <v>252.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6255,22 +6263,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C166" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D166" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E166" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F166" t="n">
-        <v>295.7189</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>249.2</v>
+        <v>252.1166666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6294,22 +6302,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C167" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D167" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E167" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>295.7189</v>
       </c>
       <c r="G167" t="n">
-        <v>249.3</v>
+        <v>252</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6333,22 +6341,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C168" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D168" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E168" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F168" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>249.45</v>
+        <v>251.9166666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6384,10 +6392,10 @@
         <v>252</v>
       </c>
       <c r="F169" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="G169" t="n">
-        <v>249.6</v>
+        <v>251.85</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6411,22 +6419,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C170" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D170" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E170" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F170" t="n">
-        <v>2.183</v>
+        <v>1000</v>
       </c>
       <c r="G170" t="n">
-        <v>249.55</v>
+        <v>251.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6450,22 +6458,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C171" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D171" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E171" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>2.183</v>
       </c>
       <c r="G171" t="n">
-        <v>249.7</v>
+        <v>251.65</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6489,22 +6497,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C172" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D172" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E172" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F172" t="n">
-        <v>37.5</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>249.85</v>
+        <v>251.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6540,10 +6548,10 @@
         <v>252</v>
       </c>
       <c r="F173" t="n">
-        <v>4309</v>
+        <v>37.5</v>
       </c>
       <c r="G173" t="n">
-        <v>250</v>
+        <v>251.55</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6570,19 +6578,19 @@
         <v>252</v>
       </c>
       <c r="C174" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D174" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E174" t="n">
         <v>252</v>
       </c>
       <c r="F174" t="n">
-        <v>2153.5</v>
+        <v>4309</v>
       </c>
       <c r="G174" t="n">
-        <v>250.1</v>
+        <v>251.4666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6606,7 +6614,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C175" t="n">
         <v>253</v>
@@ -6615,13 +6623,13 @@
         <v>253</v>
       </c>
       <c r="E175" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F175" t="n">
-        <v>1526.3518</v>
+        <v>2153.5</v>
       </c>
       <c r="G175" t="n">
-        <v>250.3</v>
+        <v>251.4166666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6645,22 +6653,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C176" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D176" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E176" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>1526.3518</v>
       </c>
       <c r="G176" t="n">
-        <v>250.5</v>
+        <v>251.4333333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6684,22 +6692,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C177" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D177" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E177" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F177" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>250.6</v>
+        <v>251.5166666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6723,7 +6731,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C178" t="n">
         <v>255</v>
@@ -6732,13 +6740,13 @@
         <v>255</v>
       </c>
       <c r="E178" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F178" t="n">
-        <v>1326.004</v>
+        <v>11</v>
       </c>
       <c r="G178" t="n">
-        <v>250.95</v>
+        <v>251.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6774,10 +6782,10 @@
         <v>255</v>
       </c>
       <c r="F179" t="n">
-        <v>857</v>
+        <v>1326.004</v>
       </c>
       <c r="G179" t="n">
-        <v>251.15</v>
+        <v>251.4833333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6813,10 +6821,10 @@
         <v>255</v>
       </c>
       <c r="F180" t="n">
-        <v>927</v>
+        <v>857</v>
       </c>
       <c r="G180" t="n">
-        <v>251.5</v>
+        <v>251.4666666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6843,19 +6851,19 @@
         <v>255</v>
       </c>
       <c r="C181" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D181" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E181" t="n">
         <v>255</v>
       </c>
       <c r="F181" t="n">
-        <v>5762</v>
+        <v>927</v>
       </c>
       <c r="G181" t="n">
-        <v>251.85</v>
+        <v>251.4666666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6879,22 +6887,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C182" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D182" t="n">
         <v>257</v>
       </c>
       <c r="E182" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F182" t="n">
-        <v>1586.9683</v>
+        <v>5762</v>
       </c>
       <c r="G182" t="n">
-        <v>252.3</v>
+        <v>251.4666666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6930,10 +6938,10 @@
         <v>257</v>
       </c>
       <c r="F183" t="n">
-        <v>1086.3702</v>
+        <v>1586.9683</v>
       </c>
       <c r="G183" t="n">
-        <v>252.7</v>
+        <v>251.55</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6957,22 +6965,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C184" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D184" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E184" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F184" t="n">
-        <v>66.03100000000001</v>
+        <v>1086.3702</v>
       </c>
       <c r="G184" t="n">
-        <v>253.15</v>
+        <v>251.5833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6996,61 +7004,59 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C185" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D185" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E185" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F185" t="n">
-        <v>401.8512</v>
+        <v>66.03100000000001</v>
       </c>
       <c r="G185" t="n">
-        <v>253.45</v>
+        <v>251.6333333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C186" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D186" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E186" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F186" t="n">
-        <v>7701.2344</v>
+        <v>401.8512</v>
       </c>
       <c r="G186" t="n">
-        <v>253.9</v>
+        <v>251.6666666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7060,11 +7066,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7086,24 +7088,20 @@
         <v>258</v>
       </c>
       <c r="F187" t="n">
-        <v>378.5819</v>
+        <v>7701.2344</v>
       </c>
       <c r="G187" t="n">
-        <v>254.25</v>
+        <v>251.7166666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7116,19 +7114,19 @@
         <v>258</v>
       </c>
       <c r="C188" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D188" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E188" t="n">
         <v>258</v>
       </c>
       <c r="F188" t="n">
-        <v>3098</v>
+        <v>378.5819</v>
       </c>
       <c r="G188" t="n">
-        <v>254.55</v>
+        <v>251.7833333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7138,11 +7136,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7152,7 +7146,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C189" t="n">
         <v>260</v>
@@ -7161,27 +7155,23 @@
         <v>260</v>
       </c>
       <c r="E189" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F189" t="n">
-        <v>6635.9999</v>
+        <v>3098</v>
       </c>
       <c r="G189" t="n">
-        <v>254.95</v>
+        <v>251.8666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7194,19 +7184,19 @@
         <v>260</v>
       </c>
       <c r="C190" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D190" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E190" t="n">
         <v>260</v>
       </c>
       <c r="F190" t="n">
-        <v>3610</v>
+        <v>6635.9999</v>
       </c>
       <c r="G190" t="n">
-        <v>255.55</v>
+        <v>251.95</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7216,11 +7206,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7230,36 +7216,32 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C191" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D191" t="n">
         <v>261</v>
       </c>
       <c r="E191" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F191" t="n">
-        <v>970.0714</v>
+        <v>3610</v>
       </c>
       <c r="G191" t="n">
-        <v>255.95</v>
+        <v>252.05</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7272,33 +7254,29 @@
         <v>261</v>
       </c>
       <c r="C192" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D192" t="n">
         <v>261</v>
       </c>
       <c r="E192" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F192" t="n">
-        <v>3</v>
+        <v>970.0714</v>
       </c>
       <c r="G192" t="n">
-        <v>256.4</v>
+        <v>252.1333333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7308,22 +7286,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C193" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D193" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E193" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G193" t="n">
-        <v>256.9</v>
+        <v>252.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7333,11 +7311,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7347,22 +7321,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C194" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D194" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E194" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F194" t="n">
-        <v>227.8709</v>
+        <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>257.3</v>
+        <v>252.45</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7372,11 +7346,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7386,22 +7356,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C195" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D195" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E195" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F195" t="n">
-        <v>3560</v>
+        <v>227.8709</v>
       </c>
       <c r="G195" t="n">
-        <v>257.7</v>
+        <v>252.5833333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7411,11 +7381,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7437,10 +7403,10 @@
         <v>261</v>
       </c>
       <c r="F196" t="n">
-        <v>1682</v>
+        <v>3560</v>
       </c>
       <c r="G196" t="n">
-        <v>257.95</v>
+        <v>252.7166666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7450,11 +7416,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7464,22 +7426,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C197" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D197" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E197" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F197" t="n">
-        <v>1664.0777</v>
+        <v>1682</v>
       </c>
       <c r="G197" t="n">
-        <v>258.3</v>
+        <v>252.8833333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7489,11 +7451,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7503,22 +7461,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C198" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D198" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E198" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>1664.0777</v>
       </c>
       <c r="G198" t="n">
-        <v>258.55</v>
+        <v>253</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7528,11 +7486,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7554,10 +7508,10 @@
         <v>260</v>
       </c>
       <c r="F199" t="n">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>258.8</v>
+        <v>253.15</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7567,11 +7521,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7593,10 +7543,10 @@
         <v>260</v>
       </c>
       <c r="F200" t="n">
-        <v>577</v>
+        <v>321</v>
       </c>
       <c r="G200" t="n">
-        <v>259.05</v>
+        <v>253.3166666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7606,11 +7556,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7620,22 +7566,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C201" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D201" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E201" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F201" t="n">
-        <v>355.6023</v>
+        <v>577</v>
       </c>
       <c r="G201" t="n">
-        <v>259.1</v>
+        <v>253.45</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7645,11 +7591,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7659,22 +7601,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C202" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D202" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E202" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F202" t="n">
-        <v>2909.7699</v>
+        <v>355.6023</v>
       </c>
       <c r="G202" t="n">
-        <v>258.95</v>
+        <v>253.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7684,11 +7626,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7698,22 +7636,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C203" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D203" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E203" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F203" t="n">
-        <v>11315.6007</v>
+        <v>2909.7699</v>
       </c>
       <c r="G203" t="n">
-        <v>258.75</v>
+        <v>253.5666666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7723,11 +7661,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7749,10 +7683,10 @@
         <v>253</v>
       </c>
       <c r="F204" t="n">
-        <v>32.2881</v>
+        <v>11315.6007</v>
       </c>
       <c r="G204" t="n">
-        <v>258.5</v>
+        <v>253.6333333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7762,11 +7696,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7776,22 +7706,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C205" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D205" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E205" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>32.2881</v>
       </c>
       <c r="G205" t="n">
-        <v>258.55</v>
+        <v>253.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7801,11 +7731,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7827,10 +7753,10 @@
         <v>257</v>
       </c>
       <c r="F206" t="n">
-        <v>39.5173</v>
+        <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>258.5</v>
+        <v>253.8333333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7840,11 +7766,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7854,22 +7776,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C207" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D207" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E207" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>39.5173</v>
       </c>
       <c r="G207" t="n">
-        <v>258.5</v>
+        <v>253.9666666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7879,11 +7801,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7905,10 +7823,10 @@
         <v>258</v>
       </c>
       <c r="F208" t="n">
-        <v>15.5635</v>
+        <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>258.5</v>
+        <v>254.1166666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7918,11 +7836,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7944,10 +7858,10 @@
         <v>258</v>
       </c>
       <c r="F209" t="n">
-        <v>187</v>
+        <v>15.5635</v>
       </c>
       <c r="G209" t="n">
-        <v>258.4</v>
+        <v>254.2666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7957,11 +7871,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7983,10 +7893,10 @@
         <v>258</v>
       </c>
       <c r="F210" t="n">
-        <v>1743</v>
+        <v>187</v>
       </c>
       <c r="G210" t="n">
-        <v>258.3</v>
+        <v>254.4166666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7996,11 +7906,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8022,10 +7928,10 @@
         <v>258</v>
       </c>
       <c r="F211" t="n">
-        <v>2420</v>
+        <v>1743</v>
       </c>
       <c r="G211" t="n">
-        <v>258.15</v>
+        <v>254.5333333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8035,11 +7941,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8061,10 +7963,10 @@
         <v>258</v>
       </c>
       <c r="F212" t="n">
-        <v>2502.6721</v>
+        <v>2420</v>
       </c>
       <c r="G212" t="n">
-        <v>258</v>
+        <v>254.6833333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8074,11 +7976,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8100,10 +7998,10 @@
         <v>258</v>
       </c>
       <c r="F213" t="n">
-        <v>1258.9999</v>
+        <v>2502.6721</v>
       </c>
       <c r="G213" t="n">
-        <v>257.8</v>
+        <v>254.8333333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8113,11 +8011,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8139,10 +8033,10 @@
         <v>258</v>
       </c>
       <c r="F214" t="n">
-        <v>193.8531</v>
+        <v>1258.9999</v>
       </c>
       <c r="G214" t="n">
-        <v>257.7</v>
+        <v>254.9833333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8152,11 +8046,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8166,22 +8056,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C215" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D215" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E215" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F215" t="n">
-        <v>28000</v>
+        <v>193.8531</v>
       </c>
       <c r="G215" t="n">
-        <v>257.5</v>
+        <v>255.1166666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8191,11 +8081,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8205,22 +8091,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C216" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D216" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E216" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F216" t="n">
-        <v>4416.8333</v>
+        <v>28000</v>
       </c>
       <c r="G216" t="n">
-        <v>257.35</v>
+        <v>255.2166666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8230,11 +8116,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8244,7 +8126,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C217" t="n">
         <v>259</v>
@@ -8253,13 +8135,13 @@
         <v>259</v>
       </c>
       <c r="E217" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F217" t="n">
-        <v>1925</v>
+        <v>4416.8333</v>
       </c>
       <c r="G217" t="n">
-        <v>257.4</v>
+        <v>255.3333333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8269,11 +8151,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8295,10 +8173,10 @@
         <v>259</v>
       </c>
       <c r="F218" t="n">
-        <v>1615</v>
+        <v>1925</v>
       </c>
       <c r="G218" t="n">
-        <v>257.35</v>
+        <v>255.5166666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8308,11 +8186,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8328,30 +8202,30 @@
         <v>259</v>
       </c>
       <c r="D219" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E219" t="n">
         <v>259</v>
       </c>
       <c r="F219" t="n">
-        <v>22365.9999</v>
+        <v>1615</v>
       </c>
       <c r="G219" t="n">
-        <v>257.3</v>
+        <v>255.7</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="n">
+        <v>259</v>
+      </c>
+      <c r="K219" t="n">
+        <v>259</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8361,34 +8235,38 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C220" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D220" t="n">
         <v>260</v>
       </c>
       <c r="E220" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F220" t="n">
-        <v>7222.4369</v>
+        <v>22365.9999</v>
       </c>
       <c r="G220" t="n">
-        <v>257.3</v>
+        <v>255.8333333333333</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>259</v>
+      </c>
+      <c r="K220" t="n">
+        <v>259</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M220" t="n">
@@ -8400,22 +8278,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C221" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D221" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E221" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F221" t="n">
-        <v>1149.4252</v>
+        <v>7222.4369</v>
       </c>
       <c r="G221" t="n">
-        <v>257.55</v>
+        <v>256.0333333333334</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8424,7 +8302,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>259</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8451,10 +8331,10 @@
         <v>261</v>
       </c>
       <c r="F222" t="n">
-        <v>1233</v>
+        <v>1149.4252</v>
       </c>
       <c r="G222" t="n">
-        <v>257.9</v>
+        <v>256.25</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8463,7 +8343,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>259</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8490,10 +8372,10 @@
         <v>261</v>
       </c>
       <c r="F223" t="n">
-        <v>296.6234</v>
+        <v>1233</v>
       </c>
       <c r="G223" t="n">
-        <v>258.3</v>
+        <v>256.45</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8502,7 +8384,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>259</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8529,10 +8413,10 @@
         <v>261</v>
       </c>
       <c r="F224" t="n">
-        <v>2759.0495</v>
+        <v>296.6234</v>
       </c>
       <c r="G224" t="n">
-        <v>258.7</v>
+        <v>256.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8541,7 +8425,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>259</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8568,10 +8454,10 @@
         <v>261</v>
       </c>
       <c r="F225" t="n">
-        <v>1000</v>
+        <v>2759.0495</v>
       </c>
       <c r="G225" t="n">
-        <v>258.9</v>
+        <v>256.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8580,7 +8466,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>259</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8607,10 +8495,10 @@
         <v>261</v>
       </c>
       <c r="F226" t="n">
-        <v>9146.440699999999</v>
+        <v>1000</v>
       </c>
       <c r="G226" t="n">
-        <v>259.1</v>
+        <v>256.9833333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8619,7 +8507,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>259</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8646,10 +8536,10 @@
         <v>261</v>
       </c>
       <c r="F227" t="n">
-        <v>446.8174</v>
+        <v>9146.440699999999</v>
       </c>
       <c r="G227" t="n">
-        <v>259.25</v>
+        <v>257.1833333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8658,7 +8548,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>259</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8685,10 +8577,10 @@
         <v>261</v>
       </c>
       <c r="F228" t="n">
-        <v>1398.1824</v>
+        <v>446.8174</v>
       </c>
       <c r="G228" t="n">
-        <v>259.4</v>
+        <v>257.35</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8697,7 +8589,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>259</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8724,10 +8618,10 @@
         <v>261</v>
       </c>
       <c r="F229" t="n">
-        <v>0.0001</v>
+        <v>1398.1824</v>
       </c>
       <c r="G229" t="n">
-        <v>259.55</v>
+        <v>257.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8736,7 +8630,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>259</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8751,22 +8647,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C230" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D230" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E230" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F230" t="n">
-        <v>17.6751</v>
+        <v>0.0001</v>
       </c>
       <c r="G230" t="n">
-        <v>259.65</v>
+        <v>257.65</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8775,7 +8671,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>259</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8790,31 +8688,33 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
+        <v>260</v>
+      </c>
+      <c r="C231" t="n">
+        <v>260</v>
+      </c>
+      <c r="D231" t="n">
+        <v>260</v>
+      </c>
+      <c r="E231" t="n">
+        <v>260</v>
+      </c>
+      <c r="F231" t="n">
+        <v>17.6751</v>
+      </c>
+      <c r="G231" t="n">
+        <v>257.85</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
         <v>259</v>
       </c>
-      <c r="C231" t="n">
-        <v>258</v>
-      </c>
-      <c r="D231" t="n">
-        <v>259</v>
-      </c>
-      <c r="E231" t="n">
-        <v>258</v>
-      </c>
-      <c r="F231" t="n">
-        <v>118.748</v>
-      </c>
-      <c r="G231" t="n">
-        <v>259.7</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8829,22 +8729,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
+        <v>259</v>
+      </c>
+      <c r="C232" t="n">
         <v>258</v>
       </c>
-      <c r="C232" t="n">
-        <v>257</v>
-      </c>
       <c r="D232" t="n">
+        <v>259</v>
+      </c>
+      <c r="E232" t="n">
         <v>258</v>
       </c>
-      <c r="E232" t="n">
-        <v>257</v>
-      </c>
       <c r="F232" t="n">
-        <v>676.99</v>
+        <v>118.748</v>
       </c>
       <c r="G232" t="n">
-        <v>259.7</v>
+        <v>257.9333333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8853,7 +8753,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>259</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8868,22 +8770,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C233" t="n">
         <v>257</v>
       </c>
       <c r="D233" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E233" t="n">
         <v>257</v>
       </c>
       <c r="F233" t="n">
-        <v>517.7619</v>
+        <v>676.99</v>
       </c>
       <c r="G233" t="n">
-        <v>259.65</v>
+        <v>258.0166666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8892,7 +8794,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>259</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8907,22 +8811,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C234" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D234" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E234" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F234" t="n">
-        <v>43.115</v>
+        <v>517.7619</v>
       </c>
       <c r="G234" t="n">
-        <v>259.55</v>
+        <v>258.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8931,7 +8835,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>259</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8946,22 +8852,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C235" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D235" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E235" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F235" t="n">
-        <v>908</v>
+        <v>43.115</v>
       </c>
       <c r="G235" t="n">
-        <v>259.55</v>
+        <v>258.15</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8970,7 +8876,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>259</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8997,10 +8905,10 @@
         <v>257</v>
       </c>
       <c r="F236" t="n">
-        <v>1499.9999</v>
+        <v>908</v>
       </c>
       <c r="G236" t="n">
-        <v>259.5</v>
+        <v>258.2166666666666</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9009,7 +8917,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>259</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9036,10 +8946,10 @@
         <v>257</v>
       </c>
       <c r="F237" t="n">
-        <v>268.6274</v>
+        <v>1499.9999</v>
       </c>
       <c r="G237" t="n">
-        <v>259.4</v>
+        <v>258.2333333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9048,7 +8958,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>259</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9063,22 +8975,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C238" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D238" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E238" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F238" t="n">
-        <v>5921.8219</v>
+        <v>268.6274</v>
       </c>
       <c r="G238" t="n">
-        <v>259.25</v>
+        <v>258.2666666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9087,7 +8999,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>259</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9102,22 +9016,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C239" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D239" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E239" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F239" t="n">
-        <v>9272.7724</v>
+        <v>5921.8219</v>
       </c>
       <c r="G239" t="n">
-        <v>258.95</v>
+        <v>258.2833333333334</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9126,7 +9040,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>259</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9141,22 +9057,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C240" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D240" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E240" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F240" t="n">
-        <v>891.7335</v>
+        <v>9272.7724</v>
       </c>
       <c r="G240" t="n">
-        <v>258.8</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9165,7 +9081,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>259</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9180,22 +9098,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C241" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D241" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E241" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F241" t="n">
-        <v>624</v>
+        <v>891.7335</v>
       </c>
       <c r="G241" t="n">
-        <v>258.65</v>
+        <v>258.3666666666667</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9204,7 +9122,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>259</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9231,10 +9151,10 @@
         <v>258</v>
       </c>
       <c r="F242" t="n">
-        <v>970.6658</v>
+        <v>624</v>
       </c>
       <c r="G242" t="n">
-        <v>258.5</v>
+        <v>258.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9243,7 +9163,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>259</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9258,31 +9180,33 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>258</v>
+      </c>
+      <c r="C243" t="n">
+        <v>258</v>
+      </c>
+      <c r="D243" t="n">
+        <v>258</v>
+      </c>
+      <c r="E243" t="n">
+        <v>258</v>
+      </c>
+      <c r="F243" t="n">
+        <v>970.6658</v>
+      </c>
+      <c r="G243" t="n">
+        <v>258.4166666666667</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
         <v>259</v>
       </c>
-      <c r="C243" t="n">
-        <v>259</v>
-      </c>
-      <c r="D243" t="n">
-        <v>259</v>
-      </c>
-      <c r="E243" t="n">
-        <v>259</v>
-      </c>
-      <c r="F243" t="n">
-        <v>393</v>
-      </c>
-      <c r="G243" t="n">
-        <v>258.4</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9297,22 +9221,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C244" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D244" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E244" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F244" t="n">
-        <v>3074.5862</v>
+        <v>393</v>
       </c>
       <c r="G244" t="n">
-        <v>258.35</v>
+        <v>258.45</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9321,7 +9245,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>259</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9331,6 +9257,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>260</v>
+      </c>
+      <c r="C245" t="n">
+        <v>260</v>
+      </c>
+      <c r="D245" t="n">
+        <v>260</v>
+      </c>
+      <c r="E245" t="n">
+        <v>260</v>
+      </c>
+      <c r="F245" t="n">
+        <v>3074.5862</v>
+      </c>
+      <c r="G245" t="n">
+        <v>258.4833333333333</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>259</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-29 BackTest INS.xlsx
+++ b/BackTest/2019-10-29 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M245"/>
+  <dimension ref="A1:N255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1596000</v>
       </c>
       <c r="G2" t="n">
+        <v>260</v>
+      </c>
+      <c r="H2" t="n">
         <v>259.7166666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1596000</v>
       </c>
       <c r="G3" t="n">
+        <v>260</v>
+      </c>
+      <c r="H3" t="n">
         <v>259.65</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1602000</v>
       </c>
       <c r="G4" t="n">
+        <v>260</v>
+      </c>
+      <c r="H4" t="n">
         <v>259.7</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1608000</v>
       </c>
       <c r="G5" t="n">
+        <v>260</v>
+      </c>
+      <c r="H5" t="n">
         <v>259.6833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1602149.4647</v>
       </c>
       <c r="G6" t="n">
+        <v>260</v>
+      </c>
+      <c r="H6" t="n">
         <v>259.65</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1572000</v>
       </c>
       <c r="G7" t="n">
+        <v>260</v>
+      </c>
+      <c r="H7" t="n">
         <v>259.65</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1590000</v>
       </c>
       <c r="G8" t="n">
+        <v>260</v>
+      </c>
+      <c r="H8" t="n">
         <v>259.6333333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1572000</v>
       </c>
       <c r="G9" t="n">
+        <v>260</v>
+      </c>
+      <c r="H9" t="n">
         <v>259.6166666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1590000</v>
       </c>
       <c r="G10" t="n">
+        <v>260</v>
+      </c>
+      <c r="H10" t="n">
         <v>259.5833333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1602000</v>
       </c>
       <c r="G11" t="n">
+        <v>260</v>
+      </c>
+      <c r="H11" t="n">
         <v>259.5666666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>996000</v>
       </c>
       <c r="G12" t="n">
+        <v>260</v>
+      </c>
+      <c r="H12" t="n">
         <v>259.5666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>544.3786</v>
       </c>
       <c r="G13" t="n">
+        <v>260.0666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>259.5833333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>17655.9948</v>
       </c>
       <c r="G14" t="n">
+        <v>260.0666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>259.5666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>10540.3041</v>
       </c>
       <c r="G15" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="H15" t="n">
         <v>259.55</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>20</v>
       </c>
       <c r="G16" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="H16" t="n">
         <v>259.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1470.8840541984</v>
       </c>
       <c r="G17" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>259.4833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2</v>
       </c>
       <c r="G18" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>259.4333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1050</v>
       </c>
       <c r="G19" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>259.3666666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="H20" t="n">
         <v>259.4166666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>6065.789</v>
       </c>
       <c r="G21" t="n">
+        <v>260.5333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>259.5666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>3846.1538</v>
       </c>
       <c r="G22" t="n">
+        <v>260.6666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>259.65</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>3699.6461</v>
       </c>
       <c r="G23" t="n">
+        <v>260.9333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>259.7666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>3113.3056</v>
       </c>
       <c r="G24" t="n">
+        <v>261.0666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>259.8166666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>3503.6602</v>
       </c>
       <c r="G25" t="n">
+        <v>261.2666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>259.9</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1285</v>
       </c>
       <c r="G26" t="n">
+        <v>261.4666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>260.0333333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2809.7583</v>
       </c>
       <c r="G27" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="H27" t="n">
         <v>260.1166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2331.1439</v>
       </c>
       <c r="G28" t="n">
+        <v>261.7333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>260.25</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
+        <v>262</v>
+      </c>
+      <c r="H29" t="n">
         <v>260.3666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2408.1363</v>
       </c>
       <c r="G30" t="n">
+        <v>262.0666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>260.4666666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>168.97</v>
       </c>
       <c r="G31" t="n">
+        <v>262.2666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>260.5666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1918</v>
       </c>
       <c r="G32" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>260.6833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>731</v>
       </c>
       <c r="G33" t="n">
+        <v>262.6</v>
+      </c>
+      <c r="H33" t="n">
         <v>260.7833333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1098.2266</v>
       </c>
       <c r="G34" t="n">
+        <v>262.7333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>260.8</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>265.843</v>
       </c>
       <c r="G35" t="n">
+        <v>262.8</v>
+      </c>
+      <c r="H35" t="n">
         <v>260.8166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
+        <v>262.9333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>260.85</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
+        <v>263</v>
+      </c>
+      <c r="H37" t="n">
         <v>260.8666666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>20.95</v>
       </c>
       <c r="G38" t="n">
+        <v>262.9333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>260.9</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>749</v>
       </c>
       <c r="G39" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>3097.7031</v>
       </c>
       <c r="G40" t="n">
+        <v>263</v>
+      </c>
+      <c r="H40" t="n">
         <v>261.05</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>6005</v>
       </c>
       <c r="G41" t="n">
+        <v>263</v>
+      </c>
+      <c r="H41" t="n">
         <v>261.1</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>493.6966</v>
       </c>
       <c r="G42" t="n">
+        <v>263.0666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>261.1666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>800.5381</v>
       </c>
       <c r="G43" t="n">
+        <v>263.0666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>261.2166666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>141.1843</v>
       </c>
       <c r="G44" t="n">
+        <v>263</v>
+      </c>
+      <c r="H44" t="n">
         <v>261.2666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>324.2185</v>
       </c>
       <c r="G45" t="n">
+        <v>263</v>
+      </c>
+      <c r="H45" t="n">
         <v>261.3166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>72</v>
       </c>
       <c r="G46" t="n">
+        <v>263</v>
+      </c>
+      <c r="H46" t="n">
         <v>261.3666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>840</v>
       </c>
       <c r="G47" t="n">
+        <v>263</v>
+      </c>
+      <c r="H47" t="n">
         <v>261.4333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>893.4104</v>
       </c>
       <c r="G48" t="n">
+        <v>263</v>
+      </c>
+      <c r="H48" t="n">
         <v>261.4833333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>2646</v>
       </c>
       <c r="G49" t="n">
+        <v>263.0666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>261.5333333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>125</v>
       </c>
       <c r="G50" t="n">
+        <v>263.1333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>261.5833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>2175.3217</v>
       </c>
       <c r="G51" t="n">
+        <v>263.0666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>261.6333333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>2</v>
       </c>
       <c r="G52" t="n">
+        <v>263.0666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>261.6833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>498.5028</v>
       </c>
       <c r="G53" t="n">
+        <v>263.0666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>261.7333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
+        <v>263.1333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>261.8</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>8084.5926</v>
       </c>
       <c r="G55" t="n">
+        <v>263.2666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>261.8833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>300</v>
       </c>
       <c r="G56" t="n">
+        <v>263.2666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>261.9333333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>42.436</v>
       </c>
       <c r="G57" t="n">
+        <v>263.2666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>261.9833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>2</v>
       </c>
       <c r="G58" t="n">
+        <v>263.3333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>262.05</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>1030.535</v>
       </c>
       <c r="G59" t="n">
+        <v>263.2666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>262.0833333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>4860.751</v>
       </c>
       <c r="G60" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="H60" t="n">
         <v>262.1166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>277</v>
       </c>
       <c r="G61" t="n">
+        <v>263.1333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>262.15</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>449.4363</v>
       </c>
       <c r="G62" t="n">
+        <v>263</v>
+      </c>
+      <c r="H62" t="n">
         <v>262.1833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1447.8494</v>
       </c>
       <c r="G63" t="n">
+        <v>262.9333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>262.2166666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>3253.6474</v>
       </c>
       <c r="G64" t="n">
+        <v>262.8</v>
+      </c>
+      <c r="H64" t="n">
         <v>262.2333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>3283.0306</v>
       </c>
       <c r="G65" t="n">
+        <v>262.7333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>262.2666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1297.7099</v>
       </c>
       <c r="G66" t="n">
+        <v>262.6666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>262.3</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>1151.68</v>
       </c>
       <c r="G67" t="n">
+        <v>262.5333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>262.3166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>6317.0049</v>
       </c>
       <c r="G68" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="H68" t="n">
         <v>262.3333333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>224</v>
       </c>
       <c r="G69" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="H69" t="n">
         <v>262.35</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>267.85</v>
       </c>
       <c r="G70" t="n">
+        <v>261.9333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>262.3666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>123</v>
       </c>
       <c r="G71" t="n">
+        <v>261.7333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>262.3666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>2195.7226</v>
       </c>
       <c r="G72" t="n">
+        <v>261.3333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>262.3166666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>2</v>
       </c>
       <c r="G73" t="n">
+        <v>261</v>
+      </c>
+      <c r="H73" t="n">
         <v>262.2833333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1845.1341</v>
       </c>
       <c r="G74" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="H74" t="n">
         <v>262.2166666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>4679.3009</v>
       </c>
       <c r="G75" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="H75" t="n">
         <v>262.1666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>1373.7914</v>
       </c>
       <c r="G76" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="H76" t="n">
         <v>262.15</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>1207.7508</v>
       </c>
       <c r="G77" t="n">
+        <v>260.0666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>262.1166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>290.0625</v>
       </c>
       <c r="G78" t="n">
+        <v>259.9333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>262.1166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>5708.1908</v>
       </c>
       <c r="G79" t="n">
+        <v>259.8666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>262.1166666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>2031.394</v>
       </c>
       <c r="G80" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="H80" t="n">
         <v>262.1166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>1926.9743</v>
       </c>
       <c r="G81" t="n">
+        <v>259.6666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>262.0833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
+        <v>259.6666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>262.0666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>199.0899</v>
       </c>
       <c r="G83" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="H83" t="n">
         <v>262</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>365</v>
       </c>
       <c r="G84" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>261.9666666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>199.0899</v>
       </c>
       <c r="G85" t="n">
+        <v>259.4666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>261.9166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>8472.999900000001</v>
       </c>
       <c r="G86" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>261.8833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>292</v>
       </c>
       <c r="G87" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="H87" t="n">
         <v>261.8666666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>3</v>
       </c>
       <c r="G88" t="n">
+        <v>259.9333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>261.8333333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>2684.7796</v>
       </c>
       <c r="G89" t="n">
+        <v>260.2666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>261.7833333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="H90" t="n">
         <v>261.75</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>1697.7781</v>
       </c>
       <c r="G91" t="n">
+        <v>260.5333333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>261.7166666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>2</v>
       </c>
       <c r="G92" t="n">
+        <v>260.6666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>261.6833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>987</v>
       </c>
       <c r="G93" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="H93" t="n">
         <v>261.6666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>300</v>
       </c>
       <c r="G94" t="n">
+        <v>260.9333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>261.6666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>300</v>
       </c>
       <c r="G95" t="n">
+        <v>260.7333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>261.6</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="H96" t="n">
         <v>261.55</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>652.1832000000001</v>
       </c>
       <c r="G97" t="n">
+        <v>260.5333333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>261.45</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>4</v>
       </c>
       <c r="G98" t="n">
+        <v>260.5333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>261.4</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>261.3</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>261.25</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>11284.3522</v>
       </c>
       <c r="G101" t="n">
+        <v>260.2666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>261.2</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>4.9769</v>
       </c>
       <c r="G102" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="H102" t="n">
         <v>261.15</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>3036.4687</v>
       </c>
       <c r="G103" t="n">
-        <v>261</v>
+        <v>259.7333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>421.9734</v>
       </c>
       <c r="G104" t="n">
+        <v>259.4666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>260.9</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>12.662</v>
       </c>
       <c r="G105" t="n">
+        <v>259.4</v>
+      </c>
+      <c r="H105" t="n">
         <v>260.85</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>455.7645</v>
       </c>
       <c r="G106" t="n">
+        <v>259</v>
+      </c>
+      <c r="H106" t="n">
         <v>260.7166666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>2029.6263</v>
       </c>
       <c r="G107" t="n">
+        <v>258.6</v>
+      </c>
+      <c r="H107" t="n">
         <v>260.5833333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>41.6997</v>
       </c>
       <c r="G108" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="H108" t="n">
         <v>260.4666666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>1283.6968</v>
       </c>
       <c r="G109" t="n">
+        <v>257.8</v>
+      </c>
+      <c r="H109" t="n">
         <v>260.35</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>2</v>
       </c>
       <c r="G110" t="n">
+        <v>257.6</v>
+      </c>
+      <c r="H110" t="n">
         <v>260.2166666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>1332.8003</v>
       </c>
       <c r="G111" t="n">
+        <v>257.3333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>260.1166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>3863.3442</v>
       </c>
       <c r="G112" t="n">
-        <v>260</v>
+        <v>257.2666666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>1519.5</v>
       </c>
       <c r="G113" t="n">
+        <v>256.9333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>259.8666666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
+        <v>256.9333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>259.75</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>78.125</v>
       </c>
       <c r="G115" t="n">
+        <v>256.6666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>259.6</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>13106.9266</v>
       </c>
       <c r="G116" t="n">
+        <v>256.1333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>259.4166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>1157.2795</v>
       </c>
       <c r="G117" t="n">
+        <v>255.5333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>259.2166666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>3</v>
       </c>
       <c r="G118" t="n">
+        <v>255.6666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>259.0833333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>820.5833</v>
       </c>
       <c r="G119" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="H119" t="n">
         <v>258.9833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>9646.7405</v>
       </c>
       <c r="G120" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>258.8833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>603.174</v>
       </c>
       <c r="G121" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>258.7666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>258.6666666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>2249.0912</v>
       </c>
       <c r="G123" t="n">
+        <v>255.0666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>258.5</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
+        <v>255</v>
+      </c>
+      <c r="H124" t="n">
         <v>258.4</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
+        <v>255</v>
+      </c>
+      <c r="H125" t="n">
         <v>258.2833333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>4434.7138</v>
       </c>
       <c r="G126" t="n">
+        <v>254.8</v>
+      </c>
+      <c r="H126" t="n">
         <v>258.15</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
+        <v>254.7333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>258.05</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>331.4983</v>
       </c>
       <c r="G128" t="n">
+        <v>254.6666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>257.9333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
+        <v>254.5333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>257.8333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>2952.9999</v>
       </c>
       <c r="G130" t="n">
+        <v>254.4666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>257.7333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>588</v>
       </c>
       <c r="G131" t="n">
+        <v>254.6666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>257.65</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>33063.7969</v>
       </c>
       <c r="G132" t="n">
+        <v>254.6666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>257.55</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>3594.2084</v>
       </c>
       <c r="G133" t="n">
+        <v>254.3333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>257.4166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>43.5006</v>
       </c>
       <c r="G134" t="n">
+        <v>254.1333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>257.3666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>8.7539</v>
       </c>
       <c r="G135" t="n">
+        <v>253.8666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>257.25</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>1</v>
       </c>
       <c r="G136" t="n">
+        <v>253.7333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>257.15</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>14858.1768</v>
       </c>
       <c r="G137" t="n">
+        <v>253.4</v>
+      </c>
+      <c r="H137" t="n">
         <v>257</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>2203.3644</v>
       </c>
       <c r="G138" t="n">
+        <v>253.3333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>256.85</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>310</v>
       </c>
       <c r="G139" t="n">
+        <v>253.0666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>256.7</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>1467.2068</v>
       </c>
       <c r="G140" t="n">
+        <v>252.7333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>256.5166666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="H141" t="n">
         <v>256.3833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>3998</v>
       </c>
       <c r="G142" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="H142" t="n">
         <v>256.2333333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>5672.2112</v>
       </c>
       <c r="G143" t="n">
+        <v>252.1333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>256.0666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>4.366</v>
       </c>
       <c r="G144" t="n">
+        <v>251.7333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>255.8833333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,24 +5887,21 @@
         <v>1256.2272</v>
       </c>
       <c r="G145" t="n">
+        <v>251.3333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>255.7</v>
       </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5494,22 +5925,21 @@
         <v>2089.3704</v>
       </c>
       <c r="G146" t="n">
+        <v>250.9333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>255.5</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5533,22 +5963,21 @@
         <v>25579.1355</v>
       </c>
       <c r="G147" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="H147" t="n">
         <v>255.3</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5572,22 +6001,21 @@
         <v>5367.9995</v>
       </c>
       <c r="G148" t="n">
+        <v>250.6666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>255.1</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,22 +6039,21 @@
         <v>677</v>
       </c>
       <c r="G149" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="H149" t="n">
         <v>254.9</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,22 +6077,21 @@
         <v>323.3915</v>
       </c>
       <c r="G150" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="H150" t="n">
         <v>254.7</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5689,22 +6115,21 @@
         <v>2369.01</v>
       </c>
       <c r="G151" t="n">
+        <v>250.0666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>254.5333333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5728,22 +6153,21 @@
         <v>701.4842</v>
       </c>
       <c r="G152" t="n">
+        <v>249.9333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>254.3166666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5767,22 +6191,21 @@
         <v>2492</v>
       </c>
       <c r="G153" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="H153" t="n">
         <v>254.1</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5806,22 +6229,21 @@
         <v>589.3241</v>
       </c>
       <c r="G154" t="n">
+        <v>249.6666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>253.8833333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5845,22 +6267,21 @@
         <v>2000</v>
       </c>
       <c r="G155" t="n">
+        <v>249.6666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>253.75</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5884,22 +6305,21 @@
         <v>14903.1471</v>
       </c>
       <c r="G156" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="H156" t="n">
         <v>253.5333333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5923,24 +6343,21 @@
         <v>1</v>
       </c>
       <c r="G157" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="H157" t="n">
         <v>253.45</v>
       </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5964,24 +6381,21 @@
         <v>3032</v>
       </c>
       <c r="G158" t="n">
+        <v>249.2666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>253.25</v>
       </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6005,22 +6419,21 @@
         <v>22571.3319</v>
       </c>
       <c r="G159" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="H159" t="n">
         <v>253.1</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6044,22 +6457,21 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
+        <v>249.3333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>252.95</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,22 +6495,21 @@
         <v>478.17</v>
       </c>
       <c r="G161" t="n">
+        <v>249.2666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>252.75</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6122,22 +6533,21 @@
         <v>312</v>
       </c>
       <c r="G162" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="H162" t="n">
         <v>252.55</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6161,22 +6571,27 @@
         <v>8472.999900000001</v>
       </c>
       <c r="G163" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="H163" t="n">
         <v>252.4666666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>248</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6200,22 +6615,27 @@
         <v>314</v>
       </c>
       <c r="G164" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="H164" t="n">
         <v>252.3833333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>249</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,22 +6659,27 @@
         <v>1476</v>
       </c>
       <c r="G165" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="H165" t="n">
         <v>252.2</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>252</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6278,22 +6703,27 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
+        <v>249.3333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>252.1166666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>249</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6317,22 +6747,27 @@
         <v>295.7189</v>
       </c>
       <c r="G167" t="n">
+        <v>249.3333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>252</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>250</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6356,22 +6791,27 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
+        <v>249.4666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>251.9166666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>249</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6395,22 +6835,27 @@
         <v>85</v>
       </c>
       <c r="G169" t="n">
+        <v>249.6666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>251.85</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>251</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,22 +6879,27 @@
         <v>1000</v>
       </c>
       <c r="G170" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="H170" t="n">
         <v>251.8</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>252</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6473,22 +6923,25 @@
         <v>2.183</v>
       </c>
       <c r="G171" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="H171" t="n">
         <v>251.65</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6512,22 +6965,27 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
+        <v>249.8666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>251.6</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>248</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6551,22 +7009,25 @@
         <v>37.5</v>
       </c>
       <c r="G173" t="n">
+        <v>250.1333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>251.55</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6590,22 +7051,25 @@
         <v>4309</v>
       </c>
       <c r="G174" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="H174" t="n">
         <v>251.4666666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6629,22 +7093,25 @@
         <v>2153.5</v>
       </c>
       <c r="G175" t="n">
+        <v>250.5333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>251.4166666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6668,22 +7135,27 @@
         <v>1526.3518</v>
       </c>
       <c r="G176" t="n">
+        <v>250.8666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>251.4333333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>253</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6707,22 +7179,27 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="H177" t="n">
         <v>251.5166666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>253</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6746,22 +7223,25 @@
         <v>11</v>
       </c>
       <c r="G178" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="H178" t="n">
         <v>251.5</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6785,22 +7265,25 @@
         <v>1326.004</v>
       </c>
       <c r="G179" t="n">
+        <v>252</v>
+      </c>
+      <c r="H179" t="n">
         <v>251.4833333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6824,22 +7307,25 @@
         <v>857</v>
       </c>
       <c r="G180" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="H180" t="n">
         <v>251.4666666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6863,22 +7349,25 @@
         <v>927</v>
       </c>
       <c r="G181" t="n">
+        <v>252.7333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>251.4666666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6902,22 +7391,25 @@
         <v>5762</v>
       </c>
       <c r="G182" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="H182" t="n">
         <v>251.4666666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,22 +7433,25 @@
         <v>1586.9683</v>
       </c>
       <c r="G183" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="H183" t="n">
         <v>251.55</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6980,22 +7475,25 @@
         <v>1086.3702</v>
       </c>
       <c r="G184" t="n">
+        <v>253.9333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>251.5833333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7019,22 +7517,27 @@
         <v>66.03100000000001</v>
       </c>
       <c r="G185" t="n">
+        <v>254.3333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>251.6333333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7056,18 +7559,25 @@
         <v>401.8512</v>
       </c>
       <c r="G186" t="n">
+        <v>254.8666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>251.6666666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7091,18 +7601,25 @@
         <v>7701.2344</v>
       </c>
       <c r="G187" t="n">
+        <v>255.2</v>
+      </c>
+      <c r="H187" t="n">
         <v>251.7166666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7126,18 +7643,25 @@
         <v>378.5819</v>
       </c>
       <c r="G188" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="H188" t="n">
         <v>251.7833333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7161,18 +7685,25 @@
         <v>3098</v>
       </c>
       <c r="G189" t="n">
+        <v>256.1333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>251.8666666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7196,18 +7727,25 @@
         <v>6635.9999</v>
       </c>
       <c r="G190" t="n">
+        <v>256.6</v>
+      </c>
+      <c r="H190" t="n">
         <v>251.95</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,18 +7769,25 @@
         <v>3610</v>
       </c>
       <c r="G191" t="n">
+        <v>257.1333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>252.05</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7266,18 +7811,25 @@
         <v>970.0714</v>
       </c>
       <c r="G192" t="n">
+        <v>257.1333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>252.1333333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7301,18 +7853,25 @@
         <v>3</v>
       </c>
       <c r="G193" t="n">
+        <v>257.5333333333334</v>
+      </c>
+      <c r="H193" t="n">
         <v>252.3</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7336,18 +7895,25 @@
         <v>1</v>
       </c>
       <c r="G194" t="n">
+        <v>258</v>
+      </c>
+      <c r="H194" t="n">
         <v>252.45</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7371,18 +7937,25 @@
         <v>227.8709</v>
       </c>
       <c r="G195" t="n">
+        <v>258.3333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>252.5833333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7406,18 +7979,25 @@
         <v>3560</v>
       </c>
       <c r="G196" t="n">
+        <v>258.7333333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>252.7166666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7441,18 +8021,25 @@
         <v>1682</v>
       </c>
       <c r="G197" t="n">
+        <v>259.0666666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>252.8833333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7476,18 +8063,25 @@
         <v>1664.0777</v>
       </c>
       <c r="G198" t="n">
+        <v>259.1333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>253</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7511,18 +8105,25 @@
         <v>1</v>
       </c>
       <c r="G199" t="n">
+        <v>259.3333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>253.15</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7546,18 +8147,25 @@
         <v>321</v>
       </c>
       <c r="G200" t="n">
+        <v>259.4666666666666</v>
+      </c>
+      <c r="H200" t="n">
         <v>253.3166666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7581,18 +8189,25 @@
         <v>577</v>
       </c>
       <c r="G201" t="n">
+        <v>259.7333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>253.45</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7616,18 +8231,25 @@
         <v>355.6023</v>
       </c>
       <c r="G202" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H202" t="n">
         <v>253.5</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7651,18 +8273,25 @@
         <v>2909.7699</v>
       </c>
       <c r="G203" t="n">
+        <v>259.2666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>253.5666666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7686,18 +8315,25 @@
         <v>11315.6007</v>
       </c>
       <c r="G204" t="n">
+        <v>258.8</v>
+      </c>
+      <c r="H204" t="n">
         <v>253.6333333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7721,18 +8357,25 @@
         <v>32.2881</v>
       </c>
       <c r="G205" t="n">
+        <v>258.3333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>253.7</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7756,18 +8399,25 @@
         <v>1</v>
       </c>
       <c r="G206" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>253.8333333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7791,18 +8441,25 @@
         <v>39.5173</v>
       </c>
       <c r="G207" t="n">
+        <v>258.1333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>253.9666666666667</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7826,18 +8483,25 @@
         <v>1</v>
       </c>
       <c r="G208" t="n">
+        <v>257.9333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>254.1166666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7861,18 +8525,25 @@
         <v>15.5635</v>
       </c>
       <c r="G209" t="n">
+        <v>257.6666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>254.2666666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7896,18 +8567,25 @@
         <v>187</v>
       </c>
       <c r="G210" t="n">
+        <v>257.5333333333334</v>
+      </c>
+      <c r="H210" t="n">
         <v>254.4166666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7931,18 +8609,25 @@
         <v>1743</v>
       </c>
       <c r="G211" t="n">
+        <v>257.3333333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>254.5333333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7966,18 +8651,25 @@
         <v>2420</v>
       </c>
       <c r="G212" t="n">
+        <v>257.1333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>254.6833333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8001,18 +8693,25 @@
         <v>2502.6721</v>
       </c>
       <c r="G213" t="n">
+        <v>257.1333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>254.8333333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8036,18 +8735,25 @@
         <v>1258.9999</v>
       </c>
       <c r="G214" t="n">
+        <v>257</v>
+      </c>
+      <c r="H214" t="n">
         <v>254.9833333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8071,18 +8777,25 @@
         <v>193.8531</v>
       </c>
       <c r="G215" t="n">
+        <v>256.8666666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>255.1166666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8106,18 +8819,25 @@
         <v>28000</v>
       </c>
       <c r="G216" t="n">
+        <v>256.4666666666666</v>
+      </c>
+      <c r="H216" t="n">
         <v>255.2166666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8141,18 +8861,25 @@
         <v>4416.8333</v>
       </c>
       <c r="G217" t="n">
+        <v>256.7333333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>255.3333333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8176,18 +8903,25 @@
         <v>1925</v>
       </c>
       <c r="G218" t="n">
+        <v>257.0666666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>255.5166666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8211,22 +8945,25 @@
         <v>1615</v>
       </c>
       <c r="G219" t="n">
+        <v>257.4666666666666</v>
+      </c>
+      <c r="H219" t="n">
         <v>255.7</v>
       </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>259</v>
-      </c>
-      <c r="K219" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8250,26 +8987,25 @@
         <v>22365.9999</v>
       </c>
       <c r="G220" t="n">
+        <v>257.8666666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>255.8333333333333</v>
       </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>259</v>
-      </c>
-      <c r="K220" t="n">
-        <v>259</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8293,24 +9029,25 @@
         <v>7222.4369</v>
       </c>
       <c r="G221" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>256.0333333333334</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>259</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8334,24 +9071,25 @@
         <v>1149.4252</v>
       </c>
       <c r="G222" t="n">
+        <v>258.3333333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>256.25</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>259</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8375,24 +9113,25 @@
         <v>1233</v>
       </c>
       <c r="G223" t="n">
+        <v>258.5333333333334</v>
+      </c>
+      <c r="H223" t="n">
         <v>256.45</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>259</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8416,24 +9155,25 @@
         <v>296.6234</v>
       </c>
       <c r="G224" t="n">
+        <v>258.7333333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>256.6</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>259</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8457,24 +9197,25 @@
         <v>2759.0495</v>
       </c>
       <c r="G225" t="n">
+        <v>258.9333333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>256.8</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>259</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,24 +9239,25 @@
         <v>1000</v>
       </c>
       <c r="G226" t="n">
+        <v>259.1333333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>256.9833333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>259</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8539,24 +9281,25 @@
         <v>9146.440699999999</v>
       </c>
       <c r="G227" t="n">
+        <v>259.3333333333333</v>
+      </c>
+      <c r="H227" t="n">
         <v>257.1833333333333</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>259</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8580,24 +9323,25 @@
         <v>446.8174</v>
       </c>
       <c r="G228" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H228" t="n">
         <v>257.35</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>259</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8621,24 +9365,25 @@
         <v>1398.1824</v>
       </c>
       <c r="G229" t="n">
+        <v>259.7333333333333</v>
+      </c>
+      <c r="H229" t="n">
         <v>257.5</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>259</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8662,24 +9407,25 @@
         <v>0.0001</v>
       </c>
       <c r="G230" t="n">
+        <v>259.9333333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>257.65</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>259</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8703,24 +9449,25 @@
         <v>17.6751</v>
       </c>
       <c r="G231" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H231" t="n">
         <v>257.85</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>259</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8744,24 +9491,25 @@
         <v>118.748</v>
       </c>
       <c r="G232" t="n">
+        <v>260.2666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>257.9333333333333</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>259</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8785,24 +9533,25 @@
         <v>676.99</v>
       </c>
       <c r="G233" t="n">
+        <v>260.1333333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>258.0166666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>259</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8826,24 +9575,25 @@
         <v>517.7619</v>
       </c>
       <c r="G234" t="n">
+        <v>260</v>
+      </c>
+      <c r="H234" t="n">
         <v>258.1</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>259</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8867,24 +9617,25 @@
         <v>43.115</v>
       </c>
       <c r="G235" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="H235" t="n">
         <v>258.15</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>259</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8908,24 +9659,25 @@
         <v>908</v>
       </c>
       <c r="G236" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="H236" t="n">
         <v>258.2166666666666</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>259</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8949,24 +9701,25 @@
         <v>1499.9999</v>
       </c>
       <c r="G237" t="n">
+        <v>259.3333333333333</v>
+      </c>
+      <c r="H237" t="n">
         <v>258.2333333333333</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>259</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8990,24 +9743,25 @@
         <v>268.6274</v>
       </c>
       <c r="G238" t="n">
+        <v>259.0666666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>258.2666666666667</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>259</v>
-      </c>
-      <c r="L238" t="inlineStr">
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9031,24 +9785,25 @@
         <v>5921.8219</v>
       </c>
       <c r="G239" t="n">
+        <v>258.7333333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>258.2833333333334</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>259</v>
-      </c>
-      <c r="L239" t="inlineStr">
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9072,24 +9827,25 @@
         <v>9272.7724</v>
       </c>
       <c r="G240" t="n">
+        <v>258.5333333333334</v>
+      </c>
+      <c r="H240" t="n">
         <v>258.3333333333333</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>259</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9113,24 +9869,25 @@
         <v>891.7335</v>
       </c>
       <c r="G241" t="n">
+        <v>258.2666666666667</v>
+      </c>
+      <c r="H241" t="n">
         <v>258.3666666666667</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>259</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9154,24 +9911,25 @@
         <v>624</v>
       </c>
       <c r="G242" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>258.4</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>259</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9195,24 +9953,25 @@
         <v>970.6658</v>
       </c>
       <c r="G243" t="n">
+        <v>257.8666666666667</v>
+      </c>
+      <c r="H243" t="n">
         <v>258.4166666666667</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>259</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9236,24 +9995,25 @@
         <v>393</v>
       </c>
       <c r="G244" t="n">
+        <v>257.7333333333333</v>
+      </c>
+      <c r="H244" t="n">
         <v>258.45</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>259</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9277,24 +10037,445 @@
         <v>3074.5862</v>
       </c>
       <c r="G245" t="n">
+        <v>257.6666666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>258.4833333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>260</v>
+      </c>
+      <c r="C246" t="n">
+        <v>260</v>
+      </c>
+      <c r="D246" t="n">
+        <v>260</v>
+      </c>
+      <c r="E246" t="n">
+        <v>260</v>
+      </c>
+      <c r="F246" t="n">
+        <v>4164</v>
+      </c>
+      <c r="G246" t="n">
+        <v>257.6666666666667</v>
+      </c>
+      <c r="H246" t="n">
+        <v>258.55</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>260</v>
+      </c>
+      <c r="C247" t="n">
+        <v>260</v>
+      </c>
+      <c r="D247" t="n">
+        <v>260</v>
+      </c>
+      <c r="E247" t="n">
+        <v>260</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2783.0597</v>
+      </c>
+      <c r="G247" t="n">
+        <v>257.8</v>
+      </c>
+      <c r="H247" t="n">
+        <v>258.5833333333333</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>261</v>
+      </c>
+      <c r="C248" t="n">
+        <v>261</v>
+      </c>
+      <c r="D248" t="n">
+        <v>261</v>
+      </c>
+      <c r="E248" t="n">
+        <v>261</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2054.7187</v>
+      </c>
+      <c r="G248" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H248" t="n">
+        <v>258.6333333333333</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>261</v>
+      </c>
+      <c r="C249" t="n">
+        <v>261</v>
+      </c>
+      <c r="D249" t="n">
+        <v>261</v>
+      </c>
+      <c r="E249" t="n">
+        <v>261</v>
+      </c>
+      <c r="F249" t="n">
         <v>259</v>
       </c>
-      <c r="L245" t="inlineStr">
+      <c r="G249" t="n">
+        <v>258.3333333333333</v>
+      </c>
+      <c r="H249" t="n">
+        <v>258.65</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>261</v>
+      </c>
+      <c r="C250" t="n">
+        <v>261</v>
+      </c>
+      <c r="D250" t="n">
+        <v>261</v>
+      </c>
+      <c r="E250" t="n">
+        <v>261</v>
+      </c>
+      <c r="F250" t="n">
+        <v>5914.7439</v>
+      </c>
+      <c r="G250" t="n">
+        <v>258.6666666666667</v>
+      </c>
+      <c r="H250" t="n">
+        <v>258.6666666666667</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>260</v>
+      </c>
+      <c r="C251" t="n">
+        <v>260</v>
+      </c>
+      <c r="D251" t="n">
+        <v>260</v>
+      </c>
+      <c r="E251" t="n">
+        <v>260</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G251" t="n">
+        <v>258.8666666666667</v>
+      </c>
+      <c r="H251" t="n">
+        <v>258.65</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>261</v>
+      </c>
+      <c r="C252" t="n">
+        <v>262</v>
+      </c>
+      <c r="D252" t="n">
+        <v>262</v>
+      </c>
+      <c r="E252" t="n">
+        <v>261</v>
+      </c>
+      <c r="F252" t="n">
+        <v>6941.5535</v>
+      </c>
+      <c r="G252" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="H252" t="n">
+        <v>258.75</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>259</v>
+      </c>
+      <c r="C253" t="n">
+        <v>259</v>
+      </c>
+      <c r="D253" t="n">
+        <v>259</v>
+      </c>
+      <c r="E253" t="n">
+        <v>259</v>
+      </c>
+      <c r="F253" t="n">
+        <v>500</v>
+      </c>
+      <c r="G253" t="n">
+        <v>259.3333333333333</v>
+      </c>
+      <c r="H253" t="n">
+        <v>258.7166666666666</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>259</v>
+      </c>
+      <c r="C254" t="n">
+        <v>259</v>
+      </c>
+      <c r="D254" t="n">
+        <v>259</v>
+      </c>
+      <c r="E254" t="n">
+        <v>259</v>
+      </c>
+      <c r="F254" t="n">
+        <v>250</v>
+      </c>
+      <c r="G254" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H254" t="n">
+        <v>258.6666666666667</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>258</v>
+      </c>
+      <c r="C255" t="n">
+        <v>258</v>
+      </c>
+      <c r="D255" t="n">
+        <v>258</v>
+      </c>
+      <c r="E255" t="n">
+        <v>258</v>
+      </c>
+      <c r="F255" t="n">
+        <v>685</v>
+      </c>
+      <c r="G255" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H255" t="n">
+        <v>258.6333333333333</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest INS.xlsx
+++ b/BackTest/2019-10-29 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N313"/>
+  <dimension ref="A1:M313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>162581.5333363637</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>163777.7778363637</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>165933.7823363637</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>170753.8568363637</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>161737.0624363637</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>170244.0811905621</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>172162.0811905621</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>171431.0811905621</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>170332.8545905621</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>170332.8545905621</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>170333.8545905621</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4246,15 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7908,1970 +7282,1801 @@
         <v>105363.7216905622</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>250</v>
+      </c>
+      <c r="C210" t="n">
         <v>249</v>
       </c>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="D210" t="n">
+        <v>250</v>
+      </c>
+      <c r="E210" t="n">
+        <v>249</v>
+      </c>
+      <c r="F210" t="n">
+        <v>701.4842</v>
+      </c>
+      <c r="G210" t="n">
+        <v>104662.2374905622</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>249</v>
+      </c>
+      <c r="C211" t="n">
+        <v>249</v>
+      </c>
+      <c r="D211" t="n">
+        <v>249</v>
+      </c>
+      <c r="E211" t="n">
+        <v>249</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2492</v>
+      </c>
+      <c r="G211" t="n">
+        <v>104662.2374905622</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>249</v>
+      </c>
+      <c r="C212" t="n">
+        <v>249</v>
+      </c>
+      <c r="D212" t="n">
+        <v>249</v>
+      </c>
+      <c r="E212" t="n">
+        <v>249</v>
+      </c>
+      <c r="F212" t="n">
+        <v>589.3241</v>
+      </c>
+      <c r="G212" t="n">
+        <v>104662.2374905622</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>250</v>
+      </c>
+      <c r="C213" t="n">
+        <v>250</v>
+      </c>
+      <c r="D213" t="n">
+        <v>250</v>
+      </c>
+      <c r="E213" t="n">
+        <v>250</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>106662.2374905622</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>249</v>
+      </c>
+      <c r="C214" t="n">
+        <v>248</v>
+      </c>
+      <c r="D214" t="n">
+        <v>249</v>
+      </c>
+      <c r="E214" t="n">
+        <v>248</v>
+      </c>
+      <c r="F214" t="n">
+        <v>14903.1471</v>
+      </c>
+      <c r="G214" t="n">
+        <v>91759.09039056218</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
+      <c r="I214" t="n">
+        <v>250</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>250</v>
-      </c>
-      <c r="C210" t="n">
-        <v>249</v>
-      </c>
-      <c r="D210" t="n">
-        <v>250</v>
-      </c>
-      <c r="E210" t="n">
-        <v>249</v>
-      </c>
-      <c r="F210" t="n">
-        <v>701.4842</v>
-      </c>
-      <c r="G210" t="n">
-        <v>104662.2374905622</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>251</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>252</v>
+      </c>
+      <c r="C215" t="n">
+        <v>252</v>
+      </c>
+      <c r="D215" t="n">
+        <v>252</v>
+      </c>
+      <c r="E215" t="n">
+        <v>252</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>91760.09039056218</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2</v>
+      </c>
+      <c r="I215" t="n">
+        <v>248</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
         <v>249</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C216" t="n">
+        <v>248</v>
+      </c>
+      <c r="D216" t="n">
         <v>249</v>
       </c>
-      <c r="D211" t="n">
-        <v>249</v>
-      </c>
-      <c r="E211" t="n">
-        <v>249</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2492</v>
-      </c>
-      <c r="G211" t="n">
-        <v>104662.2374905622</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>249</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="E216" t="n">
+        <v>248</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3032</v>
+      </c>
+      <c r="G216" t="n">
+        <v>88728.09039056218</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>249</v>
-      </c>
-      <c r="C212" t="n">
-        <v>249</v>
-      </c>
-      <c r="D212" t="n">
-        <v>249</v>
-      </c>
-      <c r="E212" t="n">
-        <v>249</v>
-      </c>
-      <c r="F212" t="n">
-        <v>589.3241</v>
-      </c>
-      <c r="G212" t="n">
-        <v>104662.2374905622</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>249</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>248</v>
+      </c>
+      <c r="C217" t="n">
+        <v>248</v>
+      </c>
+      <c r="D217" t="n">
+        <v>248</v>
+      </c>
+      <c r="E217" t="n">
+        <v>248</v>
+      </c>
+      <c r="F217" t="n">
+        <v>22571.3319</v>
+      </c>
+      <c r="G217" t="n">
+        <v>88728.09039056218</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>250</v>
-      </c>
-      <c r="C213" t="n">
-        <v>250</v>
-      </c>
-      <c r="D213" t="n">
-        <v>250</v>
-      </c>
-      <c r="E213" t="n">
-        <v>250</v>
-      </c>
-      <c r="F213" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G213" t="n">
-        <v>106662.2374905622</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>249</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>251</v>
+      </c>
+      <c r="C218" t="n">
+        <v>251</v>
+      </c>
+      <c r="D218" t="n">
+        <v>251</v>
+      </c>
+      <c r="E218" t="n">
+        <v>251</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="n">
+        <v>88729.09039056218</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
+      <c r="I218" t="n">
+        <v>248</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>249</v>
-      </c>
-      <c r="C214" t="n">
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
         <v>248</v>
       </c>
-      <c r="D214" t="n">
-        <v>249</v>
-      </c>
-      <c r="E214" t="n">
+      <c r="C219" t="n">
         <v>248</v>
       </c>
-      <c r="F214" t="n">
-        <v>14903.1471</v>
-      </c>
-      <c r="G214" t="n">
-        <v>91759.09039056218</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>250</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+      <c r="D219" t="n">
+        <v>248</v>
+      </c>
+      <c r="E219" t="n">
+        <v>248</v>
+      </c>
+      <c r="F219" t="n">
+        <v>478.17</v>
+      </c>
+      <c r="G219" t="n">
+        <v>88250.92039056218</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2</v>
+      </c>
+      <c r="I219" t="n">
+        <v>251</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>252</v>
-      </c>
-      <c r="C215" t="n">
-        <v>252</v>
-      </c>
-      <c r="D215" t="n">
-        <v>252</v>
-      </c>
-      <c r="E215" t="n">
-        <v>252</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1</v>
-      </c>
-      <c r="G215" t="n">
-        <v>91760.09039056218</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
         <v>248</v>
       </c>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
+      <c r="C220" t="n">
+        <v>248</v>
+      </c>
+      <c r="D220" t="n">
+        <v>248</v>
+      </c>
+      <c r="E220" t="n">
+        <v>248</v>
+      </c>
+      <c r="F220" t="n">
+        <v>312</v>
+      </c>
+      <c r="G220" t="n">
+        <v>88250.92039056218</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+      <c r="I220" t="n">
+        <v>248</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>248</v>
+      </c>
+      <c r="C221" t="n">
         <v>249</v>
       </c>
-      <c r="C216" t="n">
+      <c r="D221" t="n">
+        <v>249</v>
+      </c>
+      <c r="E221" t="n">
         <v>248</v>
       </c>
-      <c r="D216" t="n">
-        <v>249</v>
-      </c>
-      <c r="E216" t="n">
+      <c r="F221" t="n">
+        <v>8472.999900000001</v>
+      </c>
+      <c r="G221" t="n">
+        <v>96723.92029056218</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+      <c r="I221" t="n">
         <v>248</v>
       </c>
-      <c r="F216" t="n">
-        <v>3032</v>
-      </c>
-      <c r="G216" t="n">
-        <v>88728.09039056218</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>252</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>248</v>
-      </c>
-      <c r="C217" t="n">
-        <v>248</v>
-      </c>
-      <c r="D217" t="n">
-        <v>248</v>
-      </c>
-      <c r="E217" t="n">
-        <v>248</v>
-      </c>
-      <c r="F217" t="n">
-        <v>22571.3319</v>
-      </c>
-      <c r="G217" t="n">
-        <v>88728.09039056218</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>248</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>249</v>
+      </c>
+      <c r="C222" t="n">
+        <v>252</v>
+      </c>
+      <c r="D222" t="n">
+        <v>252</v>
+      </c>
+      <c r="E222" t="n">
+        <v>249</v>
+      </c>
+      <c r="F222" t="n">
+        <v>314</v>
+      </c>
+      <c r="G222" t="n">
+        <v>97037.92029056218</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2</v>
+      </c>
+      <c r="I222" t="n">
+        <v>249</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>251</v>
-      </c>
-      <c r="C218" t="n">
-        <v>251</v>
-      </c>
-      <c r="D218" t="n">
-        <v>251</v>
-      </c>
-      <c r="E218" t="n">
-        <v>251</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1</v>
-      </c>
-      <c r="G218" t="n">
-        <v>88729.09039056218</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>248</v>
-      </c>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>249</v>
+      </c>
+      <c r="C223" t="n">
+        <v>249</v>
+      </c>
+      <c r="D223" t="n">
+        <v>249</v>
+      </c>
+      <c r="E223" t="n">
+        <v>249</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1476</v>
+      </c>
+      <c r="G223" t="n">
+        <v>95561.92029056218</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+      <c r="I223" t="n">
+        <v>252</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>248</v>
-      </c>
-      <c r="C219" t="n">
-        <v>248</v>
-      </c>
-      <c r="D219" t="n">
-        <v>248</v>
-      </c>
-      <c r="E219" t="n">
-        <v>248</v>
-      </c>
-      <c r="F219" t="n">
-        <v>478.17</v>
-      </c>
-      <c r="G219" t="n">
-        <v>88250.92039056218</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>251</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>250</v>
+      </c>
+      <c r="C224" t="n">
+        <v>250</v>
+      </c>
+      <c r="D224" t="n">
+        <v>250</v>
+      </c>
+      <c r="E224" t="n">
+        <v>250</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="n">
+        <v>95562.92029056218</v>
+      </c>
+      <c r="H224" t="n">
+        <v>2</v>
+      </c>
+      <c r="I224" t="n">
+        <v>249</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>248</v>
-      </c>
-      <c r="C220" t="n">
-        <v>248</v>
-      </c>
-      <c r="D220" t="n">
-        <v>248</v>
-      </c>
-      <c r="E220" t="n">
-        <v>248</v>
-      </c>
-      <c r="F220" t="n">
-        <v>312</v>
-      </c>
-      <c r="G220" t="n">
-        <v>88250.92039056218</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>248</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>249</v>
+      </c>
+      <c r="C225" t="n">
+        <v>249</v>
+      </c>
+      <c r="D225" t="n">
+        <v>249</v>
+      </c>
+      <c r="E225" t="n">
+        <v>249</v>
+      </c>
+      <c r="F225" t="n">
+        <v>295.7189</v>
+      </c>
+      <c r="G225" t="n">
+        <v>95267.20139056217</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2</v>
+      </c>
+      <c r="I225" t="n">
+        <v>250</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>248</v>
-      </c>
-      <c r="C221" t="n">
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>251</v>
+      </c>
+      <c r="C226" t="n">
+        <v>251</v>
+      </c>
+      <c r="D226" t="n">
+        <v>251</v>
+      </c>
+      <c r="E226" t="n">
+        <v>251</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>95268.20139056217</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2</v>
+      </c>
+      <c r="I226" t="n">
         <v>249</v>
       </c>
-      <c r="D221" t="n">
-        <v>249</v>
-      </c>
-      <c r="E221" t="n">
-        <v>248</v>
-      </c>
-      <c r="F221" t="n">
-        <v>8472.999900000001</v>
-      </c>
-      <c r="G221" t="n">
-        <v>96723.92029056218</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
-        <v>248</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>249</v>
-      </c>
-      <c r="C222" t="n">
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
         <v>252</v>
       </c>
-      <c r="D222" t="n">
+      <c r="C227" t="n">
         <v>252</v>
       </c>
-      <c r="E222" t="n">
-        <v>249</v>
-      </c>
-      <c r="F222" t="n">
-        <v>314</v>
-      </c>
-      <c r="G222" t="n">
-        <v>97037.92029056218</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>249</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+      <c r="D227" t="n">
+        <v>252</v>
+      </c>
+      <c r="E227" t="n">
+        <v>252</v>
+      </c>
+      <c r="F227" t="n">
+        <v>85</v>
+      </c>
+      <c r="G227" t="n">
+        <v>95353.20139056217</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+      <c r="I227" t="n">
+        <v>251</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>249</v>
-      </c>
-      <c r="C223" t="n">
-        <v>249</v>
-      </c>
-      <c r="D223" t="n">
-        <v>249</v>
-      </c>
-      <c r="E223" t="n">
-        <v>249</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1476</v>
-      </c>
-      <c r="G223" t="n">
-        <v>95561.92029056218</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
         <v>252</v>
       </c>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
+      <c r="C228" t="n">
+        <v>252</v>
+      </c>
+      <c r="D228" t="n">
+        <v>252</v>
+      </c>
+      <c r="E228" t="n">
+        <v>252</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G228" t="n">
+        <v>95353.20139056217</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>250</v>
-      </c>
-      <c r="C224" t="n">
-        <v>250</v>
-      </c>
-      <c r="D224" t="n">
-        <v>250</v>
-      </c>
-      <c r="E224" t="n">
-        <v>250</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1</v>
-      </c>
-      <c r="G224" t="n">
-        <v>95562.92029056218</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>249</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>248</v>
+      </c>
+      <c r="C229" t="n">
+        <v>248</v>
+      </c>
+      <c r="D229" t="n">
+        <v>248</v>
+      </c>
+      <c r="E229" t="n">
+        <v>248</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="G229" t="n">
+        <v>95351.01839056217</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
+      <c r="I229" t="n">
+        <v>252</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>249</v>
-      </c>
-      <c r="C225" t="n">
-        <v>249</v>
-      </c>
-      <c r="D225" t="n">
-        <v>249</v>
-      </c>
-      <c r="E225" t="n">
-        <v>249</v>
-      </c>
-      <c r="F225" t="n">
-        <v>295.7189</v>
-      </c>
-      <c r="G225" t="n">
-        <v>95267.20139056217</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>250</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>253</v>
+      </c>
+      <c r="C230" t="n">
+        <v>253</v>
+      </c>
+      <c r="D230" t="n">
+        <v>253</v>
+      </c>
+      <c r="E230" t="n">
+        <v>253</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="n">
+        <v>95352.01839056217</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>251</v>
-      </c>
-      <c r="C226" t="n">
-        <v>251</v>
-      </c>
-      <c r="D226" t="n">
-        <v>251</v>
-      </c>
-      <c r="E226" t="n">
-        <v>251</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1</v>
-      </c>
-      <c r="G226" t="n">
-        <v>95268.20139056217</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>249</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>252</v>
+      </c>
+      <c r="C231" t="n">
+        <v>252</v>
+      </c>
+      <c r="D231" t="n">
+        <v>252</v>
+      </c>
+      <c r="E231" t="n">
+        <v>252</v>
+      </c>
+      <c r="F231" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G231" t="n">
+        <v>95314.51839056217</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
         <v>252</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C232" t="n">
         <v>252</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D232" t="n">
         <v>252</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E232" t="n">
         <v>252</v>
       </c>
-      <c r="F227" t="n">
-        <v>85</v>
-      </c>
-      <c r="G227" t="n">
-        <v>95353.20139056217</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>251</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+      <c r="F232" t="n">
+        <v>4309</v>
+      </c>
+      <c r="G232" t="n">
+        <v>95314.51839056217</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
         <v>252</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C233" t="n">
+        <v>253</v>
+      </c>
+      <c r="D233" t="n">
+        <v>253</v>
+      </c>
+      <c r="E233" t="n">
         <v>252</v>
       </c>
-      <c r="D228" t="n">
-        <v>252</v>
-      </c>
-      <c r="E228" t="n">
-        <v>252</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G228" t="n">
-        <v>95353.20139056217</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>252</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
+      <c r="F233" t="n">
+        <v>2153.5</v>
+      </c>
+      <c r="G233" t="n">
+        <v>97468.01839056217</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>248</v>
-      </c>
-      <c r="C229" t="n">
-        <v>248</v>
-      </c>
-      <c r="D229" t="n">
-        <v>248</v>
-      </c>
-      <c r="E229" t="n">
-        <v>248</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="G229" t="n">
-        <v>95351.01839056217</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>252</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>253</v>
+      </c>
+      <c r="C234" t="n">
+        <v>253</v>
+      </c>
+      <c r="D234" t="n">
+        <v>253</v>
+      </c>
+      <c r="E234" t="n">
+        <v>253</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1526.3518</v>
+      </c>
+      <c r="G234" t="n">
+        <v>97468.01839056217</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>253</v>
-      </c>
-      <c r="C230" t="n">
-        <v>253</v>
-      </c>
-      <c r="D230" t="n">
-        <v>253</v>
-      </c>
-      <c r="E230" t="n">
-        <v>253</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1</v>
-      </c>
-      <c r="G230" t="n">
-        <v>95352.01839056217</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>248</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>256</v>
+      </c>
+      <c r="C235" t="n">
+        <v>256</v>
+      </c>
+      <c r="D235" t="n">
+        <v>256</v>
+      </c>
+      <c r="E235" t="n">
+        <v>256</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" t="n">
+        <v>97469.01839056217</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>252</v>
-      </c>
-      <c r="C231" t="n">
-        <v>252</v>
-      </c>
-      <c r="D231" t="n">
-        <v>252</v>
-      </c>
-      <c r="E231" t="n">
-        <v>252</v>
-      </c>
-      <c r="F231" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="G231" t="n">
-        <v>95314.51839056217</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>251</v>
+      </c>
+      <c r="C236" t="n">
+        <v>255</v>
+      </c>
+      <c r="D236" t="n">
+        <v>255</v>
+      </c>
+      <c r="E236" t="n">
+        <v>251</v>
+      </c>
+      <c r="F236" t="n">
+        <v>11</v>
+      </c>
+      <c r="G236" t="n">
+        <v>97458.01839056217</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>252</v>
-      </c>
-      <c r="C232" t="n">
-        <v>252</v>
-      </c>
-      <c r="D232" t="n">
-        <v>252</v>
-      </c>
-      <c r="E232" t="n">
-        <v>252</v>
-      </c>
-      <c r="F232" t="n">
-        <v>4309</v>
-      </c>
-      <c r="G232" t="n">
-        <v>95314.51839056217</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>255</v>
+      </c>
+      <c r="C237" t="n">
+        <v>255</v>
+      </c>
+      <c r="D237" t="n">
+        <v>255</v>
+      </c>
+      <c r="E237" t="n">
+        <v>255</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1326.004</v>
+      </c>
+      <c r="G237" t="n">
+        <v>97458.01839056217</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>252</v>
-      </c>
-      <c r="C233" t="n">
-        <v>253</v>
-      </c>
-      <c r="D233" t="n">
-        <v>253</v>
-      </c>
-      <c r="E233" t="n">
-        <v>252</v>
-      </c>
-      <c r="F233" t="n">
-        <v>2153.5</v>
-      </c>
-      <c r="G233" t="n">
-        <v>97468.01839056217</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>255</v>
+      </c>
+      <c r="C238" t="n">
+        <v>255</v>
+      </c>
+      <c r="D238" t="n">
+        <v>255</v>
+      </c>
+      <c r="E238" t="n">
+        <v>255</v>
+      </c>
+      <c r="F238" t="n">
+        <v>857</v>
+      </c>
+      <c r="G238" t="n">
+        <v>97458.01839056217</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>253</v>
-      </c>
-      <c r="C234" t="n">
-        <v>253</v>
-      </c>
-      <c r="D234" t="n">
-        <v>253</v>
-      </c>
-      <c r="E234" t="n">
-        <v>253</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1526.3518</v>
-      </c>
-      <c r="G234" t="n">
-        <v>97468.01839056217</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>255</v>
+      </c>
+      <c r="C239" t="n">
+        <v>255</v>
+      </c>
+      <c r="D239" t="n">
+        <v>255</v>
+      </c>
+      <c r="E239" t="n">
+        <v>255</v>
+      </c>
+      <c r="F239" t="n">
+        <v>927</v>
+      </c>
+      <c r="G239" t="n">
+        <v>97458.01839056217</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>255</v>
+      </c>
+      <c r="C240" t="n">
         <v>256</v>
       </c>
-      <c r="C235" t="n">
-        <v>256</v>
-      </c>
-      <c r="D235" t="n">
-        <v>256</v>
-      </c>
-      <c r="E235" t="n">
-        <v>256</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1</v>
-      </c>
-      <c r="G235" t="n">
-        <v>97469.01839056217</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="n">
-        <v>253</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
+      <c r="D240" t="n">
+        <v>257</v>
+      </c>
+      <c r="E240" t="n">
+        <v>255</v>
+      </c>
+      <c r="F240" t="n">
+        <v>5762</v>
+      </c>
+      <c r="G240" t="n">
+        <v>103220.0183905622</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>251</v>
-      </c>
-      <c r="C236" t="n">
-        <v>255</v>
-      </c>
-      <c r="D236" t="n">
-        <v>255</v>
-      </c>
-      <c r="E236" t="n">
-        <v>251</v>
-      </c>
-      <c r="F236" t="n">
-        <v>11</v>
-      </c>
-      <c r="G236" t="n">
-        <v>97458.01839056217</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>257</v>
+      </c>
+      <c r="C241" t="n">
+        <v>257</v>
+      </c>
+      <c r="D241" t="n">
+        <v>257</v>
+      </c>
+      <c r="E241" t="n">
+        <v>257</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1586.9683</v>
+      </c>
+      <c r="G241" t="n">
+        <v>104806.9866905622</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>255</v>
-      </c>
-      <c r="C237" t="n">
-        <v>255</v>
-      </c>
-      <c r="D237" t="n">
-        <v>255</v>
-      </c>
-      <c r="E237" t="n">
-        <v>255</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1326.004</v>
-      </c>
-      <c r="G237" t="n">
-        <v>97458.01839056217</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>257</v>
+      </c>
+      <c r="C242" t="n">
+        <v>257</v>
+      </c>
+      <c r="D242" t="n">
+        <v>257</v>
+      </c>
+      <c r="E242" t="n">
+        <v>257</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1086.3702</v>
+      </c>
+      <c r="G242" t="n">
+        <v>104806.9866905622</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>255</v>
-      </c>
-      <c r="C238" t="n">
-        <v>255</v>
-      </c>
-      <c r="D238" t="n">
-        <v>255</v>
-      </c>
-      <c r="E238" t="n">
-        <v>255</v>
-      </c>
-      <c r="F238" t="n">
-        <v>857</v>
-      </c>
-      <c r="G238" t="n">
-        <v>97458.01839056217</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>258</v>
+      </c>
+      <c r="C243" t="n">
+        <v>258</v>
+      </c>
+      <c r="D243" t="n">
+        <v>258</v>
+      </c>
+      <c r="E243" t="n">
+        <v>258</v>
+      </c>
+      <c r="F243" t="n">
+        <v>66.03100000000001</v>
+      </c>
+      <c r="G243" t="n">
+        <v>104873.0176905622</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>255</v>
-      </c>
-      <c r="C239" t="n">
-        <v>255</v>
-      </c>
-      <c r="D239" t="n">
-        <v>255</v>
-      </c>
-      <c r="E239" t="n">
-        <v>255</v>
-      </c>
-      <c r="F239" t="n">
-        <v>927</v>
-      </c>
-      <c r="G239" t="n">
-        <v>97458.01839056217</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>256</v>
+      </c>
+      <c r="C244" t="n">
+        <v>256</v>
+      </c>
+      <c r="D244" t="n">
+        <v>256</v>
+      </c>
+      <c r="E244" t="n">
+        <v>256</v>
+      </c>
+      <c r="F244" t="n">
+        <v>401.8512</v>
+      </c>
+      <c r="G244" t="n">
+        <v>104471.1664905622</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>255</v>
-      </c>
-      <c r="C240" t="n">
-        <v>256</v>
-      </c>
-      <c r="D240" t="n">
-        <v>257</v>
-      </c>
-      <c r="E240" t="n">
-        <v>255</v>
-      </c>
-      <c r="F240" t="n">
-        <v>5762</v>
-      </c>
-      <c r="G240" t="n">
-        <v>103220.0183905622</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>258</v>
+      </c>
+      <c r="C245" t="n">
+        <v>258</v>
+      </c>
+      <c r="D245" t="n">
+        <v>258</v>
+      </c>
+      <c r="E245" t="n">
+        <v>258</v>
+      </c>
+      <c r="F245" t="n">
+        <v>7701.2344</v>
+      </c>
+      <c r="G245" t="n">
+        <v>112172.4008905622</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>257</v>
-      </c>
-      <c r="C241" t="n">
-        <v>257</v>
-      </c>
-      <c r="D241" t="n">
-        <v>257</v>
-      </c>
-      <c r="E241" t="n">
-        <v>257</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1586.9683</v>
-      </c>
-      <c r="G241" t="n">
-        <v>104806.9866905622</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>258</v>
+      </c>
+      <c r="C246" t="n">
+        <v>258</v>
+      </c>
+      <c r="D246" t="n">
+        <v>258</v>
+      </c>
+      <c r="E246" t="n">
+        <v>258</v>
+      </c>
+      <c r="F246" t="n">
+        <v>378.5819</v>
+      </c>
+      <c r="G246" t="n">
+        <v>112172.4008905622</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>257</v>
-      </c>
-      <c r="C242" t="n">
-        <v>257</v>
-      </c>
-      <c r="D242" t="n">
-        <v>257</v>
-      </c>
-      <c r="E242" t="n">
-        <v>257</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1086.3702</v>
-      </c>
-      <c r="G242" t="n">
-        <v>104806.9866905622</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>258</v>
+      </c>
+      <c r="C247" t="n">
+        <v>260</v>
+      </c>
+      <c r="D247" t="n">
+        <v>260</v>
+      </c>
+      <c r="E247" t="n">
+        <v>258</v>
+      </c>
+      <c r="F247" t="n">
+        <v>3098</v>
+      </c>
+      <c r="G247" t="n">
+        <v>115270.4008905622</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>258</v>
-      </c>
-      <c r="C243" t="n">
-        <v>258</v>
-      </c>
-      <c r="D243" t="n">
-        <v>258</v>
-      </c>
-      <c r="E243" t="n">
-        <v>258</v>
-      </c>
-      <c r="F243" t="n">
-        <v>66.03100000000001</v>
-      </c>
-      <c r="G243" t="n">
-        <v>104873.0176905622</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>260</v>
+      </c>
+      <c r="C248" t="n">
+        <v>260</v>
+      </c>
+      <c r="D248" t="n">
+        <v>260</v>
+      </c>
+      <c r="E248" t="n">
+        <v>260</v>
+      </c>
+      <c r="F248" t="n">
+        <v>6635.9999</v>
+      </c>
+      <c r="G248" t="n">
+        <v>115270.4008905622</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>256</v>
-      </c>
-      <c r="C244" t="n">
-        <v>256</v>
-      </c>
-      <c r="D244" t="n">
-        <v>256</v>
-      </c>
-      <c r="E244" t="n">
-        <v>256</v>
-      </c>
-      <c r="F244" t="n">
-        <v>401.8512</v>
-      </c>
-      <c r="G244" t="n">
-        <v>104471.1664905622</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>260</v>
+      </c>
+      <c r="C249" t="n">
+        <v>261</v>
+      </c>
+      <c r="D249" t="n">
+        <v>261</v>
+      </c>
+      <c r="E249" t="n">
+        <v>260</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3610</v>
+      </c>
+      <c r="G249" t="n">
+        <v>118880.4008905622</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>258</v>
-      </c>
-      <c r="C245" t="n">
-        <v>258</v>
-      </c>
-      <c r="D245" t="n">
-        <v>258</v>
-      </c>
-      <c r="E245" t="n">
-        <v>258</v>
-      </c>
-      <c r="F245" t="n">
-        <v>7701.2344</v>
-      </c>
-      <c r="G245" t="n">
-        <v>112172.4008905622</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>261</v>
+      </c>
+      <c r="C250" t="n">
+        <v>256</v>
+      </c>
+      <c r="D250" t="n">
+        <v>261</v>
+      </c>
+      <c r="E250" t="n">
+        <v>256</v>
+      </c>
+      <c r="F250" t="n">
+        <v>970.0714</v>
+      </c>
+      <c r="G250" t="n">
+        <v>117910.3294905622</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>258</v>
-      </c>
-      <c r="C246" t="n">
-        <v>258</v>
-      </c>
-      <c r="D246" t="n">
-        <v>258</v>
-      </c>
-      <c r="E246" t="n">
-        <v>258</v>
-      </c>
-      <c r="F246" t="n">
-        <v>378.5819</v>
-      </c>
-      <c r="G246" t="n">
-        <v>112172.4008905622</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>261</v>
+      </c>
+      <c r="C251" t="n">
+        <v>261</v>
+      </c>
+      <c r="D251" t="n">
+        <v>261</v>
+      </c>
+      <c r="E251" t="n">
+        <v>261</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3</v>
+      </c>
+      <c r="G251" t="n">
+        <v>117913.3294905622</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>258</v>
-      </c>
-      <c r="C247" t="n">
-        <v>260</v>
-      </c>
-      <c r="D247" t="n">
-        <v>260</v>
-      </c>
-      <c r="E247" t="n">
-        <v>258</v>
-      </c>
-      <c r="F247" t="n">
-        <v>3098</v>
-      </c>
-      <c r="G247" t="n">
-        <v>115270.4008905622</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>262</v>
+      </c>
+      <c r="C252" t="n">
+        <v>262</v>
+      </c>
+      <c r="D252" t="n">
+        <v>262</v>
+      </c>
+      <c r="E252" t="n">
+        <v>262</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>117914.3294905622</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>260</v>
-      </c>
-      <c r="C248" t="n">
-        <v>260</v>
-      </c>
-      <c r="D248" t="n">
-        <v>260</v>
-      </c>
-      <c r="E248" t="n">
-        <v>260</v>
-      </c>
-      <c r="F248" t="n">
-        <v>6635.9999</v>
-      </c>
-      <c r="G248" t="n">
-        <v>115270.4008905622</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>260</v>
+      </c>
+      <c r="C253" t="n">
+        <v>260</v>
+      </c>
+      <c r="D253" t="n">
+        <v>260</v>
+      </c>
+      <c r="E253" t="n">
+        <v>260</v>
+      </c>
+      <c r="F253" t="n">
+        <v>227.8709</v>
+      </c>
+      <c r="G253" t="n">
+        <v>117686.4585905622</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>260</v>
-      </c>
-      <c r="C249" t="n">
-        <v>261</v>
-      </c>
-      <c r="D249" t="n">
-        <v>261</v>
-      </c>
-      <c r="E249" t="n">
-        <v>260</v>
-      </c>
-      <c r="F249" t="n">
-        <v>3610</v>
-      </c>
-      <c r="G249" t="n">
-        <v>118880.4008905622</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>261</v>
+      </c>
+      <c r="C254" t="n">
+        <v>261</v>
+      </c>
+      <c r="D254" t="n">
+        <v>261</v>
+      </c>
+      <c r="E254" t="n">
+        <v>261</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3560</v>
+      </c>
+      <c r="G254" t="n">
+        <v>121246.4585905622</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>261</v>
-      </c>
-      <c r="C250" t="n">
-        <v>256</v>
-      </c>
-      <c r="D250" t="n">
-        <v>261</v>
-      </c>
-      <c r="E250" t="n">
-        <v>256</v>
-      </c>
-      <c r="F250" t="n">
-        <v>970.0714</v>
-      </c>
-      <c r="G250" t="n">
-        <v>117910.3294905622</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>261</v>
+      </c>
+      <c r="C255" t="n">
+        <v>261</v>
+      </c>
+      <c r="D255" t="n">
+        <v>261</v>
+      </c>
+      <c r="E255" t="n">
+        <v>261</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1682</v>
+      </c>
+      <c r="G255" t="n">
+        <v>121246.4585905622</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>261</v>
-      </c>
-      <c r="C251" t="n">
-        <v>261</v>
-      </c>
-      <c r="D251" t="n">
-        <v>261</v>
-      </c>
-      <c r="E251" t="n">
-        <v>261</v>
-      </c>
-      <c r="F251" t="n">
-        <v>3</v>
-      </c>
-      <c r="G251" t="n">
-        <v>117913.3294905622</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>258</v>
+      </c>
+      <c r="C256" t="n">
+        <v>258</v>
+      </c>
+      <c r="D256" t="n">
+        <v>258</v>
+      </c>
+      <c r="E256" t="n">
+        <v>258</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1664.0777</v>
+      </c>
+      <c r="G256" t="n">
+        <v>119582.3808905622</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>262</v>
-      </c>
-      <c r="C252" t="n">
-        <v>262</v>
-      </c>
-      <c r="D252" t="n">
-        <v>262</v>
-      </c>
-      <c r="E252" t="n">
-        <v>262</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1</v>
-      </c>
-      <c r="G252" t="n">
-        <v>117914.3294905622</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>260</v>
+      </c>
+      <c r="C257" t="n">
+        <v>260</v>
+      </c>
+      <c r="D257" t="n">
+        <v>260</v>
+      </c>
+      <c r="E257" t="n">
+        <v>260</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+      <c r="G257" t="n">
+        <v>119583.3808905622</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>260</v>
-      </c>
-      <c r="C253" t="n">
-        <v>260</v>
-      </c>
-      <c r="D253" t="n">
-        <v>260</v>
-      </c>
-      <c r="E253" t="n">
-        <v>260</v>
-      </c>
-      <c r="F253" t="n">
-        <v>227.8709</v>
-      </c>
-      <c r="G253" t="n">
-        <v>117686.4585905622</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M253" t="inlineStr"/>
-      <c r="N253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>261</v>
-      </c>
-      <c r="C254" t="n">
-        <v>261</v>
-      </c>
-      <c r="D254" t="n">
-        <v>261</v>
-      </c>
-      <c r="E254" t="n">
-        <v>261</v>
-      </c>
-      <c r="F254" t="n">
-        <v>3560</v>
-      </c>
-      <c r="G254" t="n">
-        <v>121246.4585905622</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>261</v>
-      </c>
-      <c r="C255" t="n">
-        <v>261</v>
-      </c>
-      <c r="D255" t="n">
-        <v>261</v>
-      </c>
-      <c r="E255" t="n">
-        <v>261</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1682</v>
-      </c>
-      <c r="G255" t="n">
-        <v>121246.4585905622</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>258</v>
-      </c>
-      <c r="C256" t="n">
-        <v>258</v>
-      </c>
-      <c r="D256" t="n">
-        <v>258</v>
-      </c>
-      <c r="E256" t="n">
-        <v>258</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1664.0777</v>
-      </c>
-      <c r="G256" t="n">
-        <v>119582.3808905622</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>260</v>
-      </c>
-      <c r="C257" t="n">
-        <v>260</v>
-      </c>
-      <c r="D257" t="n">
-        <v>260</v>
-      </c>
-      <c r="E257" t="n">
-        <v>260</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1</v>
-      </c>
-      <c r="G257" t="n">
-        <v>119583.3808905622</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9898,16 +9103,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>1</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9934,16 +9140,17 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9970,16 +9177,17 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10006,16 +9214,17 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10042,16 +9251,17 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10078,16 +9288,17 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10114,16 +9325,17 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10150,16 +9362,17 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10186,16 +9399,17 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10222,16 +9436,17 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10258,16 +9473,17 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10294,16 +9510,17 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10330,16 +9547,17 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10366,16 +9584,17 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10402,16 +9621,17 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10438,16 +9658,17 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10474,16 +9695,17 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10508,22 +9730,19 @@
         <v>81421.24129056217</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="n">
-        <v>254</v>
-      </c>
-      <c r="K275" t="n">
-        <v>254</v>
-      </c>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10550,22 +9769,17 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>254</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="K276" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10592,22 +9806,17 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>254</v>
-      </c>
-      <c r="L277" t="inlineStr">
+      <c r="K277" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10634,16 +9843,17 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10670,16 +9880,17 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10706,16 +9917,17 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10742,16 +9954,17 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10778,16 +9991,17 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10814,16 +10028,17 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10850,16 +10065,17 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>1</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10886,16 +10102,17 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>1</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10922,16 +10139,17 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10958,16 +10176,17 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>1</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10994,16 +10213,17 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>1</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11030,16 +10250,17 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11066,16 +10287,17 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>1</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11102,16 +10324,17 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11136,22 +10359,19 @@
         <v>88979.69029056217</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="n">
-        <v>257</v>
-      </c>
-      <c r="K292" t="n">
-        <v>257</v>
-      </c>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11176,26 +10396,19 @@
         <v>88936.57529056216</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="n">
-        <v>257</v>
-      </c>
-      <c r="K293" t="n">
-        <v>257</v>
-      </c>
-      <c r="L293" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11220,26 +10433,19 @@
         <v>89844.57529056216</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="n">
-        <v>256</v>
-      </c>
-      <c r="K294" t="n">
-        <v>257</v>
-      </c>
-      <c r="L294" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11264,22 +10470,19 @@
         <v>89844.57529056216</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="n">
-        <v>257</v>
-      </c>
-      <c r="K295" t="n">
-        <v>257</v>
-      </c>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11304,26 +10507,19 @@
         <v>89844.57529056216</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="n">
-        <v>257</v>
-      </c>
-      <c r="K296" t="n">
-        <v>257</v>
-      </c>
-      <c r="L296" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11348,26 +10544,19 @@
         <v>83922.75339056217</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="n">
-        <v>257</v>
-      </c>
-      <c r="K297" t="n">
-        <v>257</v>
-      </c>
-      <c r="L297" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11392,26 +10581,19 @@
         <v>93195.52579056217</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="n">
-        <v>256</v>
-      </c>
-      <c r="K298" t="n">
-        <v>257</v>
-      </c>
-      <c r="L298" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11436,26 +10618,19 @@
         <v>92303.79229056217</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="n">
-        <v>258</v>
-      </c>
-      <c r="K299" t="n">
-        <v>257</v>
-      </c>
-      <c r="L299" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11480,26 +10655,19 @@
         <v>92927.79229056217</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="n">
-        <v>257</v>
-      </c>
-      <c r="K300" t="n">
-        <v>257</v>
-      </c>
-      <c r="L300" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11526,22 +10694,17 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>257</v>
-      </c>
-      <c r="L301" t="inlineStr">
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11568,22 +10731,17 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>257</v>
-      </c>
-      <c r="L302" t="inlineStr">
+      <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11610,22 +10768,17 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>257</v>
-      </c>
-      <c r="L303" t="inlineStr">
+      <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11652,22 +10805,17 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>257</v>
-      </c>
-      <c r="L304" t="inlineStr">
+      <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11694,22 +10842,17 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>257</v>
-      </c>
-      <c r="L305" t="inlineStr">
+      <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11736,22 +10879,17 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>257</v>
-      </c>
-      <c r="L306" t="inlineStr">
+      <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11778,22 +10916,17 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>257</v>
-      </c>
-      <c r="L307" t="inlineStr">
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11820,22 +10953,17 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>257</v>
-      </c>
-      <c r="L308" t="inlineStr">
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11862,22 +10990,17 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>257</v>
-      </c>
-      <c r="L309" t="inlineStr">
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11904,22 +11027,17 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>257</v>
-      </c>
-      <c r="L310" t="inlineStr">
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11946,22 +11064,17 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>257</v>
-      </c>
-      <c r="L311" t="inlineStr">
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11986,26 +11099,19 @@
         <v>103891.6506905622</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="n">
-        <v>259</v>
-      </c>
-      <c r="K312" t="n">
-        <v>257</v>
-      </c>
-      <c r="L312" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12030,28 +11136,21 @@
         <v>103206.6506905622</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="n">
-        <v>259</v>
-      </c>
-      <c r="K313" t="n">
-        <v>257</v>
-      </c>
-      <c r="L313" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest INS.xlsx
+++ b/BackTest/2019-10-29 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>162581.5333363637</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>163777.7778363637</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>165933.7823363637</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>166782.8689363637</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>167990.6372363637</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>170753.8568363637</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>170753.8568363637</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>170753.8568363637</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>170753.8568363637</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>171753.8568363637</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>170513.5471363637</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>164386.8422363637</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>164526.8422363637</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>161737.0624363637</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>168083.7673363637</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>168066.7933363637</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>168638.8488363637</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>150982.8540363637</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>162974.0421905621</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>170244.0811905621</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>172162.0811905621</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>171431.0811905621</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>170332.8545905621</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>170332.8545905621</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>170333.8545905621</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>171163.8545905621</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>170271.4441905621</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>178356.0367905622</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>178056.0367905622</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>178056.0367905622</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>178058.0367905622</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>173586.4823905622</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>173588.4823905622</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>171743.3482905622</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>176422.6491905622</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>176422.6491905622</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>177630.3999905622</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>177630.3999905622</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>177630.3999905622</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>177735.8196905622</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>182454.7131905622</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>181998.9486905622</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>184028.5749905622</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>184028.5749905622</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>179899.4060905622</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>165638.1999905622</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7447,855 +7447,747 @@
         <v>91759.09039056218</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>252</v>
+      </c>
+      <c r="C215" t="n">
+        <v>252</v>
+      </c>
+      <c r="D215" t="n">
+        <v>252</v>
+      </c>
+      <c r="E215" t="n">
+        <v>252</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>91760.09039056218</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>249</v>
+      </c>
+      <c r="C216" t="n">
+        <v>248</v>
+      </c>
+      <c r="D216" t="n">
+        <v>249</v>
+      </c>
+      <c r="E216" t="n">
+        <v>248</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3032</v>
+      </c>
+      <c r="G216" t="n">
+        <v>88728.09039056218</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>248</v>
+      </c>
+      <c r="C217" t="n">
+        <v>248</v>
+      </c>
+      <c r="D217" t="n">
+        <v>248</v>
+      </c>
+      <c r="E217" t="n">
+        <v>248</v>
+      </c>
+      <c r="F217" t="n">
+        <v>22571.3319</v>
+      </c>
+      <c r="G217" t="n">
+        <v>88728.09039056218</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>251</v>
+      </c>
+      <c r="C218" t="n">
+        <v>251</v>
+      </c>
+      <c r="D218" t="n">
+        <v>251</v>
+      </c>
+      <c r="E218" t="n">
+        <v>251</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="n">
+        <v>88729.09039056218</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>248</v>
+      </c>
+      <c r="C219" t="n">
+        <v>248</v>
+      </c>
+      <c r="D219" t="n">
+        <v>248</v>
+      </c>
+      <c r="E219" t="n">
+        <v>248</v>
+      </c>
+      <c r="F219" t="n">
+        <v>478.17</v>
+      </c>
+      <c r="G219" t="n">
+        <v>88250.92039056218</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>248</v>
+      </c>
+      <c r="C220" t="n">
+        <v>248</v>
+      </c>
+      <c r="D220" t="n">
+        <v>248</v>
+      </c>
+      <c r="E220" t="n">
+        <v>248</v>
+      </c>
+      <c r="F220" t="n">
+        <v>312</v>
+      </c>
+      <c r="G220" t="n">
+        <v>88250.92039056218</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>248</v>
+      </c>
+      <c r="C221" t="n">
+        <v>249</v>
+      </c>
+      <c r="D221" t="n">
+        <v>249</v>
+      </c>
+      <c r="E221" t="n">
+        <v>248</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8472.999900000001</v>
+      </c>
+      <c r="G221" t="n">
+        <v>96723.92029056218</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>249</v>
+      </c>
+      <c r="C222" t="n">
+        <v>252</v>
+      </c>
+      <c r="D222" t="n">
+        <v>252</v>
+      </c>
+      <c r="E222" t="n">
+        <v>249</v>
+      </c>
+      <c r="F222" t="n">
+        <v>314</v>
+      </c>
+      <c r="G222" t="n">
+        <v>97037.92029056218</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>249</v>
+      </c>
+      <c r="C223" t="n">
+        <v>249</v>
+      </c>
+      <c r="D223" t="n">
+        <v>249</v>
+      </c>
+      <c r="E223" t="n">
+        <v>249</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1476</v>
+      </c>
+      <c r="G223" t="n">
+        <v>95561.92029056218</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
         <v>250</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
+      <c r="C224" t="n">
+        <v>250</v>
+      </c>
+      <c r="D224" t="n">
+        <v>250</v>
+      </c>
+      <c r="E224" t="n">
+        <v>250</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="n">
+        <v>95562.92029056218</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>249</v>
+      </c>
+      <c r="C225" t="n">
+        <v>249</v>
+      </c>
+      <c r="D225" t="n">
+        <v>249</v>
+      </c>
+      <c r="E225" t="n">
+        <v>249</v>
+      </c>
+      <c r="F225" t="n">
+        <v>295.7189</v>
+      </c>
+      <c r="G225" t="n">
+        <v>95267.20139056217</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>251</v>
+      </c>
+      <c r="C226" t="n">
+        <v>251</v>
+      </c>
+      <c r="D226" t="n">
+        <v>251</v>
+      </c>
+      <c r="E226" t="n">
+        <v>251</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>95268.20139056217</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>252</v>
+      </c>
+      <c r="C227" t="n">
+        <v>252</v>
+      </c>
+      <c r="D227" t="n">
+        <v>252</v>
+      </c>
+      <c r="E227" t="n">
+        <v>252</v>
+      </c>
+      <c r="F227" t="n">
+        <v>85</v>
+      </c>
+      <c r="G227" t="n">
+        <v>95353.20139056217</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>252</v>
+      </c>
+      <c r="C228" t="n">
+        <v>252</v>
+      </c>
+      <c r="D228" t="n">
+        <v>252</v>
+      </c>
+      <c r="E228" t="n">
+        <v>252</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G228" t="n">
+        <v>95353.20139056217</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>248</v>
+      </c>
+      <c r="C229" t="n">
+        <v>248</v>
+      </c>
+      <c r="D229" t="n">
+        <v>248</v>
+      </c>
+      <c r="E229" t="n">
+        <v>248</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="G229" t="n">
+        <v>95351.01839056217</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>253</v>
+      </c>
+      <c r="C230" t="n">
+        <v>253</v>
+      </c>
+      <c r="D230" t="n">
+        <v>253</v>
+      </c>
+      <c r="E230" t="n">
+        <v>253</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="n">
+        <v>95352.01839056217</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>252</v>
+      </c>
+      <c r="C231" t="n">
+        <v>252</v>
+      </c>
+      <c r="D231" t="n">
+        <v>252</v>
+      </c>
+      <c r="E231" t="n">
+        <v>252</v>
+      </c>
+      <c r="F231" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G231" t="n">
+        <v>95314.51839056217</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>252</v>
+      </c>
+      <c r="C232" t="n">
+        <v>252</v>
+      </c>
+      <c r="D232" t="n">
+        <v>252</v>
+      </c>
+      <c r="E232" t="n">
+        <v>252</v>
+      </c>
+      <c r="F232" t="n">
+        <v>4309</v>
+      </c>
+      <c r="G232" t="n">
+        <v>95314.51839056217</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>252</v>
+      </c>
+      <c r="C233" t="n">
+        <v>253</v>
+      </c>
+      <c r="D233" t="n">
+        <v>253</v>
+      </c>
+      <c r="E233" t="n">
+        <v>252</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2153.5</v>
+      </c>
+      <c r="G233" t="n">
+        <v>97468.01839056217</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>253</v>
+      </c>
+      <c r="C234" t="n">
+        <v>253</v>
+      </c>
+      <c r="D234" t="n">
+        <v>253</v>
+      </c>
+      <c r="E234" t="n">
+        <v>253</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1526.3518</v>
+      </c>
+      <c r="G234" t="n">
+        <v>97468.01839056217</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>256</v>
+      </c>
+      <c r="C235" t="n">
+        <v>256</v>
+      </c>
+      <c r="D235" t="n">
+        <v>256</v>
+      </c>
+      <c r="E235" t="n">
+        <v>256</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" t="n">
+        <v>97469.01839056217</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>253</v>
+      </c>
+      <c r="J235" t="n">
+        <v>253</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>251</v>
+      </c>
+      <c r="C236" t="n">
+        <v>255</v>
+      </c>
+      <c r="D236" t="n">
+        <v>255</v>
+      </c>
+      <c r="E236" t="n">
+        <v>251</v>
+      </c>
+      <c r="F236" t="n">
+        <v>11</v>
+      </c>
+      <c r="G236" t="n">
+        <v>97458.01839056217</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>253</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>252</v>
-      </c>
-      <c r="C215" t="n">
-        <v>252</v>
-      </c>
-      <c r="D215" t="n">
-        <v>252</v>
-      </c>
-      <c r="E215" t="n">
-        <v>252</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1</v>
-      </c>
-      <c r="G215" t="n">
-        <v>91760.09039056218</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>248</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>249</v>
-      </c>
-      <c r="C216" t="n">
-        <v>248</v>
-      </c>
-      <c r="D216" t="n">
-        <v>249</v>
-      </c>
-      <c r="E216" t="n">
-        <v>248</v>
-      </c>
-      <c r="F216" t="n">
-        <v>3032</v>
-      </c>
-      <c r="G216" t="n">
-        <v>88728.09039056218</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>248</v>
-      </c>
-      <c r="C217" t="n">
-        <v>248</v>
-      </c>
-      <c r="D217" t="n">
-        <v>248</v>
-      </c>
-      <c r="E217" t="n">
-        <v>248</v>
-      </c>
-      <c r="F217" t="n">
-        <v>22571.3319</v>
-      </c>
-      <c r="G217" t="n">
-        <v>88728.09039056218</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>251</v>
-      </c>
-      <c r="C218" t="n">
-        <v>251</v>
-      </c>
-      <c r="D218" t="n">
-        <v>251</v>
-      </c>
-      <c r="E218" t="n">
-        <v>251</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1</v>
-      </c>
-      <c r="G218" t="n">
-        <v>88729.09039056218</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>248</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>248</v>
-      </c>
-      <c r="C219" t="n">
-        <v>248</v>
-      </c>
-      <c r="D219" t="n">
-        <v>248</v>
-      </c>
-      <c r="E219" t="n">
-        <v>248</v>
-      </c>
-      <c r="F219" t="n">
-        <v>478.17</v>
-      </c>
-      <c r="G219" t="n">
-        <v>88250.92039056218</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>251</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>248</v>
-      </c>
-      <c r="C220" t="n">
-        <v>248</v>
-      </c>
-      <c r="D220" t="n">
-        <v>248</v>
-      </c>
-      <c r="E220" t="n">
-        <v>248</v>
-      </c>
-      <c r="F220" t="n">
-        <v>312</v>
-      </c>
-      <c r="G220" t="n">
-        <v>88250.92039056218</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>248</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>248</v>
-      </c>
-      <c r="C221" t="n">
-        <v>249</v>
-      </c>
-      <c r="D221" t="n">
-        <v>249</v>
-      </c>
-      <c r="E221" t="n">
-        <v>248</v>
-      </c>
-      <c r="F221" t="n">
-        <v>8472.999900000001</v>
-      </c>
-      <c r="G221" t="n">
-        <v>96723.92029056218</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>248</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>249</v>
-      </c>
-      <c r="C222" t="n">
-        <v>252</v>
-      </c>
-      <c r="D222" t="n">
-        <v>252</v>
-      </c>
-      <c r="E222" t="n">
-        <v>249</v>
-      </c>
-      <c r="F222" t="n">
-        <v>314</v>
-      </c>
-      <c r="G222" t="n">
-        <v>97037.92029056218</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>249</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>249</v>
-      </c>
-      <c r="C223" t="n">
-        <v>249</v>
-      </c>
-      <c r="D223" t="n">
-        <v>249</v>
-      </c>
-      <c r="E223" t="n">
-        <v>249</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1476</v>
-      </c>
-      <c r="G223" t="n">
-        <v>95561.92029056218</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>252</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>250</v>
-      </c>
-      <c r="C224" t="n">
-        <v>250</v>
-      </c>
-      <c r="D224" t="n">
-        <v>250</v>
-      </c>
-      <c r="E224" t="n">
-        <v>250</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1</v>
-      </c>
-      <c r="G224" t="n">
-        <v>95562.92029056218</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>249</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>249</v>
-      </c>
-      <c r="C225" t="n">
-        <v>249</v>
-      </c>
-      <c r="D225" t="n">
-        <v>249</v>
-      </c>
-      <c r="E225" t="n">
-        <v>249</v>
-      </c>
-      <c r="F225" t="n">
-        <v>295.7189</v>
-      </c>
-      <c r="G225" t="n">
-        <v>95267.20139056217</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>250</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>251</v>
-      </c>
-      <c r="C226" t="n">
-        <v>251</v>
-      </c>
-      <c r="D226" t="n">
-        <v>251</v>
-      </c>
-      <c r="E226" t="n">
-        <v>251</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1</v>
-      </c>
-      <c r="G226" t="n">
-        <v>95268.20139056217</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>249</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>252</v>
-      </c>
-      <c r="C227" t="n">
-        <v>252</v>
-      </c>
-      <c r="D227" t="n">
-        <v>252</v>
-      </c>
-      <c r="E227" t="n">
-        <v>252</v>
-      </c>
-      <c r="F227" t="n">
-        <v>85</v>
-      </c>
-      <c r="G227" t="n">
-        <v>95353.20139056217</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>251</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>252</v>
-      </c>
-      <c r="C228" t="n">
-        <v>252</v>
-      </c>
-      <c r="D228" t="n">
-        <v>252</v>
-      </c>
-      <c r="E228" t="n">
-        <v>252</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G228" t="n">
-        <v>95353.20139056217</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>248</v>
-      </c>
-      <c r="C229" t="n">
-        <v>248</v>
-      </c>
-      <c r="D229" t="n">
-        <v>248</v>
-      </c>
-      <c r="E229" t="n">
-        <v>248</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="G229" t="n">
-        <v>95351.01839056217</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>252</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>253</v>
-      </c>
-      <c r="C230" t="n">
-        <v>253</v>
-      </c>
-      <c r="D230" t="n">
-        <v>253</v>
-      </c>
-      <c r="E230" t="n">
-        <v>253</v>
-      </c>
-      <c r="F230" t="n">
-        <v>1</v>
-      </c>
-      <c r="G230" t="n">
-        <v>95352.01839056217</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>252</v>
-      </c>
-      <c r="C231" t="n">
-        <v>252</v>
-      </c>
-      <c r="D231" t="n">
-        <v>252</v>
-      </c>
-      <c r="E231" t="n">
-        <v>252</v>
-      </c>
-      <c r="F231" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="G231" t="n">
-        <v>95314.51839056217</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>252</v>
-      </c>
-      <c r="C232" t="n">
-        <v>252</v>
-      </c>
-      <c r="D232" t="n">
-        <v>252</v>
-      </c>
-      <c r="E232" t="n">
-        <v>252</v>
-      </c>
-      <c r="F232" t="n">
-        <v>4309</v>
-      </c>
-      <c r="G232" t="n">
-        <v>95314.51839056217</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>252</v>
-      </c>
-      <c r="C233" t="n">
-        <v>253</v>
-      </c>
-      <c r="D233" t="n">
-        <v>253</v>
-      </c>
-      <c r="E233" t="n">
-        <v>252</v>
-      </c>
-      <c r="F233" t="n">
-        <v>2153.5</v>
-      </c>
-      <c r="G233" t="n">
-        <v>97468.01839056217</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>253</v>
-      </c>
-      <c r="C234" t="n">
-        <v>253</v>
-      </c>
-      <c r="D234" t="n">
-        <v>253</v>
-      </c>
-      <c r="E234" t="n">
-        <v>253</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1526.3518</v>
-      </c>
-      <c r="G234" t="n">
-        <v>97468.01839056217</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>256</v>
-      </c>
-      <c r="C235" t="n">
-        <v>256</v>
-      </c>
-      <c r="D235" t="n">
-        <v>256</v>
-      </c>
-      <c r="E235" t="n">
-        <v>256</v>
-      </c>
-      <c r="F235" t="n">
-        <v>1</v>
-      </c>
-      <c r="G235" t="n">
-        <v>97469.01839056217</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>251</v>
-      </c>
-      <c r="C236" t="n">
-        <v>255</v>
-      </c>
-      <c r="D236" t="n">
-        <v>255</v>
-      </c>
-      <c r="E236" t="n">
-        <v>251</v>
-      </c>
-      <c r="F236" t="n">
-        <v>11</v>
-      </c>
-      <c r="G236" t="n">
-        <v>97458.01839056217</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8327,7 +8219,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>253</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8364,7 +8258,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>253</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8401,7 +8297,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>253</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8435,10 +8333,14 @@
         <v>103220.0183905622</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>255</v>
+      </c>
+      <c r="J240" t="n">
+        <v>253</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8475,7 +8377,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>253</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8512,7 +8416,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>253</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8549,7 +8455,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>253</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8583,10 +8491,14 @@
         <v>104471.1664905622</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>258</v>
+      </c>
+      <c r="J244" t="n">
+        <v>253</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8620,10 +8532,14 @@
         <v>112172.4008905622</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>256</v>
+      </c>
+      <c r="J245" t="n">
+        <v>253</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8657,10 +8573,14 @@
         <v>112172.4008905622</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>258</v>
+      </c>
+      <c r="J246" t="n">
+        <v>253</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8694,10 +8614,14 @@
         <v>115270.4008905622</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>258</v>
+      </c>
+      <c r="J247" t="n">
+        <v>253</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8731,10 +8655,14 @@
         <v>115270.4008905622</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>260</v>
+      </c>
+      <c r="J248" t="n">
+        <v>253</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8768,10 +8696,14 @@
         <v>118880.4008905622</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>260</v>
+      </c>
+      <c r="J249" t="n">
+        <v>253</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8808,7 +8740,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>253</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8845,7 +8779,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>253</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8882,7 +8818,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>253</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8919,7 +8857,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>253</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8956,7 +8896,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>253</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8993,7 +8935,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>253</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9030,7 +8974,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>253</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,7 +9013,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>253</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9104,7 +9052,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>253</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9141,7 +9091,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>253</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9178,7 +9130,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>253</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9215,7 +9169,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>253</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9249,10 +9205,14 @@
         <v>105002.4079905622</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>254</v>
+      </c>
+      <c r="J262" t="n">
+        <v>253</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9286,10 +9246,14 @@
         <v>105002.4079905622</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>253</v>
+      </c>
+      <c r="J263" t="n">
+        <v>253</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9323,10 +9287,14 @@
         <v>105003.4079905622</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>253</v>
+      </c>
+      <c r="J264" t="n">
+        <v>253</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9363,7 +9331,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>253</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9400,7 +9370,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>253</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9437,7 +9409,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>253</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9474,7 +9448,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>253</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9511,7 +9487,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>253</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9548,7 +9526,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>253</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9585,7 +9565,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>253</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9622,7 +9604,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>253</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9659,7 +9643,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>253</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9696,7 +9682,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>253</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9733,7 +9721,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>253</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9770,7 +9760,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>253</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9807,7 +9799,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>253</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9844,7 +9838,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>253</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9881,7 +9877,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>253</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9918,7 +9916,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>253</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9955,7 +9955,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>253</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9992,7 +9994,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>253</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10029,7 +10033,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>253</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10066,7 +10072,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>253</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10103,7 +10111,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>253</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10140,7 +10150,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>253</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10177,7 +10189,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>253</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10214,7 +10228,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>253</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10251,7 +10267,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>253</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10288,7 +10306,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>253</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10325,7 +10345,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>253</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10362,7 +10384,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>253</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10399,7 +10423,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>253</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10436,7 +10462,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>253</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10473,7 +10501,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>253</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10510,7 +10540,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>253</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10547,7 +10579,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>253</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10584,7 +10618,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>253</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10621,7 +10657,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>253</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10658,7 +10696,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>253</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10695,7 +10735,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>253</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,7 +10774,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>253</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10769,7 +10813,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>253</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10806,7 +10852,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>253</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10843,7 +10891,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>253</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10880,7 +10930,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>253</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10917,7 +10969,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>253</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10954,7 +11008,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>253</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10991,7 +11047,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>253</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11028,7 +11086,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>253</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11065,7 +11125,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>253</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,7 +11164,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>253</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11139,7 +11203,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>253</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11151,6 +11217,6 @@
       <c r="M313" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest INS.xlsx
+++ b/BackTest/2019-10-29 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>166782.8689363637</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>167990.6372363637</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>170753.8568363637</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>170753.8568363637</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>170753.8568363637</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>170753.8568363637</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>171753.8568363637</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>170513.5471363637</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>164386.8422363637</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>164526.8422363637</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>168083.7673363637</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>168066.7933363637</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>168094.4702363637</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>168638.8488363637</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>150982.8540363637</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>162974.0421905621</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>170332.8545905621</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>170333.8545905621</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>171163.8545905621</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>170271.4441905621</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>178356.0367905622</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>178056.0367905622</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>178056.0367905622</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>178058.0367905622</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>173586.4823905622</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>173588.4823905622</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>171743.3482905622</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>176422.6491905622</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>176422.6491905622</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>177630.3999905622</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>177630.3999905622</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>177630.3999905622</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>177735.8196905622</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>182454.7131905622</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>181998.9486905622</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>184028.5749905622</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>184028.5749905622</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>179899.4060905622</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>165638.1999905622</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7315,11 +7315,17 @@
         <v>104662.2374905622</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>251</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7358,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7395,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7432,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7469,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7502,17 @@
         <v>91760.09039056218</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>248</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7545,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7582,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7615,17 @@
         <v>88729.09039056218</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>248</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7658,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7695,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7728,17 @@
         <v>96723.92029056218</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>248</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7767,17 @@
         <v>97037.92029056218</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>249</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7810,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7847,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7880,17 @@
         <v>95267.20139056217</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>250</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7919,17 @@
         <v>95268.20139056217</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>249</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +7958,17 @@
         <v>95353.20139056217</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>251</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8001,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8038,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8071,17 @@
         <v>95352.01839056217</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>248</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8114,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8151,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8188,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8225,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,15 +8258,15 @@
         <v>97469.01839056217</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>253</v>
-      </c>
-      <c r="J235" t="n">
-        <v>253</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8180,12 +8298,10 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>253</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L236" t="n">
@@ -8219,9 +8335,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>253</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8258,9 +8372,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>253</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8297,9 +8409,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>253</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8333,14 +8443,10 @@
         <v>103220.0183905622</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>255</v>
-      </c>
-      <c r="J240" t="n">
-        <v>253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8377,9 +8483,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>253</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8416,9 +8520,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>253</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8455,9 +8557,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>253</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8491,22 +8591,16 @@
         <v>104471.1664905622</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>258</v>
-      </c>
-      <c r="J244" t="n">
-        <v>253</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
@@ -8532,19 +8626,11 @@
         <v>112172.4008905622</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>256</v>
-      </c>
-      <c r="J245" t="n">
-        <v>253</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8573,19 +8659,11 @@
         <v>112172.4008905622</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>258</v>
-      </c>
-      <c r="J246" t="n">
-        <v>253</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8614,19 +8692,11 @@
         <v>115270.4008905622</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>258</v>
-      </c>
-      <c r="J247" t="n">
-        <v>253</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8655,19 +8725,11 @@
         <v>115270.4008905622</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>260</v>
-      </c>
-      <c r="J248" t="n">
-        <v>253</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8696,19 +8758,11 @@
         <v>118880.4008905622</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>260</v>
-      </c>
-      <c r="J249" t="n">
-        <v>253</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8737,17 +8791,11 @@
         <v>117910.3294905622</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>253</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8776,17 +8824,11 @@
         <v>117913.3294905622</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>253</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8815,17 +8857,11 @@
         <v>117914.3294905622</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>253</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8854,17 +8890,11 @@
         <v>117686.4585905622</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>253</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8896,14 +8926,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>253</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8932,17 +8956,11 @@
         <v>121246.4585905622</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>253</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8971,17 +8989,11 @@
         <v>119582.3808905622</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>253</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9010,17 +9022,11 @@
         <v>119583.3808905622</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>253</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9049,17 +9055,11 @@
         <v>119583.3808905622</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>253</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9091,14 +9091,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>253</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9130,14 +9124,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>253</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9166,17 +9154,11 @@
         <v>116318.0086905622</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>253</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9205,19 +9187,11 @@
         <v>105002.4079905622</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>254</v>
-      </c>
-      <c r="J262" t="n">
-        <v>253</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9246,19 +9220,11 @@
         <v>105002.4079905622</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>253</v>
-      </c>
-      <c r="J263" t="n">
-        <v>253</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9287,19 +9253,11 @@
         <v>105003.4079905622</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>253</v>
-      </c>
-      <c r="J264" t="n">
-        <v>253</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9328,17 +9286,11 @@
         <v>105003.4079905622</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>253</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9370,14 +9322,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>253</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9409,14 +9355,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>253</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9448,14 +9388,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>253</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9487,14 +9421,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>253</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9526,14 +9454,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>253</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9565,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>253</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9601,17 +9517,11 @@
         <v>105004.4079905622</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>253</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9640,17 +9550,11 @@
         <v>105004.4079905622</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>253</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9679,17 +9583,11 @@
         <v>77004.40799056218</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>253</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9718,17 +9616,11 @@
         <v>81421.24129056217</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>253</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9760,14 +9652,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>253</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9799,14 +9685,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>253</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9838,14 +9718,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>253</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9877,14 +9751,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>253</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9916,14 +9784,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>253</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9955,14 +9817,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>253</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9994,14 +9850,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>253</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10033,14 +9883,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>253</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10072,14 +9916,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>253</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10111,14 +9949,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>253</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10150,14 +9982,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>253</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10189,14 +10015,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>253</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10228,14 +10048,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>253</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10267,14 +10081,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>253</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10306,14 +10114,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>253</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10345,14 +10147,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>253</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10384,14 +10180,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>253</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10423,14 +10213,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>253</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10462,14 +10246,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>253</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10501,14 +10279,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>253</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10540,14 +10312,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>253</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10579,14 +10345,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>253</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10618,14 +10378,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>253</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10657,14 +10411,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>253</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10696,14 +10444,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>253</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10735,14 +10477,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>253</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10774,14 +10510,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>253</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10813,14 +10543,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>253</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10852,14 +10576,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>253</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10891,14 +10609,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>253</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10930,14 +10642,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>253</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10969,14 +10675,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>253</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11008,14 +10708,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>253</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11047,14 +10741,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>253</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11086,14 +10774,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>253</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11125,14 +10807,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>253</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11164,14 +10840,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>253</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11203,20 +10873,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>253</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
       <c r="M313" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest INS.xlsx
+++ b/BackTest/2019-10-29 BackTest INS.xlsx
@@ -3058,7 +3058,7 @@
         <v>172739.4772905621</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>169626.1716905621</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>173129.8318905621</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>173129.8318905621</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>170320.0735905622</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>172651.2174905622</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>172652.2174905622</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>170244.0811905621</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>170244.0811905621</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>172162.0811905621</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>171431.0811905621</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>170332.8545905621</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>170332.8545905621</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>170333.8545905621</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>170323.8545905621</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>171163.8545905621</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>170270.4441905621</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>170271.4441905621</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>178356.0367905622</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>178056.0367905622</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>178056.0367905622</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>178058.0367905622</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>177027.5017905621</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -7315,430 +7315,406 @@
         <v>104662.2374905622</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>249</v>
+      </c>
+      <c r="C211" t="n">
+        <v>249</v>
+      </c>
+      <c r="D211" t="n">
+        <v>249</v>
+      </c>
+      <c r="E211" t="n">
+        <v>249</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2492</v>
+      </c>
+      <c r="G211" t="n">
+        <v>104662.2374905622</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>249</v>
+      </c>
+      <c r="C212" t="n">
+        <v>249</v>
+      </c>
+      <c r="D212" t="n">
+        <v>249</v>
+      </c>
+      <c r="E212" t="n">
+        <v>249</v>
+      </c>
+      <c r="F212" t="n">
+        <v>589.3241</v>
+      </c>
+      <c r="G212" t="n">
+        <v>104662.2374905622</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>250</v>
+      </c>
+      <c r="C213" t="n">
+        <v>250</v>
+      </c>
+      <c r="D213" t="n">
+        <v>250</v>
+      </c>
+      <c r="E213" t="n">
+        <v>250</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>106662.2374905622</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>249</v>
+      </c>
+      <c r="C214" t="n">
+        <v>248</v>
+      </c>
+      <c r="D214" t="n">
+        <v>249</v>
+      </c>
+      <c r="E214" t="n">
+        <v>248</v>
+      </c>
+      <c r="F214" t="n">
+        <v>14903.1471</v>
+      </c>
+      <c r="G214" t="n">
+        <v>91759.09039056218</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>252</v>
+      </c>
+      <c r="C215" t="n">
+        <v>252</v>
+      </c>
+      <c r="D215" t="n">
+        <v>252</v>
+      </c>
+      <c r="E215" t="n">
+        <v>252</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>91760.09039056218</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>249</v>
+      </c>
+      <c r="C216" t="n">
+        <v>248</v>
+      </c>
+      <c r="D216" t="n">
+        <v>249</v>
+      </c>
+      <c r="E216" t="n">
+        <v>248</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3032</v>
+      </c>
+      <c r="G216" t="n">
+        <v>88728.09039056218</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>248</v>
+      </c>
+      <c r="C217" t="n">
+        <v>248</v>
+      </c>
+      <c r="D217" t="n">
+        <v>248</v>
+      </c>
+      <c r="E217" t="n">
+        <v>248</v>
+      </c>
+      <c r="F217" t="n">
+        <v>22571.3319</v>
+      </c>
+      <c r="G217" t="n">
+        <v>88728.09039056218</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>248</v>
+      </c>
+      <c r="J217" t="n">
+        <v>248</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
         <v>251</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
+      <c r="C218" t="n">
+        <v>251</v>
+      </c>
+      <c r="D218" t="n">
+        <v>251</v>
+      </c>
+      <c r="E218" t="n">
+        <v>251</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="n">
+        <v>88729.09039056218</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>248</v>
+      </c>
+      <c r="J218" t="n">
+        <v>248</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>248</v>
+      </c>
+      <c r="C219" t="n">
+        <v>248</v>
+      </c>
+      <c r="D219" t="n">
+        <v>248</v>
+      </c>
+      <c r="E219" t="n">
+        <v>248</v>
+      </c>
+      <c r="F219" t="n">
+        <v>478.17</v>
+      </c>
+      <c r="G219" t="n">
+        <v>88250.92039056218</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>251</v>
+      </c>
+      <c r="J219" t="n">
+        <v>248</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>248</v>
+      </c>
+      <c r="C220" t="n">
+        <v>248</v>
+      </c>
+      <c r="D220" t="n">
+        <v>248</v>
+      </c>
+      <c r="E220" t="n">
+        <v>248</v>
+      </c>
+      <c r="F220" t="n">
+        <v>312</v>
+      </c>
+      <c r="G220" t="n">
+        <v>88250.92039056218</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>248</v>
+      </c>
+      <c r="J220" t="n">
+        <v>248</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>248</v>
+      </c>
+      <c r="C221" t="n">
+        <v>249</v>
+      </c>
+      <c r="D221" t="n">
+        <v>249</v>
+      </c>
+      <c r="E221" t="n">
+        <v>248</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8472.999900000001</v>
+      </c>
+      <c r="G221" t="n">
+        <v>96723.92029056218</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>248</v>
+      </c>
+      <c r="J221" t="n">
+        <v>248</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>249</v>
-      </c>
-      <c r="C211" t="n">
-        <v>249</v>
-      </c>
-      <c r="D211" t="n">
-        <v>249</v>
-      </c>
-      <c r="E211" t="n">
-        <v>249</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2492</v>
-      </c>
-      <c r="G211" t="n">
-        <v>104662.2374905622</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>249</v>
-      </c>
-      <c r="C212" t="n">
-        <v>249</v>
-      </c>
-      <c r="D212" t="n">
-        <v>249</v>
-      </c>
-      <c r="E212" t="n">
-        <v>249</v>
-      </c>
-      <c r="F212" t="n">
-        <v>589.3241</v>
-      </c>
-      <c r="G212" t="n">
-        <v>104662.2374905622</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>250</v>
-      </c>
-      <c r="C213" t="n">
-        <v>250</v>
-      </c>
-      <c r="D213" t="n">
-        <v>250</v>
-      </c>
-      <c r="E213" t="n">
-        <v>250</v>
-      </c>
-      <c r="F213" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G213" t="n">
-        <v>106662.2374905622</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>249</v>
-      </c>
-      <c r="C214" t="n">
-        <v>248</v>
-      </c>
-      <c r="D214" t="n">
-        <v>249</v>
-      </c>
-      <c r="E214" t="n">
-        <v>248</v>
-      </c>
-      <c r="F214" t="n">
-        <v>14903.1471</v>
-      </c>
-      <c r="G214" t="n">
-        <v>91759.09039056218</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>252</v>
-      </c>
-      <c r="C215" t="n">
-        <v>252</v>
-      </c>
-      <c r="D215" t="n">
-        <v>252</v>
-      </c>
-      <c r="E215" t="n">
-        <v>252</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1</v>
-      </c>
-      <c r="G215" t="n">
-        <v>91760.09039056218</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>248</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>249</v>
-      </c>
-      <c r="C216" t="n">
-        <v>248</v>
-      </c>
-      <c r="D216" t="n">
-        <v>249</v>
-      </c>
-      <c r="E216" t="n">
-        <v>248</v>
-      </c>
-      <c r="F216" t="n">
-        <v>3032</v>
-      </c>
-      <c r="G216" t="n">
-        <v>88728.09039056218</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>248</v>
-      </c>
-      <c r="C217" t="n">
-        <v>248</v>
-      </c>
-      <c r="D217" t="n">
-        <v>248</v>
-      </c>
-      <c r="E217" t="n">
-        <v>248</v>
-      </c>
-      <c r="F217" t="n">
-        <v>22571.3319</v>
-      </c>
-      <c r="G217" t="n">
-        <v>88728.09039056218</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>251</v>
-      </c>
-      <c r="C218" t="n">
-        <v>251</v>
-      </c>
-      <c r="D218" t="n">
-        <v>251</v>
-      </c>
-      <c r="E218" t="n">
-        <v>251</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1</v>
-      </c>
-      <c r="G218" t="n">
-        <v>88729.09039056218</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>248</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>248</v>
-      </c>
-      <c r="C219" t="n">
-        <v>248</v>
-      </c>
-      <c r="D219" t="n">
-        <v>248</v>
-      </c>
-      <c r="E219" t="n">
-        <v>248</v>
-      </c>
-      <c r="F219" t="n">
-        <v>478.17</v>
-      </c>
-      <c r="G219" t="n">
-        <v>88250.92039056218</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>248</v>
-      </c>
-      <c r="C220" t="n">
-        <v>248</v>
-      </c>
-      <c r="D220" t="n">
-        <v>248</v>
-      </c>
-      <c r="E220" t="n">
-        <v>248</v>
-      </c>
-      <c r="F220" t="n">
-        <v>312</v>
-      </c>
-      <c r="G220" t="n">
-        <v>88250.92039056218</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>248</v>
-      </c>
-      <c r="C221" t="n">
-        <v>249</v>
-      </c>
-      <c r="D221" t="n">
-        <v>249</v>
-      </c>
-      <c r="E221" t="n">
-        <v>248</v>
-      </c>
-      <c r="F221" t="n">
-        <v>8472.999900000001</v>
-      </c>
-      <c r="G221" t="n">
-        <v>96723.92029056218</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>248</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7772,7 +7748,9 @@
       <c r="I222" t="n">
         <v>249</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>248</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7806,10 +7784,14 @@
         <v>95561.92029056218</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>252</v>
+      </c>
+      <c r="J223" t="n">
+        <v>248</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7843,10 +7825,14 @@
         <v>95562.92029056218</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>249</v>
+      </c>
+      <c r="J224" t="n">
+        <v>248</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7885,7 +7871,9 @@
       <c r="I225" t="n">
         <v>250</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>248</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,7 +7912,9 @@
       <c r="I226" t="n">
         <v>249</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>248</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7963,7 +7953,9 @@
       <c r="I227" t="n">
         <v>251</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>248</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7997,10 +7989,14 @@
         <v>95353.20139056217</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>252</v>
+      </c>
+      <c r="J228" t="n">
+        <v>248</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8034,10 +8030,14 @@
         <v>95351.01839056217</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>252</v>
+      </c>
+      <c r="J229" t="n">
+        <v>248</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8076,7 +8076,9 @@
       <c r="I230" t="n">
         <v>248</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>248</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8110,10 +8112,14 @@
         <v>95314.51839056217</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>253</v>
+      </c>
+      <c r="J231" t="n">
+        <v>248</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8147,10 +8153,14 @@
         <v>95314.51839056217</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>252</v>
+      </c>
+      <c r="J232" t="n">
+        <v>248</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8184,10 +8194,14 @@
         <v>97468.01839056217</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>252</v>
+      </c>
+      <c r="J233" t="n">
+        <v>248</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8221,10 +8235,14 @@
         <v>97468.01839056217</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>253</v>
+      </c>
+      <c r="J234" t="n">
+        <v>248</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8258,10 +8276,14 @@
         <v>97469.01839056217</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>253</v>
+      </c>
+      <c r="J235" t="n">
+        <v>248</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8295,10 +8317,14 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>256</v>
+      </c>
+      <c r="J236" t="n">
+        <v>248</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8332,10 +8358,14 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>255</v>
+      </c>
+      <c r="J237" t="n">
+        <v>248</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8369,10 +8399,14 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>255</v>
+      </c>
+      <c r="J238" t="n">
+        <v>248</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8406,10 +8440,14 @@
         <v>97458.01839056217</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>255</v>
+      </c>
+      <c r="J239" t="n">
+        <v>248</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8443,10 +8481,14 @@
         <v>103220.0183905622</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>255</v>
+      </c>
+      <c r="J240" t="n">
+        <v>248</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8480,10 +8522,14 @@
         <v>104806.9866905622</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>256</v>
+      </c>
+      <c r="J241" t="n">
+        <v>248</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8517,10 +8563,14 @@
         <v>104806.9866905622</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>257</v>
+      </c>
+      <c r="J242" t="n">
+        <v>248</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8554,10 +8604,14 @@
         <v>104873.0176905622</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>257</v>
+      </c>
+      <c r="J243" t="n">
+        <v>248</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8591,16 +8645,22 @@
         <v>104471.1664905622</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>258</v>
+      </c>
+      <c r="J244" t="n">
+        <v>248</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
       <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
@@ -8626,11 +8686,19 @@
         <v>112172.4008905622</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>256</v>
+      </c>
+      <c r="J245" t="n">
+        <v>248</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +8727,19 @@
         <v>112172.4008905622</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>258</v>
+      </c>
+      <c r="J246" t="n">
+        <v>248</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8692,11 +8768,17 @@
         <v>115270.4008905622</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>248</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8725,11 +8807,17 @@
         <v>115270.4008905622</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>248</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8758,11 +8846,17 @@
         <v>118880.4008905622</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>248</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +8885,17 @@
         <v>117910.3294905622</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>248</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8824,11 +8924,17 @@
         <v>117913.3294905622</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>248</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8857,11 +8963,17 @@
         <v>117914.3294905622</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>248</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8890,11 +9002,17 @@
         <v>117686.4585905622</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>248</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8926,8 +9044,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>248</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8956,11 +9080,17 @@
         <v>121246.4585905622</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>248</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8989,11 +9119,17 @@
         <v>119582.3808905622</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>248</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9022,11 +9158,17 @@
         <v>119583.3808905622</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>248</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9055,11 +9197,17 @@
         <v>119583.3808905622</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>248</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9091,8 +9239,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>248</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9124,8 +9278,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>248</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9154,11 +9314,17 @@
         <v>116318.0086905622</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>248</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9187,11 +9353,17 @@
         <v>105002.4079905622</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>248</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9220,11 +9392,17 @@
         <v>105002.4079905622</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>248</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9253,11 +9431,17 @@
         <v>105003.4079905622</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>248</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9286,11 +9470,17 @@
         <v>105003.4079905622</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>248</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9322,8 +9512,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>248</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9355,8 +9551,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>248</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9388,8 +9590,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>248</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9421,8 +9629,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>248</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9454,8 +9668,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>248</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9487,8 +9707,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>248</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9517,11 +9743,17 @@
         <v>105004.4079905622</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>248</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9550,11 +9782,17 @@
         <v>105004.4079905622</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>248</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9583,11 +9821,17 @@
         <v>77004.40799056218</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>248</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9616,11 +9860,17 @@
         <v>81421.24129056217</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>248</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9652,8 +9902,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>248</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9685,8 +9941,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>248</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9718,8 +9980,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>248</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9751,8 +10019,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>248</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9784,8 +10058,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>248</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9817,8 +10097,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>248</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9850,8 +10136,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>248</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9883,8 +10175,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>248</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9916,8 +10214,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>248</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9949,8 +10253,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>248</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9982,8 +10292,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>248</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10015,8 +10331,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>248</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10048,8 +10370,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>248</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10081,8 +10409,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>248</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10114,8 +10448,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>248</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10147,8 +10487,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>248</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10180,8 +10526,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>248</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10210,11 +10562,19 @@
         <v>88936.57529056216</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>257</v>
+      </c>
+      <c r="J293" t="n">
+        <v>248</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10246,8 +10606,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>248</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10276,11 +10642,19 @@
         <v>89844.57529056216</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>257</v>
+      </c>
+      <c r="J295" t="n">
+        <v>248</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10312,8 +10686,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>248</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10342,11 +10722,19 @@
         <v>83922.75339056217</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>257</v>
+      </c>
+      <c r="J297" t="n">
+        <v>248</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10375,11 +10763,19 @@
         <v>93195.52579056217</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>256</v>
+      </c>
+      <c r="J298" t="n">
+        <v>248</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10408,11 +10804,19 @@
         <v>92303.79229056217</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>258</v>
+      </c>
+      <c r="J299" t="n">
+        <v>248</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10441,11 +10845,19 @@
         <v>92927.79229056217</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>257</v>
+      </c>
+      <c r="J300" t="n">
+        <v>248</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10477,8 +10889,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>248</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10510,8 +10928,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>248</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10543,8 +10967,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>248</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10576,8 +11006,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>248</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10609,8 +11045,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>248</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10642,8 +11084,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>248</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10675,8 +11123,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>248</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10708,8 +11162,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>248</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10741,8 +11201,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>248</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10774,8 +11240,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>248</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10807,8 +11279,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>248</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10840,8 +11318,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>248</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10873,8 +11357,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>248</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest INS.xlsx
+++ b/BackTest/2019-10-29 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M313"/>
+  <dimension ref="A1:L313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4241.3624</v>
       </c>
       <c r="G2" t="n">
-        <v>162581.5333363637</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1867.692</v>
       </c>
       <c r="G3" t="n">
-        <v>164449.2253363637</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>164450.2253363637</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>672.4475</v>
       </c>
       <c r="G5" t="n">
-        <v>163777.7778363637</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2156.0045</v>
       </c>
       <c r="G6" t="n">
-        <v>165933.7823363637</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2548.9235</v>
       </c>
       <c r="G7" t="n">
-        <v>165933.7823363637</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1141.5433</v>
       </c>
       <c r="G8" t="n">
-        <v>167075.3256363637</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>0.4567</v>
       </c>
       <c r="G9" t="n">
-        <v>167074.8689363637</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>292</v>
       </c>
       <c r="G10" t="n">
-        <v>166782.8689363637</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>71.54089999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>166782.8689363637</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1207.7683</v>
       </c>
       <c r="G12" t="n">
-        <v>167990.6372363637</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2763.2196</v>
       </c>
       <c r="G13" t="n">
-        <v>170753.8568363637</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>185.27</v>
       </c>
       <c r="G14" t="n">
-        <v>170753.8568363637</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>413</v>
       </c>
       <c r="G15" t="n">
-        <v>170753.8568363637</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>628.4277</v>
       </c>
       <c r="G16" t="n">
-        <v>170753.8568363637</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1000</v>
       </c>
       <c r="G17" t="n">
-        <v>171753.8568363637</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1240.3097</v>
       </c>
       <c r="G18" t="n">
-        <v>170513.5471363637</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>6126.7049</v>
       </c>
       <c r="G19" t="n">
-        <v>164386.8422363637</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>140</v>
       </c>
       <c r="G20" t="n">
-        <v>164526.8422363637</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>876.7565</v>
       </c>
       <c r="G21" t="n">
-        <v>164526.8422363637</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>468.75</v>
       </c>
       <c r="G22" t="n">
-        <v>164995.5922363637</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1000</v>
       </c>
       <c r="G23" t="n">
-        <v>163995.5922363637</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>718.75</v>
       </c>
       <c r="G24" t="n">
-        <v>163276.8422363637</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>468.75</v>
       </c>
       <c r="G25" t="n">
-        <v>163745.5922363637</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>871.176</v>
       </c>
       <c r="G26" t="n">
-        <v>162874.4162363637</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>162884.4162363637</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>218.5512</v>
       </c>
       <c r="G28" t="n">
-        <v>162884.4162363637</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>59</v>
       </c>
       <c r="G29" t="n">
-        <v>162884.4162363637</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>57.6153</v>
       </c>
       <c r="G30" t="n">
-        <v>162884.4162363637</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>162884.4162363637</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>162886.4162363637</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>162886.4162363637</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>21</v>
       </c>
       <c r="G34" t="n">
-        <v>162907.4162363637</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>162907.4162363637</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>520.499</v>
       </c>
       <c r="G36" t="n">
-        <v>162386.9172363637</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>649.8548</v>
       </c>
       <c r="G37" t="n">
-        <v>161737.0624363637</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>6346.7049</v>
       </c>
       <c r="G38" t="n">
-        <v>168083.7673363637</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>549.7395</v>
       </c>
       <c r="G39" t="n">
-        <v>168083.7673363637</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>16.974</v>
       </c>
       <c r="G40" t="n">
-        <v>168066.7933363637</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>27.6769</v>
       </c>
       <c r="G41" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>105.1884</v>
       </c>
       <c r="G42" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>6583.7694</v>
       </c>
       <c r="G43" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1348064</v>
       </c>
       <c r="G44" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1335150</v>
       </c>
       <c r="G45" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1689900</v>
       </c>
       <c r="G46" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1702800</v>
       </c>
       <c r="G47" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1728600</v>
       </c>
       <c r="G48" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1741500</v>
       </c>
       <c r="G49" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1728600</v>
       </c>
       <c r="G50" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1541550</v>
       </c>
       <c r="G51" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1218080.0539</v>
       </c>
       <c r="G52" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1554000</v>
       </c>
       <c r="G53" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1584857.7767</v>
       </c>
       <c r="G54" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1577496.3156</v>
       </c>
       <c r="G55" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1578503.6844</v>
       </c>
       <c r="G56" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1596000</v>
       </c>
       <c r="G57" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1614000</v>
       </c>
       <c r="G58" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1571496.3156</v>
       </c>
       <c r="G59" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1596000</v>
       </c>
       <c r="G60" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1596000</v>
       </c>
       <c r="G61" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1602000</v>
       </c>
       <c r="G62" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1608000</v>
       </c>
       <c r="G63" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1602149.4647</v>
       </c>
       <c r="G64" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>1572000</v>
       </c>
       <c r="G65" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1590000</v>
       </c>
       <c r="G66" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1572000</v>
       </c>
       <c r="G67" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1590000</v>
       </c>
       <c r="G68" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1602000</v>
       </c>
       <c r="G69" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>996000</v>
       </c>
       <c r="G70" t="n">
-        <v>168094.4702363637</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>544.3786</v>
       </c>
       <c r="G71" t="n">
-        <v>168638.8488363637</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>17655.9948</v>
       </c>
       <c r="G72" t="n">
-        <v>150982.8540363637</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>10540.3041</v>
       </c>
       <c r="G73" t="n">
-        <v>161523.1581363637</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>20</v>
       </c>
       <c r="G74" t="n">
-        <v>161503.1581363637</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1470.8840541984</v>
       </c>
       <c r="G75" t="n">
-        <v>162974.0421905621</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>162972.0421905621</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1050</v>
       </c>
       <c r="G77" t="n">
-        <v>162972.0421905621</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>162974.0421905621</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>6065.789</v>
       </c>
       <c r="G79" t="n">
-        <v>169039.8311905621</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>3846.1538</v>
       </c>
       <c r="G80" t="n">
-        <v>169039.8311905621</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>3699.6461</v>
       </c>
       <c r="G81" t="n">
-        <v>172739.4772905621</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>3113.3056</v>
       </c>
       <c r="G82" t="n">
-        <v>169626.1716905621</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>3503.6602</v>
       </c>
       <c r="G83" t="n">
-        <v>173129.8318905621</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1285</v>
       </c>
       <c r="G84" t="n">
-        <v>173129.8318905621</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2809.7583</v>
       </c>
       <c r="G85" t="n">
-        <v>170320.0735905622</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>2331.1439</v>
       </c>
       <c r="G86" t="n">
-        <v>172651.2174905622</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>172652.2174905622</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>2408.1363</v>
       </c>
       <c r="G88" t="n">
-        <v>170244.0811905621</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>168.97</v>
       </c>
       <c r="G89" t="n">
-        <v>170244.0811905621</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1918</v>
       </c>
       <c r="G90" t="n">
-        <v>172162.0811905621</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>731</v>
       </c>
       <c r="G91" t="n">
-        <v>171431.0811905621</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>1098.2266</v>
       </c>
       <c r="G92" t="n">
-        <v>170332.8545905621</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>265.843</v>
       </c>
       <c r="G93" t="n">
-        <v>170332.8545905621</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>170333.8545905621</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>170323.8545905621</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>20.95</v>
       </c>
       <c r="G96" t="n">
-        <v>170323.8545905621</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>749</v>
       </c>
       <c r="G97" t="n">
-        <v>170323.8545905621</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>3097.7031</v>
       </c>
       <c r="G98" t="n">
-        <v>170323.8545905621</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>6005</v>
       </c>
       <c r="G99" t="n">
-        <v>170323.8545905621</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>493.6966</v>
       </c>
       <c r="G100" t="n">
-        <v>170323.8545905621</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>800.5381</v>
       </c>
       <c r="G101" t="n">
-        <v>170323.8545905621</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>141.1843</v>
       </c>
       <c r="G102" t="n">
-        <v>170323.8545905621</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>324.2185</v>
       </c>
       <c r="G103" t="n">
-        <v>170323.8545905621</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>72</v>
       </c>
       <c r="G104" t="n">
-        <v>170323.8545905621</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>840</v>
       </c>
       <c r="G105" t="n">
-        <v>171163.8545905621</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>893.4104</v>
       </c>
       <c r="G106" t="n">
-        <v>170270.4441905621</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>2646</v>
       </c>
       <c r="G107" t="n">
-        <v>170270.4441905621</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>125</v>
       </c>
       <c r="G108" t="n">
-        <v>170270.4441905621</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>2175.3217</v>
       </c>
       <c r="G109" t="n">
-        <v>170270.4441905621</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>170270.4441905621</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>498.5028</v>
       </c>
       <c r="G111" t="n">
-        <v>170270.4441905621</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>170271.4441905621</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>8084.5926</v>
       </c>
       <c r="G113" t="n">
-        <v>178356.0367905622</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>300</v>
       </c>
       <c r="G114" t="n">
-        <v>178056.0367905622</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>42.436</v>
       </c>
       <c r="G115" t="n">
-        <v>178056.0367905622</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>2</v>
       </c>
       <c r="G116" t="n">
-        <v>178058.0367905622</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>1030.535</v>
       </c>
       <c r="G117" t="n">
-        <v>177027.5017905621</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>4860.751</v>
       </c>
       <c r="G118" t="n">
-        <v>177027.5017905621</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>277</v>
       </c>
       <c r="G119" t="n">
-        <v>177027.5017905621</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>449.4363</v>
       </c>
       <c r="G120" t="n">
-        <v>177027.5017905621</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>1447.8494</v>
       </c>
       <c r="G121" t="n">
-        <v>177027.5017905621</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>3253.6474</v>
       </c>
       <c r="G122" t="n">
-        <v>173773.8543905622</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>3283.0306</v>
       </c>
       <c r="G123" t="n">
-        <v>177056.8849905622</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1297.7099</v>
       </c>
       <c r="G124" t="n">
-        <v>177056.8849905622</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>1151.68</v>
       </c>
       <c r="G125" t="n">
-        <v>175905.2049905622</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>6317.0049</v>
       </c>
       <c r="G126" t="n">
-        <v>175905.2049905622</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>224</v>
       </c>
       <c r="G127" t="n">
-        <v>175905.2049905622</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>267.85</v>
       </c>
       <c r="G128" t="n">
-        <v>175905.2049905622</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>123</v>
       </c>
       <c r="G129" t="n">
-        <v>175782.2049905622</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>2195.7226</v>
       </c>
       <c r="G130" t="n">
-        <v>173586.4823905622</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>173588.4823905622</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1845.1341</v>
       </c>
       <c r="G132" t="n">
-        <v>171743.3482905622</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>4679.3009</v>
       </c>
       <c r="G133" t="n">
-        <v>176422.6491905622</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>1373.7914</v>
       </c>
       <c r="G134" t="n">
-        <v>176422.6491905622</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>1207.7508</v>
       </c>
       <c r="G135" t="n">
-        <v>177630.3999905622</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>290.0625</v>
       </c>
       <c r="G136" t="n">
-        <v>177630.3999905622</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>5708.1908</v>
       </c>
       <c r="G137" t="n">
-        <v>177630.3999905622</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>2031.394</v>
       </c>
       <c r="G138" t="n">
-        <v>179661.7939905622</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>1926.9743</v>
       </c>
       <c r="G139" t="n">
-        <v>177734.8196905622</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>177735.8196905622</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>199.0899</v>
       </c>
       <c r="G141" t="n">
-        <v>177536.7297905622</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>365</v>
       </c>
       <c r="G142" t="n">
-        <v>177536.7297905622</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>199.0899</v>
       </c>
       <c r="G143" t="n">
-        <v>177536.7297905622</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>8472.999900000001</v>
       </c>
       <c r="G144" t="n">
-        <v>186009.7296905622</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>292</v>
       </c>
       <c r="G145" t="n">
-        <v>186009.7296905622</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>3</v>
       </c>
       <c r="G146" t="n">
-        <v>186009.7296905622</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>2684.7796</v>
       </c>
       <c r="G147" t="n">
-        <v>186009.7296905622</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>186009.7296905622</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>1697.7781</v>
       </c>
       <c r="G149" t="n">
-        <v>186009.7296905622</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>2</v>
       </c>
       <c r="G150" t="n">
-        <v>186011.7296905622</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>987</v>
       </c>
       <c r="G151" t="n">
-        <v>186011.7296905622</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>300</v>
       </c>
       <c r="G152" t="n">
-        <v>186011.7296905622</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>300</v>
       </c>
       <c r="G153" t="n">
-        <v>185711.7296905622</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>185712.7296905622</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>652.1832000000001</v>
       </c>
       <c r="G155" t="n">
-        <v>185060.5464905622</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>4</v>
       </c>
       <c r="G156" t="n">
-        <v>185064.5464905622</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>185054.5464905622</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>2</v>
       </c>
       <c r="G158" t="n">
-        <v>185056.5464905622</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>11284.3522</v>
       </c>
       <c r="G159" t="n">
-        <v>185056.5464905622</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>4.9769</v>
       </c>
       <c r="G160" t="n">
-        <v>185056.5464905622</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>3036.4687</v>
       </c>
       <c r="G161" t="n">
-        <v>182020.0777905622</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>421.9734</v>
       </c>
       <c r="G162" t="n">
-        <v>182442.0511905622</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>12.662</v>
       </c>
       <c r="G163" t="n">
-        <v>182454.7131905622</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>455.7645</v>
       </c>
       <c r="G164" t="n">
-        <v>181998.9486905622</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>2029.6263</v>
       </c>
       <c r="G165" t="n">
-        <v>184028.5749905622</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>41.6997</v>
       </c>
       <c r="G166" t="n">
-        <v>184028.5749905622</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>1283.6968</v>
       </c>
       <c r="G167" t="n">
-        <v>184028.5749905622</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>2</v>
       </c>
       <c r="G168" t="n">
-        <v>184026.5749905622</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>1332.8003</v>
       </c>
       <c r="G169" t="n">
-        <v>185359.3752905622</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>3863.3442</v>
       </c>
       <c r="G170" t="n">
-        <v>181496.0310905622</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>1519.5</v>
       </c>
       <c r="G171" t="n">
-        <v>179976.5310905622</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>179977.5310905622</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>78.125</v>
       </c>
       <c r="G173" t="n">
-        <v>179899.4060905622</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>13106.9266</v>
       </c>
       <c r="G174" t="n">
-        <v>166792.4794905622</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>1157.2795</v>
       </c>
       <c r="G175" t="n">
-        <v>165635.1999905622</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,19 @@
         <v>3</v>
       </c>
       <c r="G176" t="n">
-        <v>165638.1999905622</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="I176" t="n">
+        <v>251</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5697,21 @@
         <v>820.5833</v>
       </c>
       <c r="G177" t="n">
-        <v>165638.1999905622</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>251</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5733,21 @@
         <v>9646.7405</v>
       </c>
       <c r="G178" t="n">
-        <v>165638.1999905622</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>251</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5769,21 @@
         <v>603.174</v>
       </c>
       <c r="G179" t="n">
-        <v>165035.0259905622</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>251</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5805,21 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>165036.0259905622</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>251</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5841,21 @@
         <v>2249.0912</v>
       </c>
       <c r="G181" t="n">
-        <v>162786.9347905622</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>251</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5877,21 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>162787.9347905622</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>251</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5913,21 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>162787.9347905622</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>251</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5949,21 @@
         <v>4434.7138</v>
       </c>
       <c r="G184" t="n">
-        <v>158353.2209905622</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>251</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5985,21 @@
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>158354.2209905622</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>251</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6021,23 @@
         <v>331.4983</v>
       </c>
       <c r="G186" t="n">
-        <v>158022.7226905622</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="I186" t="n">
+        <v>251</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6059,21 @@
         <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>158023.7226905622</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>251</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6095,21 @@
         <v>2952.9999</v>
       </c>
       <c r="G188" t="n">
-        <v>158023.7226905622</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>251</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6131,21 @@
         <v>588</v>
       </c>
       <c r="G189" t="n">
-        <v>158023.7226905622</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>251</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6167,21 @@
         <v>33063.7969</v>
       </c>
       <c r="G190" t="n">
-        <v>124959.9257905622</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>251</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6203,21 @@
         <v>3594.2084</v>
       </c>
       <c r="G191" t="n">
-        <v>124959.9257905622</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>251</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6239,21 @@
         <v>43.5006</v>
       </c>
       <c r="G192" t="n">
-        <v>125003.4263905622</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>251</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6275,21 @@
         <v>8.7539</v>
       </c>
       <c r="G193" t="n">
-        <v>124994.6724905622</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>251</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6311,21 @@
         <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>124995.6724905622</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>251</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6347,21 @@
         <v>14858.1768</v>
       </c>
       <c r="G195" t="n">
-        <v>110137.4956905622</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>251</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6383,21 @@
         <v>2203.3644</v>
       </c>
       <c r="G196" t="n">
-        <v>110137.4956905622</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>251</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6419,21 @@
         <v>310</v>
       </c>
       <c r="G197" t="n">
-        <v>110137.4956905622</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>251</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6455,21 @@
         <v>1467.2068</v>
       </c>
       <c r="G198" t="n">
-        <v>108670.2888905622</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>251</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6491,21 @@
         <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>108671.2888905622</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>251</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6527,21 @@
         <v>3998</v>
       </c>
       <c r="G200" t="n">
-        <v>108671.2888905622</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>251</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6563,21 @@
         <v>5672.2112</v>
       </c>
       <c r="G201" t="n">
-        <v>102999.0776905622</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>251</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6599,21 @@
         <v>4.366</v>
       </c>
       <c r="G202" t="n">
-        <v>102994.7116905622</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>251</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6635,21 @@
         <v>1256.2272</v>
       </c>
       <c r="G203" t="n">
-        <v>102994.7116905622</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>251</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6671,21 @@
         <v>2089.3704</v>
       </c>
       <c r="G204" t="n">
-        <v>102994.7116905622</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>251</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6707,21 @@
         <v>25579.1355</v>
       </c>
       <c r="G205" t="n">
-        <v>102994.7116905622</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>251</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6743,23 @@
         <v>5367.9995</v>
       </c>
       <c r="G206" t="n">
-        <v>102994.7116905622</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I206" t="n">
+        <v>251</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6781,21 @@
         <v>677</v>
       </c>
       <c r="G207" t="n">
-        <v>102994.7116905622</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>251</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6817,23 @@
         <v>323.3915</v>
       </c>
       <c r="G208" t="n">
-        <v>102994.7116905622</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I208" t="n">
+        <v>251</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6855,23 @@
         <v>2369.01</v>
       </c>
       <c r="G209" t="n">
-        <v>105363.7216905622</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I209" t="n">
+        <v>251</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6893,23 @@
         <v>701.4842</v>
       </c>
       <c r="G210" t="n">
-        <v>104662.2374905622</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="I210" t="n">
+        <v>251</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6931,23 @@
         <v>2492</v>
       </c>
       <c r="G211" t="n">
-        <v>104662.2374905622</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I211" t="n">
+        <v>251</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6969,23 @@
         <v>589.3241</v>
       </c>
       <c r="G212" t="n">
-        <v>104662.2374905622</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I212" t="n">
+        <v>251</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7007,23 @@
         <v>2000</v>
       </c>
       <c r="G213" t="n">
-        <v>106662.2374905622</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I213" t="n">
+        <v>251</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7045,23 @@
         <v>14903.1471</v>
       </c>
       <c r="G214" t="n">
-        <v>91759.09039056218</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="I214" t="n">
+        <v>251</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7083,23 @@
         <v>1</v>
       </c>
       <c r="G215" t="n">
-        <v>91760.09039056218</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I215" t="n">
+        <v>251</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7121,23 @@
         <v>3032</v>
       </c>
       <c r="G216" t="n">
-        <v>88728.09039056218</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>252</v>
+      </c>
+      <c r="I216" t="n">
+        <v>251</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,22 +7159,23 @@
         <v>22571.3319</v>
       </c>
       <c r="G217" t="n">
-        <v>88728.09039056218</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="I217" t="n">
-        <v>248</v>
-      </c>
-      <c r="J217" t="n">
-        <v>248</v>
-      </c>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7580,26 +7197,23 @@
         <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>88729.09039056218</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="I218" t="n">
-        <v>248</v>
-      </c>
-      <c r="J218" t="n">
-        <v>248</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7621,26 +7235,23 @@
         <v>478.17</v>
       </c>
       <c r="G219" t="n">
-        <v>88250.92039056218</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="I219" t="n">
         <v>251</v>
       </c>
-      <c r="J219" t="n">
-        <v>248</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7662,22 +7273,23 @@
         <v>312</v>
       </c>
       <c r="G220" t="n">
-        <v>88250.92039056218</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="I220" t="n">
-        <v>248</v>
-      </c>
-      <c r="J220" t="n">
-        <v>248</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7699,26 +7311,23 @@
         <v>8472.999900000001</v>
       </c>
       <c r="G221" t="n">
-        <v>96723.92029056218</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="I221" t="n">
-        <v>248</v>
-      </c>
-      <c r="J221" t="n">
-        <v>248</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7740,26 +7349,23 @@
         <v>314</v>
       </c>
       <c r="G222" t="n">
-        <v>97037.92029056218</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="I222" t="n">
-        <v>249</v>
-      </c>
-      <c r="J222" t="n">
-        <v>248</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7781,26 +7387,21 @@
         <v>1476</v>
       </c>
       <c r="G223" t="n">
-        <v>95561.92029056218</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="n">
-        <v>252</v>
-      </c>
-      <c r="J223" t="n">
-        <v>248</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7822,26 +7423,21 @@
         <v>1</v>
       </c>
       <c r="G224" t="n">
-        <v>95562.92029056218</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="n">
-        <v>249</v>
-      </c>
-      <c r="J224" t="n">
-        <v>248</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7863,26 +7459,21 @@
         <v>295.7189</v>
       </c>
       <c r="G225" t="n">
-        <v>95267.20139056217</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="n">
-        <v>250</v>
-      </c>
-      <c r="J225" t="n">
-        <v>248</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7904,26 +7495,21 @@
         <v>1</v>
       </c>
       <c r="G226" t="n">
-        <v>95268.20139056217</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="n">
-        <v>249</v>
-      </c>
-      <c r="J226" t="n">
-        <v>248</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7945,26 +7531,21 @@
         <v>85</v>
       </c>
       <c r="G227" t="n">
-        <v>95353.20139056217</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="n">
         <v>251</v>
       </c>
-      <c r="J227" t="n">
-        <v>248</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7986,26 +7567,21 @@
         <v>1000</v>
       </c>
       <c r="G228" t="n">
-        <v>95353.20139056217</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="n">
-        <v>252</v>
-      </c>
-      <c r="J228" t="n">
-        <v>248</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8027,26 +7603,21 @@
         <v>2.183</v>
       </c>
       <c r="G229" t="n">
-        <v>95351.01839056217</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="n">
-        <v>252</v>
-      </c>
-      <c r="J229" t="n">
-        <v>248</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8068,26 +7639,21 @@
         <v>1</v>
       </c>
       <c r="G230" t="n">
-        <v>95352.01839056217</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="n">
-        <v>248</v>
-      </c>
-      <c r="J230" t="n">
-        <v>248</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8109,26 +7675,21 @@
         <v>37.5</v>
       </c>
       <c r="G231" t="n">
-        <v>95314.51839056217</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="n">
-        <v>253</v>
-      </c>
-      <c r="J231" t="n">
-        <v>248</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8150,26 +7711,21 @@
         <v>4309</v>
       </c>
       <c r="G232" t="n">
-        <v>95314.51839056217</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="n">
-        <v>252</v>
-      </c>
-      <c r="J232" t="n">
-        <v>248</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8191,26 +7747,21 @@
         <v>2153.5</v>
       </c>
       <c r="G233" t="n">
-        <v>97468.01839056217</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="n">
-        <v>252</v>
-      </c>
-      <c r="J233" t="n">
-        <v>248</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8232,26 +7783,21 @@
         <v>1526.3518</v>
       </c>
       <c r="G234" t="n">
-        <v>97468.01839056217</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="n">
-        <v>253</v>
-      </c>
-      <c r="J234" t="n">
-        <v>248</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8273,26 +7819,21 @@
         <v>1</v>
       </c>
       <c r="G235" t="n">
-        <v>97469.01839056217</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="n">
-        <v>253</v>
-      </c>
-      <c r="J235" t="n">
-        <v>248</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8314,26 +7855,21 @@
         <v>11</v>
       </c>
       <c r="G236" t="n">
-        <v>97458.01839056217</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="n">
-        <v>256</v>
-      </c>
-      <c r="J236" t="n">
-        <v>248</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8355,26 +7891,21 @@
         <v>1326.004</v>
       </c>
       <c r="G237" t="n">
-        <v>97458.01839056217</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="n">
-        <v>255</v>
-      </c>
-      <c r="J237" t="n">
-        <v>248</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8396,26 +7927,21 @@
         <v>857</v>
       </c>
       <c r="G238" t="n">
-        <v>97458.01839056217</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="n">
-        <v>255</v>
-      </c>
-      <c r="J238" t="n">
-        <v>248</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8437,26 +7963,21 @@
         <v>927</v>
       </c>
       <c r="G239" t="n">
-        <v>97458.01839056217</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="n">
-        <v>255</v>
-      </c>
-      <c r="J239" t="n">
-        <v>248</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8478,26 +7999,21 @@
         <v>5762</v>
       </c>
       <c r="G240" t="n">
-        <v>103220.0183905622</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="n">
-        <v>255</v>
-      </c>
-      <c r="J240" t="n">
-        <v>248</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8519,26 +8035,21 @@
         <v>1586.9683</v>
       </c>
       <c r="G241" t="n">
-        <v>104806.9866905622</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="n">
-        <v>256</v>
-      </c>
-      <c r="J241" t="n">
-        <v>248</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8560,26 +8071,21 @@
         <v>1086.3702</v>
       </c>
       <c r="G242" t="n">
-        <v>104806.9866905622</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="n">
-        <v>257</v>
-      </c>
-      <c r="J242" t="n">
-        <v>248</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8601,26 +8107,21 @@
         <v>66.03100000000001</v>
       </c>
       <c r="G243" t="n">
-        <v>104873.0176905622</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="n">
-        <v>257</v>
-      </c>
-      <c r="J243" t="n">
-        <v>248</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8642,26 +8143,21 @@
         <v>401.8512</v>
       </c>
       <c r="G244" t="n">
-        <v>104471.1664905622</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
-        <v>258</v>
-      </c>
-      <c r="J244" t="n">
-        <v>248</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8683,26 +8179,21 @@
         <v>7701.2344</v>
       </c>
       <c r="G245" t="n">
-        <v>112172.4008905622</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="n">
-        <v>256</v>
-      </c>
-      <c r="J245" t="n">
-        <v>248</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8724,26 +8215,21 @@
         <v>378.5819</v>
       </c>
       <c r="G246" t="n">
-        <v>112172.4008905622</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="n">
-        <v>258</v>
-      </c>
-      <c r="J246" t="n">
-        <v>248</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8765,24 +8251,21 @@
         <v>3098</v>
       </c>
       <c r="G247" t="n">
-        <v>115270.4008905622</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>248</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>251</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8804,24 +8287,21 @@
         <v>6635.9999</v>
       </c>
       <c r="G248" t="n">
-        <v>115270.4008905622</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>248</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>251</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8843,24 +8323,21 @@
         <v>3610</v>
       </c>
       <c r="G249" t="n">
-        <v>118880.4008905622</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>248</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>251</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8882,24 +8359,21 @@
         <v>970.0714</v>
       </c>
       <c r="G250" t="n">
-        <v>117910.3294905622</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>248</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>251</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8921,24 +8395,21 @@
         <v>3</v>
       </c>
       <c r="G251" t="n">
-        <v>117913.3294905622</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>248</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>251</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8960,24 +8431,21 @@
         <v>1</v>
       </c>
       <c r="G252" t="n">
-        <v>117914.3294905622</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>248</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>251</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8999,24 +8467,21 @@
         <v>227.8709</v>
       </c>
       <c r="G253" t="n">
-        <v>117686.4585905622</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>248</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>251</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9038,24 +8503,21 @@
         <v>3560</v>
       </c>
       <c r="G254" t="n">
-        <v>121246.4585905622</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>248</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>251</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9077,24 +8539,21 @@
         <v>1682</v>
       </c>
       <c r="G255" t="n">
-        <v>121246.4585905622</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>248</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>251</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9116,24 +8575,21 @@
         <v>1664.0777</v>
       </c>
       <c r="G256" t="n">
-        <v>119582.3808905622</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>248</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>251</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9155,24 +8611,21 @@
         <v>1</v>
       </c>
       <c r="G257" t="n">
-        <v>119583.3808905622</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>248</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>251</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9194,24 +8647,21 @@
         <v>321</v>
       </c>
       <c r="G258" t="n">
-        <v>119583.3808905622</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>248</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="n">
+        <v>251</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9233,24 +8683,21 @@
         <v>577</v>
       </c>
       <c r="G259" t="n">
-        <v>119583.3808905622</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>248</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="n">
+        <v>251</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9272,24 +8719,21 @@
         <v>355.6023</v>
       </c>
       <c r="G260" t="n">
-        <v>119227.7785905622</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>248</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>251</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9311,24 +8755,21 @@
         <v>2909.7699</v>
       </c>
       <c r="G261" t="n">
-        <v>116318.0086905622</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>248</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>251</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9350,24 +8791,21 @@
         <v>11315.6007</v>
       </c>
       <c r="G262" t="n">
-        <v>105002.4079905622</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>248</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="n">
+        <v>251</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9389,24 +8827,21 @@
         <v>32.2881</v>
       </c>
       <c r="G263" t="n">
-        <v>105002.4079905622</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>248</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="n">
+        <v>251</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9428,24 +8863,21 @@
         <v>1</v>
       </c>
       <c r="G264" t="n">
-        <v>105003.4079905622</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>248</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="n">
+        <v>251</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9467,24 +8899,21 @@
         <v>39.5173</v>
       </c>
       <c r="G265" t="n">
-        <v>105003.4079905622</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>248</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>251</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9506,24 +8935,21 @@
         <v>1</v>
       </c>
       <c r="G266" t="n">
-        <v>105004.4079905622</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>248</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="n">
+        <v>251</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9545,24 +8971,21 @@
         <v>15.5635</v>
       </c>
       <c r="G267" t="n">
-        <v>105004.4079905622</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>248</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="n">
+        <v>251</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9584,24 +9007,21 @@
         <v>187</v>
       </c>
       <c r="G268" t="n">
-        <v>105004.4079905622</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>248</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="n">
+        <v>251</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9623,24 +9043,21 @@
         <v>1743</v>
       </c>
       <c r="G269" t="n">
-        <v>105004.4079905622</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>248</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>251</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9662,24 +9079,21 @@
         <v>2420</v>
       </c>
       <c r="G270" t="n">
-        <v>105004.4079905622</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>248</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>251</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9701,24 +9115,21 @@
         <v>2502.6721</v>
       </c>
       <c r="G271" t="n">
-        <v>105004.4079905622</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>248</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>251</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9740,24 +9151,21 @@
         <v>1258.9999</v>
       </c>
       <c r="G272" t="n">
-        <v>105004.4079905622</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>248</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>251</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9779,24 +9187,21 @@
         <v>193.8531</v>
       </c>
       <c r="G273" t="n">
-        <v>105004.4079905622</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>248</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>251</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9818,24 +9223,21 @@
         <v>28000</v>
       </c>
       <c r="G274" t="n">
-        <v>77004.40799056218</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>248</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="n">
+        <v>251</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9857,24 +9259,21 @@
         <v>4416.8333</v>
       </c>
       <c r="G275" t="n">
-        <v>81421.24129056217</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>248</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="n">
+        <v>251</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9896,24 +9295,21 @@
         <v>1925</v>
       </c>
       <c r="G276" t="n">
-        <v>81421.24129056217</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>248</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="n">
+        <v>251</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9935,24 +9331,21 @@
         <v>1615</v>
       </c>
       <c r="G277" t="n">
-        <v>81421.24129056217</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>248</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="n">
+        <v>251</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9974,24 +9367,21 @@
         <v>22365.9999</v>
       </c>
       <c r="G278" t="n">
-        <v>81421.24129056217</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>248</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="n">
+        <v>251</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10013,24 +9403,21 @@
         <v>7222.4369</v>
       </c>
       <c r="G279" t="n">
-        <v>88643.67819056218</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>248</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>251</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10052,24 +9439,21 @@
         <v>1149.4252</v>
       </c>
       <c r="G280" t="n">
-        <v>89793.10339056217</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>248</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="n">
+        <v>251</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10091,24 +9475,21 @@
         <v>1233</v>
       </c>
       <c r="G281" t="n">
-        <v>89793.10339056217</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>248</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="n">
+        <v>251</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10130,24 +9511,21 @@
         <v>296.6234</v>
       </c>
       <c r="G282" t="n">
-        <v>89793.10339056217</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>248</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="n">
+        <v>251</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10169,24 +9547,21 @@
         <v>2759.0495</v>
       </c>
       <c r="G283" t="n">
-        <v>89793.10339056217</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>248</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="n">
+        <v>251</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10208,24 +9583,21 @@
         <v>1000</v>
       </c>
       <c r="G284" t="n">
-        <v>89793.10339056217</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>248</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="n">
+        <v>251</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10247,24 +9619,21 @@
         <v>9146.440699999999</v>
       </c>
       <c r="G285" t="n">
-        <v>89793.10339056217</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>248</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="n">
+        <v>251</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10286,24 +9655,21 @@
         <v>446.8174</v>
       </c>
       <c r="G286" t="n">
-        <v>89793.10339056217</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>248</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="n">
+        <v>251</v>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10325,24 +9691,21 @@
         <v>1398.1824</v>
       </c>
       <c r="G287" t="n">
-        <v>89793.10339056217</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>248</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="n">
+        <v>251</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10364,24 +9727,21 @@
         <v>0.0001</v>
       </c>
       <c r="G288" t="n">
-        <v>89793.10339056217</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>248</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="n">
+        <v>251</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10403,24 +9763,21 @@
         <v>17.6751</v>
       </c>
       <c r="G289" t="n">
-        <v>89775.42829056218</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>248</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="n">
+        <v>251</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10442,24 +9799,21 @@
         <v>118.748</v>
       </c>
       <c r="G290" t="n">
-        <v>89656.68029056217</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>248</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="n">
+        <v>251</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10481,24 +9835,21 @@
         <v>676.99</v>
       </c>
       <c r="G291" t="n">
-        <v>88979.69029056217</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>248</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="n">
+        <v>251</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10520,24 +9871,21 @@
         <v>517.7619</v>
       </c>
       <c r="G292" t="n">
-        <v>88979.69029056217</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>248</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="n">
+        <v>251</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10559,26 +9907,21 @@
         <v>43.115</v>
       </c>
       <c r="G293" t="n">
-        <v>88936.57529056216</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="n">
-        <v>257</v>
-      </c>
-      <c r="J293" t="n">
-        <v>248</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10600,24 +9943,21 @@
         <v>908</v>
       </c>
       <c r="G294" t="n">
-        <v>89844.57529056216</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>248</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="n">
+        <v>251</v>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10639,26 +9979,21 @@
         <v>1499.9999</v>
       </c>
       <c r="G295" t="n">
-        <v>89844.57529056216</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="n">
-        <v>257</v>
-      </c>
-      <c r="J295" t="n">
-        <v>248</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10680,24 +10015,21 @@
         <v>268.6274</v>
       </c>
       <c r="G296" t="n">
-        <v>89844.57529056216</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>248</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="n">
+        <v>251</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10719,26 +10051,21 @@
         <v>5921.8219</v>
       </c>
       <c r="G297" t="n">
-        <v>83922.75339056217</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="n">
-        <v>257</v>
-      </c>
-      <c r="J297" t="n">
-        <v>248</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10760,26 +10087,21 @@
         <v>9272.7724</v>
       </c>
       <c r="G298" t="n">
-        <v>93195.52579056217</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="n">
-        <v>256</v>
-      </c>
-      <c r="J298" t="n">
-        <v>248</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10801,26 +10123,21 @@
         <v>891.7335</v>
       </c>
       <c r="G299" t="n">
-        <v>92303.79229056217</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="n">
-        <v>258</v>
-      </c>
-      <c r="J299" t="n">
-        <v>248</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10842,26 +10159,21 @@
         <v>624</v>
       </c>
       <c r="G300" t="n">
-        <v>92927.79229056217</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="n">
-        <v>257</v>
-      </c>
-      <c r="J300" t="n">
-        <v>248</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10883,24 +10195,21 @@
         <v>970.6658</v>
       </c>
       <c r="G301" t="n">
-        <v>92927.79229056217</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>248</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="n">
+        <v>251</v>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10922,24 +10231,21 @@
         <v>393</v>
       </c>
       <c r="G302" t="n">
-        <v>93320.79229056217</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>248</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="n">
+        <v>251</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10961,24 +10267,21 @@
         <v>3074.5862</v>
       </c>
       <c r="G303" t="n">
-        <v>96395.37849056217</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>248</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="n">
+        <v>251</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11000,24 +10303,21 @@
         <v>4164</v>
       </c>
       <c r="G304" t="n">
-        <v>96395.37849056217</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>248</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="n">
+        <v>251</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11039,24 +10339,21 @@
         <v>2783.0597</v>
       </c>
       <c r="G305" t="n">
-        <v>96395.37849056217</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>248</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="n">
+        <v>251</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11078,24 +10375,21 @@
         <v>2054.7187</v>
       </c>
       <c r="G306" t="n">
-        <v>98450.09719056217</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>248</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="n">
+        <v>251</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11117,24 +10411,21 @@
         <v>259</v>
       </c>
       <c r="G307" t="n">
-        <v>98450.09719056217</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>248</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="n">
+        <v>251</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11156,24 +10447,21 @@
         <v>5914.7439</v>
       </c>
       <c r="G308" t="n">
-        <v>98450.09719056217</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>248</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="n">
+        <v>251</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11195,24 +10483,21 @@
         <v>1000</v>
       </c>
       <c r="G309" t="n">
-        <v>97450.09719056217</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>248</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="n">
+        <v>251</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11234,24 +10519,21 @@
         <v>6941.5535</v>
       </c>
       <c r="G310" t="n">
-        <v>104391.6506905622</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>248</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="n">
+        <v>251</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11273,24 +10555,21 @@
         <v>500</v>
       </c>
       <c r="G311" t="n">
-        <v>103891.6506905622</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>248</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="n">
+        <v>251</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11312,24 +10591,21 @@
         <v>250</v>
       </c>
       <c r="G312" t="n">
-        <v>103891.6506905622</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>248</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="n">
+        <v>251</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11351,24 +10627,21 @@
         <v>685</v>
       </c>
       <c r="G313" t="n">
-        <v>103206.6506905622</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>248</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="n">
+        <v>251</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
